--- a/Misc/game-content.xlsx
+++ b/Misc/game-content.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Csump\source\repos\dokk-game\Misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15440595-6025-45D9-89DC-7D5F614D0F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{335A19FB-67D2-4FD0-B509-5514CCE0D5D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19110" windowHeight="15585" xr2:uid="{CCEB2629-634A-424F-AEF4-625E334951C3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CCEB2629-634A-424F-AEF4-625E334951C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Döntések" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="236">
   <si>
     <t>Szituáció ID</t>
   </si>
@@ -822,45 +822,25 @@
   <si>
     <t>?</t>
   </si>
-  <si>
-    <t>c33</t>
-  </si>
-  <si>
-    <t>c36</t>
-  </si>
-  <si>
-    <t>c34</t>
-  </si>
-  <si>
-    <t>c38</t>
-  </si>
-  <si>
-    <t>c37</t>
-  </si>
-  <si>
-    <t>c43</t>
-  </si>
-  <si>
-    <t>c46</t>
-  </si>
-  <si>
-    <t>c50</t>
-  </si>
-  <si>
-    <t>c51</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -909,18 +889,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -940,10 +914,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <extLst>
         <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
@@ -951,30 +925,28 @@
         </ext>
       </extLst>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -1345,32 +1317,32 @@
   <dimension ref="A1:M116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F80" sqref="F80"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="4" style="1" customWidth="1"/>
-    <col min="3" max="3" width="41.42578125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="52.5703125" style="13" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="3.85546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="10"/>
-    <col min="13" max="13" width="9.140625" style="8"/>
-    <col min="14" max="16384" width="9.140625" style="10"/>
+    <col min="5" max="11" width="10" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="13"/>
+    <col min="13" max="13" width="9.140625" style="14"/>
+    <col min="14" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="9" t="s">
+    <row r="1" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
@@ -1394,7 +1366,7 @@
       <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="7"/>
+      <c r="M1" s="12"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
@@ -1404,7 +1376,7 @@
       <c r="B2" s="1">
         <v>3</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="13" t="s">
         <v>124</v>
       </c>
       <c r="D2" s="1">
@@ -1416,7 +1388,7 @@
       <c r="G2" s="1">
         <v>-1</v>
       </c>
-      <c r="M2" s="8" t="str">
+      <c r="M2" s="14" t="str">
         <f>VLOOKUP(D2,Szituációk!A:B,2,FALSE)</f>
         <v>Az oktatási dékánhelyettes úgy látja, hogy az OMHV adatok alapján nem lehet kurzust átalakítani, további információk megszerzését kéri!</v>
       </c>
@@ -1429,7 +1401,7 @@
       <c r="B3" s="1">
         <v>3</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="13" t="s">
         <v>125</v>
       </c>
       <c r="D3" s="1">
@@ -1441,7 +1413,7 @@
       <c r="H3" s="1">
         <v>1</v>
       </c>
-      <c r="M3" s="8" t="str">
+      <c r="M3" s="14" t="str">
         <f>VLOOKUP(D3,Szituációk!A:B,2,FALSE)</f>
         <v>Bár hosszan próbáltok érvelni a döntésetek mellett, az oktatási dékánhelyettes nem ért egyet azzal, hogy nem kell megújítani a kurzusokat, így újra össze kell hívnotok a csapatot.</v>
       </c>
@@ -1454,7 +1426,7 @@
       <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="13" t="s">
         <v>126</v>
       </c>
       <c r="D4" s="1">
@@ -1469,7 +1441,7 @@
       <c r="H4" s="1">
         <v>-1</v>
       </c>
-      <c r="M4" s="8" t="str">
+      <c r="M4" s="14" t="str">
         <f>VLOOKUP(D4,Szituációk!A:B,2,FALSE)</f>
         <v xml:space="preserve">A csapatban a feladatok kiosztása során te kapod meg az adatgyűjtés tervezésének feladatát. Milyen módszert javasolsz ehhez a csapatnak? </v>
       </c>
@@ -1482,7 +1454,7 @@
       <c r="B5" s="1">
         <v>6</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="13" t="s">
         <v>127</v>
       </c>
       <c r="D5" s="1">
@@ -1491,7 +1463,7 @@
       <c r="G5" s="1">
         <v>1</v>
       </c>
-      <c r="M5" s="8" t="str">
+      <c r="M5" s="14" t="str">
         <f>VLOOKUP(D5,Szituációk!A:B,2,FALSE)</f>
         <v>A kérdőíves megkérdezés eredménye</v>
       </c>
@@ -1504,7 +1476,7 @@
       <c r="B6" s="1">
         <v>6</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="13" t="s">
         <v>128</v>
       </c>
       <c r="D6" s="1">
@@ -1513,7 +1485,7 @@
       <c r="G6" s="1">
         <v>1</v>
       </c>
-      <c r="M6" s="8" t="str">
+      <c r="M6" s="14" t="str">
         <f>VLOOKUP(D6,Szituációk!A:B,2,FALSE)</f>
         <v>Külső szakértővel való beszélgetés</v>
       </c>
@@ -1526,7 +1498,7 @@
       <c r="B7" s="1">
         <v>6</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="13" t="s">
         <v>129</v>
       </c>
       <c r="D7" s="1">
@@ -1541,7 +1513,7 @@
       <c r="I7" s="1">
         <v>1</v>
       </c>
-      <c r="M7" s="8" t="str">
+      <c r="M7" s="14" t="str">
         <f>VLOOKUP(D7,Szituációk!A:B,2,FALSE)</f>
         <v xml:space="preserve">Hallgatói fókuszcsoport eredménye </v>
       </c>
@@ -1554,7 +1526,7 @@
       <c r="B8" s="1">
         <v>6</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="13" t="s">
         <v>130</v>
       </c>
       <c r="D8" s="1">
@@ -1569,7 +1541,7 @@
       <c r="J8" s="1">
         <v>1</v>
       </c>
-      <c r="M8" s="8" t="str">
+      <c r="M8" s="14" t="str">
         <f>VLOOKUP(D8,Szituációk!A:B,2,FALSE)</f>
         <v>A pilot csoport oktatóival közös diagnosztizálás eredménye</v>
       </c>
@@ -1582,7 +1554,7 @@
       <c r="B9" s="1">
         <v>11</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="13" t="s">
         <v>131</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -1591,7 +1563,7 @@
       <c r="E9" s="1">
         <v>-1</v>
       </c>
-      <c r="M9" s="8" t="e">
+      <c r="M9" s="14" t="e">
         <f>VLOOKUP(D9,Szituációk!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -1604,7 +1576,7 @@
       <c r="B10" s="1">
         <v>11</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="13" t="s">
         <v>132</v>
       </c>
       <c r="D10" s="1">
@@ -1616,7 +1588,7 @@
       <c r="H10" s="1">
         <v>1</v>
       </c>
-      <c r="M10" s="8" t="str">
+      <c r="M10" s="14" t="str">
         <f>VLOOKUP(D10,Szituációk!A:B,2,FALSE)</f>
         <v>Ideje a fejlesztésre koncentrálnunk! Mit csináljunk másképp?</v>
       </c>
@@ -1629,7 +1601,7 @@
       <c r="B11" s="1">
         <v>12</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="13" t="s">
         <v>133</v>
       </c>
       <c r="D11" s="1">
@@ -1641,7 +1613,7 @@
       <c r="I11" s="1">
         <v>-1</v>
       </c>
-      <c r="M11" s="8" t="str">
+      <c r="M11" s="14" t="str">
         <f>VLOOKUP(D11,Szituációk!A:B,2,FALSE)</f>
         <v>Hogyan haladtok?</v>
       </c>
@@ -1654,7 +1626,7 @@
       <c r="B12" s="1">
         <v>12</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="13" t="s">
         <v>134</v>
       </c>
       <c r="D12" s="1">
@@ -1666,7 +1638,7 @@
       <c r="I12" s="1">
         <v>-1</v>
       </c>
-      <c r="M12" s="8" t="str">
+      <c r="M12" s="14" t="str">
         <f>VLOOKUP(D12,Szituációk!A:B,2,FALSE)</f>
         <v>Hogyan haladtok?</v>
       </c>
@@ -1679,7 +1651,7 @@
       <c r="B13" s="1">
         <v>12</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="13" t="s">
         <v>135</v>
       </c>
       <c r="D13" s="1">
@@ -1694,7 +1666,7 @@
       <c r="J13" s="1">
         <v>-1</v>
       </c>
-      <c r="M13" s="8" t="str">
+      <c r="M13" s="14" t="str">
         <f>VLOOKUP(D13,Szituációk!A:B,2,FALSE)</f>
         <v>Hogyan haladtok?</v>
       </c>
@@ -1707,13 +1679,13 @@
       <c r="B14" s="1">
         <v>13</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="13" t="s">
         <v>136</v>
       </c>
       <c r="D14" s="1">
         <v>14</v>
       </c>
-      <c r="M14" s="8" t="str">
+      <c r="M14" s="14" t="str">
         <f>VLOOKUP(D14,Szituációk!A:B,2,FALSE)</f>
         <v>Talán érdemes lenne egy olyan kollégát meghívni, aki előttünk jár.</v>
       </c>
@@ -1726,13 +1698,13 @@
       <c r="B15" s="1">
         <v>14</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="13" t="s">
         <v>137</v>
       </c>
       <c r="D15" s="1">
         <v>15</v>
       </c>
-      <c r="M15" s="8" t="str">
+      <c r="M15" s="14" t="str">
         <f>VLOOKUP(D15,Szituációk!A:B,2,FALSE)</f>
         <v>Jógyakorlat workshop</v>
       </c>
@@ -1745,13 +1717,13 @@
       <c r="B16" s="1">
         <v>15</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="13" t="s">
         <v>138</v>
       </c>
       <c r="D16" s="1">
         <v>16</v>
       </c>
-      <c r="M16" s="8" t="str">
+      <c r="M16" s="14" t="str">
         <f>VLOOKUP(D16,Szituációk!A:B,2,FALSE)</f>
         <v>Gábor kiscsoportos munkát ad a csapatnak. Melyik módszertani csomagot választod, melyiket érzed hasznosnak a kari fejlesztéshez?</v>
       </c>
@@ -1764,13 +1736,13 @@
       <c r="B17" s="1">
         <v>15</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="13" t="s">
         <v>139</v>
       </c>
       <c r="D17" s="1">
         <v>16</v>
       </c>
-      <c r="M17" s="8" t="str">
+      <c r="M17" s="14" t="str">
         <f>VLOOKUP(D17,Szituációk!A:B,2,FALSE)</f>
         <v>Gábor kiscsoportos munkát ad a csapatnak. Melyik módszertani csomagot választod, melyiket érzed hasznosnak a kari fejlesztéshez?</v>
       </c>
@@ -1783,13 +1755,13 @@
       <c r="B18" s="1">
         <v>15</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="13" t="s">
         <v>140</v>
       </c>
       <c r="D18" s="1">
         <v>16</v>
       </c>
-      <c r="M18" s="8" t="str">
+      <c r="M18" s="14" t="str">
         <f>VLOOKUP(D18,Szituációk!A:B,2,FALSE)</f>
         <v>Gábor kiscsoportos munkát ad a csapatnak. Melyik módszertani csomagot választod, melyiket érzed hasznosnak a kari fejlesztéshez?</v>
       </c>
@@ -1802,13 +1774,13 @@
       <c r="B19" s="1">
         <v>15</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="13" t="s">
         <v>141</v>
       </c>
       <c r="D19" s="1">
         <v>16</v>
       </c>
-      <c r="M19" s="8" t="str">
+      <c r="M19" s="14" t="str">
         <f>VLOOKUP(D19,Szituációk!A:B,2,FALSE)</f>
         <v>Gábor kiscsoportos munkát ad a csapatnak. Melyik módszertani csomagot választod, melyiket érzed hasznosnak a kari fejlesztéshez?</v>
       </c>
@@ -1821,13 +1793,13 @@
       <c r="B20" s="1">
         <v>15</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="13" t="s">
         <v>142</v>
       </c>
       <c r="D20" s="1">
         <v>16</v>
       </c>
-      <c r="M20" s="8" t="str">
+      <c r="M20" s="14" t="str">
         <f>VLOOKUP(D20,Szituációk!A:B,2,FALSE)</f>
         <v>Gábor kiscsoportos munkát ad a csapatnak. Melyik módszertani csomagot választod, melyiket érzed hasznosnak a kari fejlesztéshez?</v>
       </c>
@@ -1840,13 +1812,13 @@
       <c r="B21" s="1">
         <v>15</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="13" t="s">
         <v>143</v>
       </c>
       <c r="D21" s="1">
         <v>16</v>
       </c>
-      <c r="M21" s="8" t="str">
+      <c r="M21" s="14" t="str">
         <f>VLOOKUP(D21,Szituációk!A:B,2,FALSE)</f>
         <v>Gábor kiscsoportos munkát ad a csapatnak. Melyik módszertani csomagot választod, melyiket érzed hasznosnak a kari fejlesztéshez?</v>
       </c>
@@ -1859,13 +1831,13 @@
       <c r="B22" s="1">
         <v>15</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="13" t="s">
         <v>144</v>
       </c>
       <c r="D22" s="1">
         <v>16</v>
       </c>
-      <c r="M22" s="8" t="str">
+      <c r="M22" s="14" t="str">
         <f>VLOOKUP(D22,Szituációk!A:B,2,FALSE)</f>
         <v>Gábor kiscsoportos munkát ad a csapatnak. Melyik módszertani csomagot választod, melyiket érzed hasznosnak a kari fejlesztéshez?</v>
       </c>
@@ -1878,13 +1850,13 @@
       <c r="B23" s="1">
         <v>15</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="13" t="s">
         <v>145</v>
       </c>
       <c r="D23" s="1">
         <v>16</v>
       </c>
-      <c r="M23" s="8" t="str">
+      <c r="M23" s="14" t="str">
         <f>VLOOKUP(D23,Szituációk!A:B,2,FALSE)</f>
         <v>Gábor kiscsoportos munkát ad a csapatnak. Melyik módszertani csomagot választod, melyiket érzed hasznosnak a kari fejlesztéshez?</v>
       </c>
@@ -1897,13 +1869,13 @@
       <c r="B24" s="1">
         <v>15</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="13" t="s">
         <v>146</v>
       </c>
       <c r="D24" s="1">
         <v>16</v>
       </c>
-      <c r="M24" s="8" t="str">
+      <c r="M24" s="14" t="str">
         <f>VLOOKUP(D24,Szituációk!A:B,2,FALSE)</f>
         <v>Gábor kiscsoportos munkát ad a csapatnak. Melyik módszertani csomagot választod, melyiket érzed hasznosnak a kari fejlesztéshez?</v>
       </c>
@@ -1916,13 +1888,13 @@
       <c r="B25" s="1">
         <v>16</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="13" t="s">
         <v>147</v>
       </c>
       <c r="D25" s="1">
         <v>17</v>
       </c>
-      <c r="M25" s="8" t="str">
+      <c r="M25" s="14" t="str">
         <f>VLOOKUP(D25,Szituációk!A:B,2,FALSE)</f>
         <v>Gábor szempontjai</v>
       </c>
@@ -1935,13 +1907,13 @@
       <c r="B26" s="1">
         <v>16</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="13" t="s">
         <v>148</v>
       </c>
       <c r="D26" s="1">
         <v>17</v>
       </c>
-      <c r="M26" s="8" t="str">
+      <c r="M26" s="14" t="str">
         <f>VLOOKUP(D26,Szituációk!A:B,2,FALSE)</f>
         <v>Gábor szempontjai</v>
       </c>
@@ -1954,13 +1926,13 @@
       <c r="B27" s="1">
         <v>16</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="13" t="s">
         <v>149</v>
       </c>
       <c r="D27" s="1">
         <v>17</v>
       </c>
-      <c r="M27" s="8" t="str">
+      <c r="M27" s="14" t="str">
         <f>VLOOKUP(D27,Szituációk!A:B,2,FALSE)</f>
         <v>Gábor szempontjai</v>
       </c>
@@ -1973,7 +1945,7 @@
       <c r="B28" s="1">
         <v>18</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="13" t="s">
         <v>150</v>
       </c>
       <c r="D28" s="1">
@@ -1982,7 +1954,7 @@
       <c r="F28" s="1">
         <v>1</v>
       </c>
-      <c r="M28" s="8" t="str">
+      <c r="M28" s="14" t="str">
         <f>VLOOKUP(D28,Szituációk!A:B,2,FALSE)</f>
         <v>Elkészült a tantárgyleírás! Ezt boldogan osztod meg az egyik lelkes hallgatóddal, akivel a folyosón találkozol. 
 Emíliának nagyon tetszik a terv, lelkes lesz, de aztán hirtelen el is kedvtelenedik.</v>
@@ -1996,7 +1968,7 @@
       <c r="B29" s="1">
         <v>18</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="13" t="s">
         <v>151</v>
       </c>
       <c r="D29" s="1">
@@ -2005,7 +1977,7 @@
       <c r="F29" s="1">
         <v>-1</v>
       </c>
-      <c r="M29" s="8" t="str">
+      <c r="M29" s="14" t="str">
         <f>VLOOKUP(D29,Szituációk!A:B,2,FALSE)</f>
         <v>Elkészült a tantárgyleírás! Ezt boldogan osztod meg az egyik lelkes hallgatóddal, akivel a folyosón találkozol. 
 Emíliának nagyon tetszik a terv, lelkes lesz, de aztán hirtelen el is kedvtelenedik.</v>
@@ -2019,7 +1991,7 @@
       <c r="B30" s="1">
         <v>19</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="13" t="s">
         <v>152</v>
       </c>
       <c r="D30" s="1">
@@ -2028,7 +2000,7 @@
       <c r="H30" s="1">
         <v>1</v>
       </c>
-      <c r="M30" s="8" t="str">
+      <c r="M30" s="14" t="str">
         <f>VLOOKUP(D30,Szituációk!A:B,2,FALSE)</f>
         <v>Szerencsésen befejeztük a kurzusok megújításának tervezését, most már neki kezdhetünk a kurzusok megtartásának. Ezelőtt szeretnél visszajelzést kérni az eddigi fejlődésedről és munkádról a fejlesztő csapat többi tagjától?</v>
       </c>
@@ -2041,7 +2013,7 @@
       <c r="B31" s="1">
         <v>19</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="13" t="s">
         <v>153</v>
       </c>
       <c r="D31" s="1">
@@ -2056,7 +2028,7 @@
       <c r="H31" s="1">
         <v>1</v>
       </c>
-      <c r="M31" s="8" t="str">
+      <c r="M31" s="14" t="str">
         <f>VLOOKUP(D31,Szituációk!A:B,2,FALSE)</f>
         <v>Szerencsésen befejeztük a kurzusok megújításának tervezését, most már neki kezdhetünk a kurzusok megtartásának. Ezelőtt szeretnél visszajelzést kérni az eddigi fejlődésedről és munkádról a fejlesztő csapat többi tagjától?</v>
       </c>
@@ -2069,7 +2041,7 @@
       <c r="B32" s="1">
         <v>20</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="13" t="s">
         <v>154</v>
       </c>
       <c r="D32" s="1">
@@ -2081,7 +2053,7 @@
       <c r="I32" s="1">
         <v>1</v>
       </c>
-      <c r="M32" s="8" t="str">
+      <c r="M32" s="14" t="str">
         <f>VLOOKUP(D32,Szituációk!A:B,2,FALSE)</f>
         <v xml:space="preserve">Oktatói teamülés </v>
       </c>
@@ -2094,7 +2066,7 @@
       <c r="B33" s="1">
         <v>20</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="13" t="s">
         <v>155</v>
       </c>
       <c r="D33" s="1">
@@ -2106,7 +2078,7 @@
       <c r="I33" s="1">
         <v>-1</v>
       </c>
-      <c r="M33" s="8" t="str">
+      <c r="M33" s="14" t="str">
         <f>VLOOKUP(D33,Szituációk!A:B,2,FALSE)</f>
         <v xml:space="preserve">Oktatói teamülés </v>
       </c>
@@ -2119,7 +2091,7 @@
       <c r="B34" s="1">
         <v>21</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="13" t="s">
         <v>156</v>
       </c>
       <c r="D34" s="1">
@@ -2137,7 +2109,7 @@
       <c r="J34" s="1">
         <v>1</v>
       </c>
-      <c r="M34" s="8" t="str">
+      <c r="M34" s="14" t="str">
         <f>VLOOKUP(D34,Szituációk!A:B,2,FALSE)</f>
         <v>Nagyszerű! Összeállt az új pilot kurzusom. De vajon hogy mutassam be a hallgatóknak?</v>
       </c>
@@ -2150,7 +2122,7 @@
       <c r="B35" s="1">
         <v>21</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="13" t="s">
         <v>157</v>
       </c>
       <c r="D35" s="1">
@@ -2168,7 +2140,7 @@
       <c r="J35" s="1">
         <v>1</v>
       </c>
-      <c r="M35" s="8" t="str">
+      <c r="M35" s="14" t="str">
         <f>VLOOKUP(D35,Szituációk!A:B,2,FALSE)</f>
         <v>Nagyszerű! Összeállt az új pilot kurzusom. De vajon hogy mutassam be a hallgatóknak?</v>
       </c>
@@ -2181,7 +2153,7 @@
       <c r="B36" s="1">
         <v>21</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="13" t="s">
         <v>158</v>
       </c>
       <c r="D36" s="1">
@@ -2190,7 +2162,7 @@
       <c r="E36" s="1">
         <v>-1</v>
       </c>
-      <c r="M36" s="8" t="str">
+      <c r="M36" s="14" t="str">
         <f>VLOOKUP(D36,Szituációk!A:B,2,FALSE)</f>
         <v>Nagyszerű! Összeállt az új pilot kurzusom. De vajon hogy mutassam be a hallgatóknak?</v>
       </c>
@@ -2203,7 +2175,7 @@
       <c r="B37" s="1">
         <v>21</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="13" t="s">
         <v>159</v>
       </c>
       <c r="D37" s="1">
@@ -2212,7 +2184,7 @@
       <c r="E37" s="1">
         <v>-1</v>
       </c>
-      <c r="M37" s="8" t="str">
+      <c r="M37" s="14" t="str">
         <f>VLOOKUP(D37,Szituációk!A:B,2,FALSE)</f>
         <v xml:space="preserve">Oktatói teamülés </v>
       </c>
@@ -2225,7 +2197,7 @@
       <c r="B38" s="1">
         <v>22</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="13" t="s">
         <v>160</v>
       </c>
       <c r="D38" s="1">
@@ -2243,7 +2215,7 @@
       <c r="K38" s="1">
         <v>2</v>
       </c>
-      <c r="M38" s="8" t="str">
+      <c r="M38" s="14" t="str">
         <f>VLOOKUP(D38,Szituációk!A:B,2,FALSE)</f>
         <v>Teamülés</v>
       </c>
@@ -2256,7 +2228,7 @@
       <c r="B39" s="1">
         <v>22</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="13" t="s">
         <v>161</v>
       </c>
       <c r="D39" s="1">
@@ -2277,7 +2249,7 @@
       <c r="K39" s="1">
         <v>4</v>
       </c>
-      <c r="M39" s="8" t="str">
+      <c r="M39" s="14" t="str">
         <f>VLOOKUP(D39,Szituációk!A:B,2,FALSE)</f>
         <v>Teamülés</v>
       </c>
@@ -2290,7 +2262,7 @@
       <c r="B40" s="1">
         <v>22</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="13" t="s">
         <v>162</v>
       </c>
       <c r="D40" s="1">
@@ -2308,7 +2280,7 @@
       <c r="K40" s="1">
         <v>3</v>
       </c>
-      <c r="M40" s="8" t="str">
+      <c r="M40" s="14" t="str">
         <f>VLOOKUP(D40,Szituációk!A:B,2,FALSE)</f>
         <v>Teamülés</v>
       </c>
@@ -2321,7 +2293,7 @@
       <c r="B41" s="1">
         <v>22</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="13" t="s">
         <v>163</v>
       </c>
       <c r="D41" s="1">
@@ -2330,7 +2302,7 @@
       <c r="E41" s="1">
         <v>-1</v>
       </c>
-      <c r="M41" s="8" t="str">
+      <c r="M41" s="14" t="str">
         <f>VLOOKUP(D41,Szituációk!A:B,2,FALSE)</f>
         <v>Nagyszerű! Összeállt az új pilot kurzusom. De vajon hogy mutassam be a hallgatóknak?</v>
       </c>
@@ -2343,7 +2315,7 @@
       <c r="B42" s="1">
         <v>23</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="13" t="s">
         <v>164</v>
       </c>
       <c r="D42" s="1">
@@ -2355,7 +2327,7 @@
       <c r="F42" s="1">
         <v>1</v>
       </c>
-      <c r="M42" s="8" t="str">
+      <c r="M42" s="14" t="str">
         <f>VLOOKUP(D42,Szituációk!A:B,2,FALSE)</f>
         <v>Mit teszel?</v>
       </c>
@@ -2368,7 +2340,7 @@
       <c r="B43" s="1">
         <v>23</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="13" t="s">
         <v>165</v>
       </c>
       <c r="D43" s="1">
@@ -2380,7 +2352,7 @@
       <c r="F43" s="1">
         <v>1</v>
       </c>
-      <c r="M43" s="8" t="str">
+      <c r="M43" s="14" t="str">
         <f>VLOOKUP(D43,Szituációk!A:B,2,FALSE)</f>
         <v>Mit teszel?</v>
       </c>
@@ -2393,7 +2365,7 @@
       <c r="B44" s="1">
         <v>23</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="13" t="s">
         <v>166</v>
       </c>
       <c r="D44" s="1">
@@ -2405,7 +2377,7 @@
       <c r="F44" s="1">
         <v>1</v>
       </c>
-      <c r="M44" s="8" t="str">
+      <c r="M44" s="14" t="str">
         <f>VLOOKUP(D44,Szituációk!A:B,2,FALSE)</f>
         <v>Mit teszel?</v>
       </c>
@@ -2418,7 +2390,7 @@
       <c r="B45" s="1">
         <v>23</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="13" t="s">
         <v>167</v>
       </c>
       <c r="D45" s="1">
@@ -2430,7 +2402,7 @@
       <c r="F45" s="1">
         <v>1</v>
       </c>
-      <c r="M45" s="8" t="str">
+      <c r="M45" s="14" t="str">
         <f>VLOOKUP(D45,Szituációk!A:B,2,FALSE)</f>
         <v>Mit teszel?</v>
       </c>
@@ -2443,7 +2415,7 @@
       <c r="B46" s="1">
         <v>23</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="13" t="s">
         <v>168</v>
       </c>
       <c r="D46" s="1">
@@ -2455,7 +2427,7 @@
       <c r="F46" s="1">
         <v>1</v>
       </c>
-      <c r="M46" s="8" t="str">
+      <c r="M46" s="14" t="str">
         <f>VLOOKUP(D46,Szituációk!A:B,2,FALSE)</f>
         <v>Mit teszel?</v>
       </c>
@@ -2468,7 +2440,7 @@
       <c r="B47" s="1">
         <v>23</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="13" t="s">
         <v>169</v>
       </c>
       <c r="D47" s="1">
@@ -2480,7 +2452,7 @@
       <c r="F47" s="1">
         <v>1</v>
       </c>
-      <c r="M47" s="8" t="str">
+      <c r="M47" s="14" t="str">
         <f>VLOOKUP(D47,Szituációk!A:B,2,FALSE)</f>
         <v>Mit teszel?</v>
       </c>
@@ -2493,7 +2465,7 @@
       <c r="B48" s="1">
         <v>23</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="13" t="s">
         <v>170</v>
       </c>
       <c r="D48" s="1">
@@ -2502,7 +2474,7 @@
       <c r="E48" s="1">
         <v>-5</v>
       </c>
-      <c r="M48" s="8" t="str">
+      <c r="M48" s="14" t="str">
         <f>VLOOKUP(D48,Szituációk!A:B,2,FALSE)</f>
         <v>Teamülés</v>
       </c>
@@ -2512,10 +2484,10 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49" s="10">
         <v>24</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="13" t="s">
         <v>171</v>
       </c>
       <c r="D49" s="1">
@@ -2530,7 +2502,7 @@
       <c r="J49" s="1">
         <v>1</v>
       </c>
-      <c r="M49" s="8" t="str">
+      <c r="M49" s="14" t="str">
         <f>VLOOKUP(D49,Szituációk!A:B,2,FALSE)</f>
         <v>Működik az órám!</v>
       </c>
@@ -2540,10 +2512,10 @@
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="10">
         <v>24</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="13" t="s">
         <v>172</v>
       </c>
       <c r="D50" s="1">
@@ -2558,7 +2530,7 @@
       <c r="G50" s="1">
         <v>1</v>
       </c>
-      <c r="M50" s="8" t="str">
+      <c r="M50" s="14" t="str">
         <f>VLOOKUP(D50,Szituációk!A:B,2,FALSE)</f>
         <v>Első nekifutásra ezeket a tanácsokat találtad a szakirodalomban (1/7)</v>
       </c>
@@ -2568,10 +2540,10 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="10">
         <v>24</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="13" t="s">
         <v>173</v>
       </c>
       <c r="D51" s="1">
@@ -2580,7 +2552,7 @@
       <c r="E51" s="1">
         <v>-1</v>
       </c>
-      <c r="M51" s="8" t="str">
+      <c r="M51" s="14" t="str">
         <f>VLOOKUP(D51,Szituációk!A:B,2,FALSE)</f>
         <v>Óralátogatás kollégánál</v>
       </c>
@@ -2590,10 +2562,10 @@
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="10">
         <v>24</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="13" t="s">
         <v>174</v>
       </c>
       <c r="D52" s="1">
@@ -2602,7 +2574,7 @@
       <c r="E52" s="1">
         <v>-1</v>
       </c>
-      <c r="M52" s="8" t="str">
+      <c r="M52" s="14" t="str">
         <f>VLOOKUP(D52,Szituációk!A:B,2,FALSE)</f>
         <v xml:space="preserve">Kolléga óralátogatása nálam </v>
       </c>
@@ -2612,10 +2584,10 @@
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="10">
         <v>24</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="13" t="s">
         <v>175</v>
       </c>
       <c r="D53" s="1">
@@ -2624,7 +2596,7 @@
       <c r="E53" s="1">
         <v>-5</v>
       </c>
-      <c r="M53" s="8" t="str">
+      <c r="M53" s="14" t="str">
         <f>VLOOKUP(D53,Szituációk!A:B,2,FALSE)</f>
         <v>Mit teszel?</v>
       </c>
@@ -2637,11 +2609,11 @@
       <c r="B54" s="1">
         <v>25</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>238</v>
+      <c r="D54" s="1">
+        <v>26</v>
       </c>
       <c r="E54" s="1">
         <v>-1</v>
@@ -2652,9 +2624,9 @@
       <c r="G54" s="1">
         <v>1</v>
       </c>
-      <c r="M54" s="8" t="e">
+      <c r="M54" s="14" t="str">
         <f>VLOOKUP(D54,Szituációk!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Óralátogatás kollégánál</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -2665,11 +2637,11 @@
       <c r="B55" s="1">
         <v>25</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>239</v>
+      <c r="D55" s="1">
+        <v>27</v>
       </c>
       <c r="E55" s="1">
         <v>-2</v>
@@ -2683,9 +2655,9 @@
       <c r="I55" s="1">
         <v>1</v>
       </c>
-      <c r="M55" s="8" t="e">
+      <c r="M55" s="14" t="str">
         <f>VLOOKUP(D55,Szituációk!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Óralátogatás kollégánál</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -2696,7 +2668,7 @@
       <c r="B56" s="1">
         <v>25</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C56" s="13" t="s">
         <v>176</v>
       </c>
       <c r="D56" s="1">
@@ -2705,7 +2677,7 @@
       <c r="E56" s="1">
         <v>-5</v>
       </c>
-      <c r="M56" s="8" t="str">
+      <c r="M56" s="14" t="str">
         <f>VLOOKUP(D56,Szituációk!A:B,2,FALSE)</f>
         <v>Óralátogatás kollégánál</v>
       </c>
@@ -2718,11 +2690,11 @@
       <c r="B57" s="1">
         <v>28</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>240</v>
+      <c r="D57" s="1">
+        <v>29</v>
       </c>
       <c r="E57" s="1">
         <v>-1</v>
@@ -2733,9 +2705,9 @@
       <c r="G57" s="1">
         <v>1</v>
       </c>
-      <c r="M57" s="8" t="e">
+      <c r="M57" s="14" t="str">
         <f>VLOOKUP(D57,Szituációk!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v xml:space="preserve">Kolléga óralátogatása nálam </v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
@@ -2746,11 +2718,11 @@
       <c r="B58" s="1">
         <v>28</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C58" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>239</v>
+      <c r="D58" s="1">
+        <v>30</v>
       </c>
       <c r="E58" s="1">
         <v>-2</v>
@@ -2764,9 +2736,9 @@
       <c r="I58" s="1">
         <v>1</v>
       </c>
-      <c r="M58" s="8" t="e">
+      <c r="M58" s="14" t="str">
         <f>VLOOKUP(D58,Szituációk!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v xml:space="preserve">Kolléga óralátogatása nálam </v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -2777,7 +2749,7 @@
       <c r="B59" s="1">
         <v>28</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="C59" s="13" t="s">
         <v>179</v>
       </c>
       <c r="D59" s="1">
@@ -2786,7 +2758,7 @@
       <c r="E59" s="1">
         <v>-5</v>
       </c>
-      <c r="M59" s="8" t="str">
+      <c r="M59" s="14" t="str">
         <f>VLOOKUP(D59,Szituációk!A:B,2,FALSE)</f>
         <v xml:space="preserve">Kolléga óralátogatása nálam </v>
       </c>
@@ -2799,11 +2771,11 @@
       <c r="B60" s="1">
         <v>38</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="D60" s="1" t="s">
-        <v>241</v>
+      <c r="D60" s="1">
+        <v>39</v>
       </c>
       <c r="E60" s="1">
         <v>-1</v>
@@ -2814,9 +2786,9 @@
       <c r="I60" s="1">
         <v>1</v>
       </c>
-      <c r="M60" s="8" t="e">
+      <c r="M60" s="14" t="str">
         <f>VLOOKUP(D60,Szituációk!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Működik az órám!</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -2827,11 +2799,11 @@
       <c r="B61" s="1">
         <v>38</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="D61" s="1" t="s">
-        <v>236</v>
+      <c r="D61" s="1">
+        <v>25</v>
       </c>
       <c r="E61" s="1">
         <v>-1</v>
@@ -2845,9 +2817,9 @@
       <c r="I61" s="1">
         <v>1</v>
       </c>
-      <c r="M61" s="8" t="e">
+      <c r="M61" s="14" t="str">
         <f>VLOOKUP(D61,Szituációk!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Óralátogatás kollégánál</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -2858,11 +2830,11 @@
       <c r="B62" s="1">
         <v>38</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>237</v>
+      <c r="D62" s="1">
+        <v>28</v>
       </c>
       <c r="E62" s="1">
         <v>-1</v>
@@ -2876,9 +2848,9 @@
       <c r="I62" s="1">
         <v>1</v>
       </c>
-      <c r="M62" s="8" t="e">
+      <c r="M62" s="14" t="str">
         <f>VLOOKUP(D62,Szituációk!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v xml:space="preserve">Kolléga óralátogatása nálam </v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -2889,7 +2861,7 @@
       <c r="B63" s="1">
         <v>40</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="13" t="s">
         <v>183</v>
       </c>
       <c r="D63" s="1">
@@ -2913,7 +2885,7 @@
       <c r="K63" s="1">
         <v>6</v>
       </c>
-      <c r="M63" s="8" t="str">
+      <c r="M63" s="14" t="str">
         <f>VLOOKUP(D63,Szituációk!A:B,2,FALSE)</f>
         <v>A beavatkozásod nyomán elmúlt a hallgatók bizonytalansága, ügyesen dolgoznak a kurzusodban. Mitévő leszel?</v>
       </c>
@@ -2926,7 +2898,7 @@
       <c r="B64" s="1">
         <v>40</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="13" t="s">
         <v>184</v>
       </c>
       <c r="D64" s="1">
@@ -2941,7 +2913,7 @@
       <c r="K64" s="1">
         <v>1</v>
       </c>
-      <c r="M64" s="8" t="str">
+      <c r="M64" s="14" t="str">
         <f>VLOOKUP(D64,Szituációk!A:B,2,FALSE)</f>
         <v>A beavatkozásod nyomán elmúlt a hallgatók bizonytalansága, ügyesen dolgoznak a kurzusodban. Mitévő leszel?</v>
       </c>
@@ -2954,7 +2926,7 @@
       <c r="B65" s="1">
         <v>40</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="13" t="s">
         <v>185</v>
       </c>
       <c r="D65" s="1">
@@ -2975,7 +2947,7 @@
       <c r="K65" s="1">
         <v>3</v>
       </c>
-      <c r="M65" s="8" t="str">
+      <c r="M65" s="14" t="str">
         <f>VLOOKUP(D65,Szituációk!A:B,2,FALSE)</f>
         <v>A beavatkozásod nyomán elmúlt a hallgatók bizonytalansága, ügyesen dolgoznak a kurzusodban. Mitévő leszel?</v>
       </c>
@@ -2988,7 +2960,7 @@
       <c r="B66" s="1">
         <v>40</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="13" t="s">
         <v>186</v>
       </c>
       <c r="D66" s="1">
@@ -3009,7 +2981,7 @@
       <c r="K66" s="1">
         <v>4</v>
       </c>
-      <c r="M66" s="8" t="str">
+      <c r="M66" s="14" t="str">
         <f>VLOOKUP(D66,Szituációk!A:B,2,FALSE)</f>
         <v>A beavatkozásod nyomán elmúlt a hallgatók bizonytalansága, ügyesen dolgoznak a kurzusodban. Mitévő leszel?</v>
       </c>
@@ -3022,7 +2994,7 @@
       <c r="B67" s="1">
         <v>40</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="13" t="s">
         <v>187</v>
       </c>
       <c r="D67" s="1">
@@ -3040,7 +3012,7 @@
       <c r="K67" s="1">
         <v>1</v>
       </c>
-      <c r="M67" s="8" t="str">
+      <c r="M67" s="14" t="str">
         <f>VLOOKUP(D67,Szituációk!A:B,2,FALSE)</f>
         <v>A beavatkozásod nyomán elmúlt a hallgatók bizonytalansága, ügyesen dolgoznak a kurzusodban. Mitévő leszel?</v>
       </c>
@@ -3053,11 +3025,11 @@
       <c r="B68" s="1">
         <v>41</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>242</v>
+      <c r="D68" s="1">
+        <v>42</v>
       </c>
       <c r="E68" s="1">
         <v>-2</v>
@@ -3074,9 +3046,9 @@
       <c r="K68" s="1">
         <v>6</v>
       </c>
-      <c r="M68" s="8" t="e">
+      <c r="M68" s="14" t="str">
         <f>VLOOKUP(D68,Szituációk!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Fontos, hogy a jó dolgokra is visszajelezzek, ne csak akkor halljanak felőlem, amikor gond van!</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -3087,11 +3059,11 @@
       <c r="B69" s="1">
         <v>41</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="D69" s="1" t="s">
-        <v>242</v>
+      <c r="D69" s="1">
+        <v>42</v>
       </c>
       <c r="E69" s="1">
         <v>-2</v>
@@ -3105,9 +3077,9 @@
       <c r="K69" s="1">
         <v>4</v>
       </c>
-      <c r="M69" s="8" t="e">
+      <c r="M69" s="14" t="str">
         <f>VLOOKUP(D69,Szituációk!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Fontos, hogy a jó dolgokra is visszajelezzek, ne csak akkor halljanak felőlem, amikor gond van!</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
@@ -3118,11 +3090,11 @@
       <c r="B70" s="1">
         <v>41</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="D70" s="1" t="s">
-        <v>242</v>
+      <c r="D70" s="1">
+        <v>42</v>
       </c>
       <c r="E70" s="1">
         <v>-1</v>
@@ -3133,9 +3105,9 @@
       <c r="K70" s="1">
         <v>1</v>
       </c>
-      <c r="M70" s="8" t="e">
+      <c r="M70" s="14" t="str">
         <f>VLOOKUP(D70,Szituációk!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Fontos, hogy a jó dolgokra is visszajelezzek, ne csak akkor halljanak felőlem, amikor gond van!</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -3146,7 +3118,7 @@
       <c r="B71" s="1">
         <v>41</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="13" t="s">
         <v>191</v>
       </c>
       <c r="D71" s="1">
@@ -3155,7 +3127,7 @@
       <c r="E71" s="1">
         <v>-5</v>
       </c>
-      <c r="M71" s="8" t="str">
+      <c r="M71" s="14" t="str">
         <f>VLOOKUP(D71,Szituációk!A:B,2,FALSE)</f>
         <v>A beavatkozásod nyomán elmúlt a hallgatók bizonytalansága, ügyesen dolgoznak a kurzusodban. Mitévő leszel?</v>
       </c>
@@ -3168,7 +3140,7 @@
       <c r="B72" s="1">
         <v>43</v>
       </c>
-      <c r="C72" s="10" t="s">
+      <c r="C72" s="13" t="s">
         <v>192</v>
       </c>
       <c r="D72" s="1">
@@ -3177,7 +3149,7 @@
       <c r="E72" s="1">
         <v>-1</v>
       </c>
-      <c r="M72" s="8" t="str">
+      <c r="M72" s="14" t="str">
         <f>VLOOKUP(D72,Szituációk!A:B,2,FALSE)</f>
         <v>Oktatói értekezlet: kiderül, hogy valaki nem csinált semmit.</v>
       </c>
@@ -3190,7 +3162,7 @@
       <c r="B73" s="1">
         <v>43</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="13" t="s">
         <v>193</v>
       </c>
       <c r="D73" s="1">
@@ -3208,7 +3180,7 @@
       <c r="I73" s="1">
         <v>1</v>
       </c>
-      <c r="M73" s="8" t="str">
+      <c r="M73" s="14" t="str">
         <f>VLOOKUP(D73,Szituációk!A:B,2,FALSE)</f>
         <v>Oktatói értekezlet: kiderül, hogy valaki nem csinált semmit.</v>
       </c>
@@ -3221,7 +3193,7 @@
       <c r="B74" s="1">
         <v>43</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="13" t="s">
         <v>194</v>
       </c>
       <c r="D74" s="1">
@@ -3245,7 +3217,7 @@
       <c r="J74" s="1">
         <v>1</v>
       </c>
-      <c r="M74" s="8" t="str">
+      <c r="M74" s="14" t="str">
         <f>VLOOKUP(D74,Szituációk!A:B,2,FALSE)</f>
         <v>Oktatói értekezlet: kiderül, hogy valaki nem csinált semmit.</v>
       </c>
@@ -3258,11 +3230,11 @@
       <c r="B75" s="1">
         <v>46</v>
       </c>
-      <c r="C75" s="10" t="s">
+      <c r="C75" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="D75" s="1" t="s">
-        <v>243</v>
+      <c r="D75" s="1">
+        <v>47</v>
       </c>
       <c r="E75" s="1">
         <v>-1</v>
@@ -3273,37 +3245,37 @@
       <c r="J75" s="1">
         <v>1</v>
       </c>
-      <c r="M75" s="8" t="e">
+      <c r="M75" s="14" t="str">
         <f>VLOOKUP(D75,Szituációk!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Feszültség van a teamben a passzív kolléga hozzáállása miatt. Mit teszel?</v>
       </c>
     </row>
     <row r="76" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="14">
+      <c r="A76" s="11">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="B76" s="14">
+      <c r="B76" s="11">
         <v>46</v>
       </c>
       <c r="C76" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="D76" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="E76" s="14">
-        <v>-1</v>
-      </c>
-      <c r="F76" s="14"/>
-      <c r="G76" s="14"/>
-      <c r="H76" s="14"/>
-      <c r="I76" s="14"/>
-      <c r="J76" s="14"/>
-      <c r="K76" s="14"/>
-      <c r="M76" s="16" t="e">
+      <c r="D76" s="11">
+        <v>48</v>
+      </c>
+      <c r="E76" s="11">
+        <v>-1</v>
+      </c>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="11"/>
+      <c r="J76" s="11"/>
+      <c r="K76" s="11"/>
+      <c r="M76" s="16" t="str">
         <f>VLOOKUP(D76,Szituációk!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v xml:space="preserve">E-mailt kaptok: “Egyetemünkre külföldi delegáció érkezik, fogadásuk az alábbi helyszíneket érinti...ezeket az alábbi időpontban kérjük szabadon hagyni...” </v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
@@ -3314,18 +3286,21 @@
       <c r="B77" s="1">
         <v>47</v>
       </c>
-      <c r="C77" s="10" t="s">
+      <c r="C77" s="13" t="s">
         <v>195</v>
       </c>
+      <c r="D77" s="1">
+        <v>48</v>
+      </c>
       <c r="E77" s="1">
         <v>-1</v>
       </c>
       <c r="H77" s="1">
         <v>1</v>
       </c>
-      <c r="M77" s="8" t="e">
+      <c r="M77" s="14" t="str">
         <f>VLOOKUP(D77,Szituációk!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v xml:space="preserve">E-mailt kaptok: “Egyetemünkre külföldi delegáció érkezik, fogadásuk az alábbi helyszíneket érinti...ezeket az alábbi időpontban kérjük szabadon hagyni...” </v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
@@ -3336,8 +3311,11 @@
       <c r="B78" s="1">
         <v>47</v>
       </c>
-      <c r="C78" s="10" t="s">
+      <c r="C78" s="13" t="s">
         <v>196</v>
+      </c>
+      <c r="D78" s="1">
+        <v>48</v>
       </c>
       <c r="E78" s="1">
         <v>-3</v>
@@ -3354,9 +3332,9 @@
       <c r="J78" s="1">
         <v>1</v>
       </c>
-      <c r="M78" s="8" t="e">
+      <c r="M78" s="14" t="str">
         <f>VLOOKUP(D78,Szituációk!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v xml:space="preserve">E-mailt kaptok: “Egyetemünkre külföldi delegáció érkezik, fogadásuk az alábbi helyszíneket érinti...ezeket az alábbi időpontban kérjük szabadon hagyni...” </v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
@@ -3367,12 +3345,15 @@
       <c r="B79" s="1">
         <v>47</v>
       </c>
-      <c r="C79" s="10" t="s">
+      <c r="C79" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="M79" s="8" t="e">
+      <c r="D79" s="1">
+        <v>48</v>
+      </c>
+      <c r="M79" s="14" t="str">
         <f>VLOOKUP(D79,Szituációk!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v xml:space="preserve">E-mailt kaptok: “Egyetemünkre külföldi delegáció érkezik, fogadásuk az alábbi helyszíneket érinti...ezeket az alábbi időpontban kérjük szabadon hagyni...” </v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
@@ -3383,12 +3364,15 @@
       <c r="B80" s="1">
         <v>47</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="C80" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="M80" s="8" t="e">
+      <c r="D80" s="1">
+        <v>48</v>
+      </c>
+      <c r="M80" s="14" t="str">
         <f>VLOOKUP(D80,Szituációk!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v xml:space="preserve">E-mailt kaptok: “Egyetemünkre külföldi delegáció érkezik, fogadásuk az alábbi helyszíneket érinti...ezeket az alábbi időpontban kérjük szabadon hagyni...” </v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
@@ -3399,8 +3383,11 @@
       <c r="B81" s="1">
         <v>48</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="C81" s="13" t="s">
         <v>199</v>
+      </c>
+      <c r="D81" s="1">
+        <v>49</v>
       </c>
       <c r="E81" s="1">
         <v>-4</v>
@@ -3423,9 +3410,9 @@
       <c r="K81" s="1">
         <v>4</v>
       </c>
-      <c r="M81" s="8" t="e">
+      <c r="M81" s="14" t="str">
         <f>VLOOKUP(D81,Szituációk!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Hogyan adsz visszajelzést?</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
@@ -3436,8 +3423,11 @@
       <c r="B82" s="1">
         <v>48</v>
       </c>
-      <c r="C82" s="10" t="s">
+      <c r="C82" s="13" t="s">
         <v>200</v>
+      </c>
+      <c r="D82" s="1">
+        <v>49</v>
       </c>
       <c r="E82" s="1">
         <v>-3</v>
@@ -3451,9 +3441,9 @@
       <c r="K82" s="1">
         <v>3</v>
       </c>
-      <c r="M82" s="8" t="e">
+      <c r="M82" s="14" t="str">
         <f>VLOOKUP(D82,Szituációk!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Hogyan adsz visszajelzést?</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
@@ -3464,8 +3454,11 @@
       <c r="B83" s="1">
         <v>48</v>
       </c>
-      <c r="C83" s="10" t="s">
+      <c r="C83" s="13" t="s">
         <v>201</v>
+      </c>
+      <c r="D83" s="1">
+        <v>49</v>
       </c>
       <c r="E83" s="1">
         <v>-2</v>
@@ -3479,9 +3472,9 @@
       <c r="K83" s="1">
         <v>1</v>
       </c>
-      <c r="M83" s="8" t="e">
+      <c r="M83" s="14" t="str">
         <f>VLOOKUP(D83,Szituációk!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Hogyan adsz visszajelzést?</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
@@ -3492,8 +3485,11 @@
       <c r="B84" s="1">
         <v>48</v>
       </c>
-      <c r="C84" s="10" t="s">
+      <c r="C84" s="13" t="s">
         <v>202</v>
+      </c>
+      <c r="D84" s="1">
+        <v>49</v>
       </c>
       <c r="E84" s="1">
         <v>-1</v>
@@ -3501,9 +3497,9 @@
       <c r="K84" s="1">
         <v>-2</v>
       </c>
-      <c r="M84" s="8" t="e">
+      <c r="M84" s="14" t="str">
         <f>VLOOKUP(D84,Szituációk!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Hogyan adsz visszajelzést?</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -3514,9 +3510,12 @@
       <c r="B85" s="1">
         <v>49</v>
       </c>
-      <c r="C85" s="10" t="s">
+      <c r="C85" s="13" t="s">
         <v>203</v>
       </c>
+      <c r="D85" s="1">
+        <v>50</v>
+      </c>
       <c r="E85" s="1">
         <v>-1</v>
       </c>
@@ -3529,9 +3528,9 @@
       <c r="K85" s="1">
         <v>1</v>
       </c>
-      <c r="M85" s="8" t="e">
+      <c r="M85" s="14" t="str">
         <f>VLOOKUP(D85,Szituációk!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Jó napot! Elégedett a csoportunkkal? Ön szerint jól sikerültek az utolsó munkáink, beadandóink? Beszélünk majd arról is, hogy az új, most először kipróbált feladatok hogyan sikerültek? Nekem lenne egy-két megjegyzésem. Szerintem nagyon jó volt a félév, de azért jó lenne hallani a tanárunk véleményét is!</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -3542,9 +3541,12 @@
       <c r="B86" s="1">
         <v>49</v>
       </c>
-      <c r="C86" s="10" t="s">
+      <c r="C86" s="13" t="s">
         <v>204</v>
       </c>
+      <c r="D86" s="1">
+        <v>52</v>
+      </c>
       <c r="E86" s="1">
         <v>-1</v>
       </c>
@@ -3560,9 +3562,9 @@
       <c r="K86" s="1">
         <v>1</v>
       </c>
-      <c r="M86" s="8" t="e">
+      <c r="M86" s="14" t="str">
         <f>VLOOKUP(D86,Szituációk!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Osztálytermi helyzet: visszajelzés</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
@@ -3573,15 +3575,18 @@
       <c r="B87" s="1">
         <v>49</v>
       </c>
-      <c r="C87" s="10" t="s">
+      <c r="C87" s="13" t="s">
         <v>205</v>
+      </c>
+      <c r="D87" s="1">
+        <v>51</v>
       </c>
       <c r="E87" s="1">
         <v>-3</v>
       </c>
-      <c r="M87" s="8" t="e">
+      <c r="M87" s="14" t="str">
         <f>VLOOKUP(D87,Szituációk!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v xml:space="preserve">Keresek irodalmat/kollégát keresek. </v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
@@ -3592,8 +3597,11 @@
       <c r="B88" s="1">
         <v>50</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="13" t="s">
         <v>206</v>
+      </c>
+      <c r="D88" s="1">
+        <v>54</v>
       </c>
       <c r="E88" s="1">
         <v>-1</v>
@@ -3607,9 +3615,9 @@
       <c r="K88" s="1">
         <v>2</v>
       </c>
-      <c r="M88" s="8" t="e">
+      <c r="M88" s="14" t="str">
         <f>VLOOKUP(D88,Szituációk!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Megint összeül az innovációs projektcsapatunk, hogy értékeljük a pilot eddigi tapasztalatait. Először egy körkérdéssel kezdünk: ki hogyan látja fejlődését az oktatási innovációk kapcsán. Te mennyire vagy elégedett?</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
@@ -3620,8 +3628,11 @@
       <c r="B89" s="1">
         <v>50</v>
       </c>
-      <c r="C89" s="10" t="s">
+      <c r="C89" s="13" t="s">
         <v>207</v>
+      </c>
+      <c r="D89" s="1">
+        <v>54</v>
       </c>
       <c r="E89" s="1">
         <v>-1</v>
@@ -3629,9 +3640,9 @@
       <c r="K89" s="1">
         <v>-2</v>
       </c>
-      <c r="M89" s="8" t="e">
+      <c r="M89" s="14" t="str">
         <f>VLOOKUP(D89,Szituációk!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Megint összeül az innovációs projektcsapatunk, hogy értékeljük a pilot eddigi tapasztalatait. Először egy körkérdéssel kezdünk: ki hogyan látja fejlődését az oktatási innovációk kapcsán. Te mennyire vagy elégedett?</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
@@ -3642,8 +3653,11 @@
       <c r="B90" s="1">
         <v>52</v>
       </c>
-      <c r="C90" s="10" t="s">
+      <c r="C90" s="13" t="s">
         <v>234</v>
+      </c>
+      <c r="D90" s="1">
+        <v>54</v>
       </c>
       <c r="E90" s="1">
         <v>-1</v>
@@ -3657,9 +3671,9 @@
       <c r="K90" s="1">
         <v>2</v>
       </c>
-      <c r="M90" s="8" t="e">
+      <c r="M90" s="14" t="str">
         <f>VLOOKUP(D90,Szituációk!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Megint összeül az innovációs projektcsapatunk, hogy értékeljük a pilot eddigi tapasztalatait. Először egy körkérdéssel kezdünk: ki hogyan látja fejlődését az oktatási innovációk kapcsán. Te mennyire vagy elégedett?</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
@@ -3670,8 +3684,11 @@
       <c r="B91" s="1">
         <v>52</v>
       </c>
-      <c r="C91" s="10" t="s">
+      <c r="C91" s="13" t="s">
         <v>208</v>
+      </c>
+      <c r="D91" s="1">
+        <v>54</v>
       </c>
       <c r="E91" s="1">
         <v>-2</v>
@@ -3682,9 +3699,9 @@
       <c r="K91" s="1">
         <v>3</v>
       </c>
-      <c r="M91" s="8" t="e">
+      <c r="M91" s="14" t="str">
         <f>VLOOKUP(D91,Szituációk!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Megint összeül az innovációs projektcsapatunk, hogy értékeljük a pilot eddigi tapasztalatait. Először egy körkérdéssel kezdünk: ki hogyan látja fejlődését az oktatási innovációk kapcsán. Te mennyire vagy elégedett?</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
@@ -3695,8 +3712,11 @@
       <c r="B92" s="1">
         <v>52</v>
       </c>
-      <c r="C92" s="10" t="s">
+      <c r="C92" s="13" t="s">
         <v>209</v>
+      </c>
+      <c r="D92" s="1">
+        <v>53</v>
       </c>
       <c r="E92" s="1">
         <v>-2</v>
@@ -3716,9 +3736,9 @@
       <c r="K92" s="1">
         <v>5</v>
       </c>
-      <c r="M92" s="8" t="e">
+      <c r="M92" s="14" t="str">
         <f>VLOOKUP(D92,Szituációk!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Osztálytermi helyzet: visszajelzés</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
@@ -3729,8 +3749,11 @@
       <c r="B93" s="1">
         <v>53</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="13" t="s">
         <v>210</v>
+      </c>
+      <c r="D93" s="1">
+        <v>54</v>
       </c>
       <c r="E93" s="1">
         <v>-2</v>
@@ -3750,9 +3773,9 @@
       <c r="K93" s="1">
         <v>5</v>
       </c>
-      <c r="M93" s="8" t="e">
+      <c r="M93" s="14" t="str">
         <f>VLOOKUP(D93,Szituációk!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Megint összeül az innovációs projektcsapatunk, hogy értékeljük a pilot eddigi tapasztalatait. Először egy körkérdéssel kezdünk: ki hogyan látja fejlődését az oktatási innovációk kapcsán. Te mennyire vagy elégedett?</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
@@ -3763,8 +3786,11 @@
       <c r="B94" s="1">
         <v>53</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="13" t="s">
         <v>211</v>
+      </c>
+      <c r="D94" s="1">
+        <v>54</v>
       </c>
       <c r="E94" s="1">
         <v>-2</v>
@@ -3784,9 +3810,9 @@
       <c r="K94" s="1">
         <v>3</v>
       </c>
-      <c r="M94" s="8" t="e">
+      <c r="M94" s="14" t="str">
         <f>VLOOKUP(D94,Szituációk!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Megint összeül az innovációs projektcsapatunk, hogy értékeljük a pilot eddigi tapasztalatait. Először egy körkérdéssel kezdünk: ki hogyan látja fejlődését az oktatási innovációk kapcsán. Te mennyire vagy elégedett?</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
@@ -3797,8 +3823,11 @@
       <c r="B95" s="1">
         <v>53</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="13" t="s">
         <v>212</v>
+      </c>
+      <c r="D95" s="1">
+        <v>54</v>
       </c>
       <c r="E95" s="1">
         <v>-1</v>
@@ -3812,9 +3841,9 @@
       <c r="K95" s="1">
         <v>2</v>
       </c>
-      <c r="M95" s="8" t="e">
+      <c r="M95" s="14" t="str">
         <f>VLOOKUP(D95,Szituációk!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Megint összeül az innovációs projektcsapatunk, hogy értékeljük a pilot eddigi tapasztalatait. Először egy körkérdéssel kezdünk: ki hogyan látja fejlődését az oktatási innovációk kapcsán. Te mennyire vagy elégedett?</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
@@ -3825,18 +3854,21 @@
       <c r="B96" s="1">
         <v>54</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="13" t="s">
         <v>213</v>
       </c>
+      <c r="D96" s="1">
+        <v>61</v>
+      </c>
       <c r="E96" s="1">
         <v>-1</v>
       </c>
       <c r="K96" s="1">
         <v>1</v>
       </c>
-      <c r="M96" s="8" t="e">
+      <c r="M96" s="14" t="str">
         <f>VLOOKUP(D96,Szituációk!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Teamülés</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
@@ -3847,8 +3879,11 @@
       <c r="B97" s="1">
         <v>54</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="13" t="s">
         <v>214</v>
+      </c>
+      <c r="D97" s="1">
+        <v>55</v>
       </c>
       <c r="E97" s="1">
         <v>-1</v>
@@ -3862,9 +3897,9 @@
       <c r="K97" s="1">
         <v>2</v>
       </c>
-      <c r="M97" s="8" t="e">
+      <c r="M97" s="14" t="str">
         <f>VLOOKUP(D97,Szituációk!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Miben szeretnél fejlődni?</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
@@ -3875,9 +3910,12 @@
       <c r="B98" s="1">
         <v>54</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="13" t="s">
         <v>215</v>
       </c>
+      <c r="D98" s="1">
+        <v>55</v>
+      </c>
       <c r="E98" s="1">
         <v>-1</v>
       </c>
@@ -3890,9 +3928,9 @@
       <c r="K98" s="1">
         <v>1</v>
       </c>
-      <c r="M98" s="8" t="e">
+      <c r="M98" s="14" t="str">
         <f>VLOOKUP(D98,Szituációk!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Miben szeretnél fejlődni?</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
@@ -3903,18 +3941,21 @@
       <c r="B99" s="1">
         <v>55</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="13" t="s">
         <v>216</v>
       </c>
+      <c r="D99" s="1">
+        <v>56</v>
+      </c>
       <c r="E99" s="1">
         <v>-1</v>
       </c>
       <c r="F99" s="1">
         <v>1</v>
       </c>
-      <c r="M99" s="8" t="e">
+      <c r="M99" s="14" t="str">
         <f>VLOOKUP(D99,Szituációk!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Egy kolléga önreflexió kapcsán a következőt javasolja:</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
@@ -3925,18 +3966,21 @@
       <c r="B100" s="1">
         <v>55</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="13" t="s">
         <v>217</v>
       </c>
+      <c r="D100" s="1">
+        <v>57</v>
+      </c>
       <c r="E100" s="1">
         <v>-1</v>
       </c>
       <c r="H100" s="1">
         <v>1</v>
       </c>
-      <c r="M100" s="8" t="e">
+      <c r="M100" s="14" t="str">
         <f>VLOOKUP(D100,Szituációk!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Egy kolléga kezdeményezőkésszég kapcsán a következőt javasolja:</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
@@ -3947,18 +3991,21 @@
       <c r="B101" s="1">
         <v>55</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="13" t="s">
         <v>218</v>
       </c>
+      <c r="D101" s="1">
+        <v>58</v>
+      </c>
       <c r="E101" s="1">
         <v>-1</v>
       </c>
       <c r="J101" s="1">
         <v>1</v>
       </c>
-      <c r="M101" s="8" t="e">
+      <c r="M101" s="14" t="str">
         <f>VLOOKUP(D101,Szituációk!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Egy kolléga csapatjáték, együttműködés kapcsán a következőt javasolja:</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
@@ -3969,18 +4016,21 @@
       <c r="B102" s="1">
         <v>55</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="13" t="s">
         <v>219</v>
       </c>
+      <c r="D102" s="1">
+        <v>59</v>
+      </c>
       <c r="E102" s="1">
         <v>-1</v>
       </c>
       <c r="G102" s="1">
         <v>1</v>
       </c>
-      <c r="M102" s="8" t="e">
+      <c r="M102" s="14" t="str">
         <f>VLOOKUP(D102,Szituációk!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Egy kolléga pedagógiai felkészültség kapcsán a következőt javasolja:</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
@@ -3991,18 +4041,21 @@
       <c r="B103" s="1">
         <v>55</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="13" t="s">
         <v>220</v>
       </c>
+      <c r="D103" s="1">
+        <v>60</v>
+      </c>
       <c r="E103" s="1">
         <v>-1</v>
       </c>
       <c r="I103" s="1">
         <v>1</v>
       </c>
-      <c r="M103" s="8" t="e">
+      <c r="M103" s="14" t="str">
         <f>VLOOKUP(D103,Szituációk!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Egy kolléga kreativitás kapcsán a következőt javasolja:</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
@@ -4013,8 +4066,11 @@
       <c r="B104" s="1">
         <v>61</v>
       </c>
-      <c r="C104" s="10" t="s">
+      <c r="C104" s="13" t="s">
         <v>221</v>
+      </c>
+      <c r="D104" s="1">
+        <v>62</v>
       </c>
       <c r="E104" s="1">
         <v>-1</v>
@@ -4028,9 +4084,9 @@
       <c r="K104" s="1">
         <v>2</v>
       </c>
-      <c r="M104" s="8" t="e">
+      <c r="M104" s="14" t="str">
         <f>VLOOKUP(D104,Szituációk!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>OMHV statisztikai adatok​</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
@@ -4041,8 +4097,11 @@
       <c r="B105" s="1">
         <v>61</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="13" t="s">
         <v>222</v>
+      </c>
+      <c r="D105" s="1">
+        <v>64</v>
       </c>
       <c r="E105" s="1">
         <v>-1</v>
@@ -4059,9 +4118,9 @@
       <c r="K105" s="1">
         <v>2</v>
       </c>
-      <c r="M105" s="8" t="e">
+      <c r="M105" s="14" t="str">
         <f>VLOOKUP(D105,Szituációk!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Hallgatói visszajelzések ​</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
@@ -4072,8 +4131,11 @@
       <c r="B106" s="1">
         <v>61</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="13" t="s">
         <v>223</v>
+      </c>
+      <c r="D106" s="1">
+        <v>65</v>
       </c>
       <c r="E106" s="1">
         <v>-2</v>
@@ -4087,9 +4149,9 @@
       <c r="K106" s="1">
         <v>4</v>
       </c>
-      <c r="M106" s="8" t="e">
+      <c r="M106" s="14" t="str">
         <f>VLOOKUP(D106,Szituációk!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Hallgatói visszajelzések ​</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
@@ -4098,10 +4160,13 @@
         <v>106</v>
       </c>
       <c r="B107" s="1">
-        <v>65</v>
-      </c>
-      <c r="C107" t="s">
+        <v>66</v>
+      </c>
+      <c r="C107" s="13" t="s">
         <v>224</v>
+      </c>
+      <c r="D107" s="1">
+        <v>67</v>
       </c>
       <c r="E107" s="1">
         <v>-2</v>
@@ -4118,9 +4183,9 @@
       <c r="K107" s="1">
         <v>4</v>
       </c>
-      <c r="M107" s="8" t="e">
+      <c r="M107" s="14" t="str">
         <f>VLOOKUP(D107,Szituációk!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v xml:space="preserve">A team végül a kis változtatások és a pilot terjesztése mellett döntött. Kinek, miként mutassuk be a fejlesztés eredményeit? </v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
@@ -4129,10 +4194,13 @@
         <v>107</v>
       </c>
       <c r="B108" s="1">
-        <v>65</v>
-      </c>
-      <c r="C108" t="s">
+        <v>66</v>
+      </c>
+      <c r="C108" s="13" t="s">
         <v>225</v>
+      </c>
+      <c r="D108" s="1">
+        <v>67</v>
       </c>
       <c r="E108" s="1">
         <v>-3</v>
@@ -4146,9 +4214,9 @@
       <c r="K108" s="1">
         <v>3</v>
       </c>
-      <c r="M108" s="8" t="e">
+      <c r="M108" s="14" t="str">
         <f>VLOOKUP(D108,Szituációk!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v xml:space="preserve">A team végül a kis változtatások és a pilot terjesztése mellett döntött. Kinek, miként mutassuk be a fejlesztés eredményeit? </v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
@@ -4157,17 +4225,20 @@
         <v>108</v>
       </c>
       <c r="B109" s="1">
-        <v>65</v>
-      </c>
-      <c r="C109" t="s">
+        <v>66</v>
+      </c>
+      <c r="C109" s="13" t="s">
         <v>226</v>
       </c>
+      <c r="D109" s="1">
+        <v>67</v>
+      </c>
       <c r="E109" s="1">
         <v>-1</v>
       </c>
-      <c r="M109" s="8" t="e">
+      <c r="M109" s="14" t="str">
         <f>VLOOKUP(D109,Szituációk!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v xml:space="preserve">A team végül a kis változtatások és a pilot terjesztése mellett döntött. Kinek, miként mutassuk be a fejlesztés eredményeit? </v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
@@ -4176,20 +4247,23 @@
         <v>109</v>
       </c>
       <c r="B110" s="1">
-        <v>66</v>
-      </c>
-      <c r="C110" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C110" s="13" t="s">
         <v>227</v>
       </c>
+      <c r="D110" s="1">
+        <v>68</v>
+      </c>
       <c r="E110" s="1">
         <v>-1</v>
       </c>
       <c r="K110" s="1">
         <v>1</v>
       </c>
-      <c r="M110" s="8" t="e">
+      <c r="M110" s="14" t="str">
         <f>VLOOKUP(D110,Szituációk!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Eltelt egy év…</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
@@ -4198,10 +4272,13 @@
         <v>110</v>
       </c>
       <c r="B111" s="1">
-        <v>66</v>
-      </c>
-      <c r="C111" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C111" s="13" t="s">
         <v>228</v>
+      </c>
+      <c r="D111" s="1">
+        <v>68</v>
       </c>
       <c r="E111" s="1">
         <v>-1</v>
@@ -4212,9 +4289,9 @@
       <c r="K111" s="1">
         <v>3</v>
       </c>
-      <c r="M111" s="8" t="e">
+      <c r="M111" s="14" t="str">
         <f>VLOOKUP(D111,Szituációk!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Eltelt egy év…</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
@@ -4223,10 +4300,13 @@
         <v>111</v>
       </c>
       <c r="B112" s="1">
-        <v>66</v>
-      </c>
-      <c r="C112" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C112" s="13" t="s">
         <v>229</v>
+      </c>
+      <c r="D112" s="1">
+        <v>68</v>
       </c>
       <c r="E112" s="1">
         <v>-1</v>
@@ -4234,9 +4314,9 @@
       <c r="K112" s="1">
         <v>2</v>
       </c>
-      <c r="M112" s="8" t="e">
+      <c r="M112" s="14" t="str">
         <f>VLOOKUP(D112,Szituációk!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Eltelt egy év…</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
@@ -4245,10 +4325,13 @@
         <v>112</v>
       </c>
       <c r="B113" s="1">
-        <v>66</v>
-      </c>
-      <c r="C113" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C113" s="13" t="s">
         <v>233</v>
+      </c>
+      <c r="D113" s="1">
+        <v>68</v>
       </c>
       <c r="E113" s="1">
         <v>-1</v>
@@ -4259,9 +4342,9 @@
       <c r="K113" s="1">
         <v>2</v>
       </c>
-      <c r="M113" s="8" t="e">
+      <c r="M113" s="14" t="str">
         <f>VLOOKUP(D113,Szituációk!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Eltelt egy év…</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
@@ -4270,10 +4353,13 @@
         <v>113</v>
       </c>
       <c r="B114" s="1">
-        <v>66</v>
-      </c>
-      <c r="C114" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C114" s="13" t="s">
         <v>230</v>
+      </c>
+      <c r="D114" s="1">
+        <v>68</v>
       </c>
       <c r="E114" s="1">
         <v>-1</v>
@@ -4287,9 +4373,9 @@
       <c r="K114" s="1">
         <v>2</v>
       </c>
-      <c r="M114" s="8" t="e">
+      <c r="M114" s="14" t="str">
         <f>VLOOKUP(D114,Szituációk!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Eltelt egy év…</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
@@ -4298,10 +4384,13 @@
         <v>114</v>
       </c>
       <c r="B115" s="1">
-        <v>66</v>
-      </c>
-      <c r="C115" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C115" s="13" t="s">
         <v>231</v>
+      </c>
+      <c r="D115" s="1">
+        <v>68</v>
       </c>
       <c r="E115" s="1">
         <v>-1</v>
@@ -4315,9 +4404,9 @@
       <c r="K115" s="1">
         <v>3</v>
       </c>
-      <c r="M115" s="8" t="e">
+      <c r="M115" s="14" t="str">
         <f>VLOOKUP(D115,Szituációk!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Eltelt egy év…</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
@@ -4326,11 +4415,14 @@
         <v>115</v>
       </c>
       <c r="B116" s="1">
-        <v>66</v>
-      </c>
-      <c r="C116" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C116" s="13" t="s">
         <v>232</v>
       </c>
+      <c r="D116" s="1">
+        <v>68</v>
+      </c>
       <c r="E116" s="1">
         <v>-1</v>
       </c>
@@ -4343,9 +4435,9 @@
       <c r="K116" s="1">
         <v>1</v>
       </c>
-      <c r="M116" s="8" t="e">
+      <c r="M116" s="14" t="str">
         <f>VLOOKUP(D116,Szituációk!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Eltelt egy év…</v>
       </c>
     </row>
   </sheetData>
@@ -4360,10 +4452,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09A778E5-FEF8-483F-AED6-8DF6A0AC9FB2}">
-  <dimension ref="A1:J68"/>
+  <dimension ref="A1:J69"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4375,7 +4467,7 @@
     <col min="5" max="7" width="7.42578125" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="1"/>
-    <col min="10" max="10" width="9.140625" style="13"/>
+    <col min="10" max="10" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4406,7 +4498,7 @@
       <c r="I1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="11"/>
+      <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
@@ -4431,13 +4523,11 @@
       <c r="I2" s="1">
         <v>2</v>
       </c>
-      <c r="J2" s="12">
-        <v>2</v>
-      </c>
+      <c r="J2" s="8"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <f t="shared" ref="A3:A66" si="0">ROW(A2)</f>
+        <f t="shared" ref="A3:A65" si="0">ROW(A2)</f>
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -4461,9 +4551,7 @@
       <c r="I3" s="1">
         <v>3</v>
       </c>
-      <c r="J3" s="12">
-        <v>3</v>
-      </c>
+      <c r="J3" s="8"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -4485,10 +4573,7 @@
       <c r="H4" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="12" t="str">
-        <f>IF(H4="infó",A5,"")</f>
-        <v/>
-      </c>
+      <c r="J4" s="8"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -4513,10 +4598,7 @@
       <c r="I5" s="1">
         <v>3</v>
       </c>
-      <c r="J5" s="12">
-        <f>IF(H5="infó",A6,"")</f>
-        <v>5</v>
-      </c>
+      <c r="J5" s="8"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -4541,10 +4623,7 @@
       <c r="I6" s="1">
         <v>3</v>
       </c>
-      <c r="J6" s="12">
-        <f>IF(H6="infó",A7,"")</f>
-        <v>6</v>
-      </c>
+      <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -4566,10 +4645,7 @@
       <c r="H7" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="12" t="str">
-        <f>IF(H7="infó",A8,"")</f>
-        <v/>
-      </c>
+      <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -4597,10 +4673,7 @@
       <c r="I8" s="1">
         <v>11</v>
       </c>
-      <c r="J8" s="12">
-        <f>IF(H8="infó",A9,"")</f>
-        <v>8</v>
-      </c>
+      <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -4628,10 +4701,7 @@
       <c r="I9" s="1">
         <v>11</v>
       </c>
-      <c r="J9" s="12">
-        <f>IF(H9="infó",A10,"")</f>
-        <v>9</v>
-      </c>
+      <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -4659,10 +4729,7 @@
       <c r="I10" s="1">
         <v>11</v>
       </c>
-      <c r="J10" s="12">
-        <f>IF(H10="infó",A11,"")</f>
-        <v>10</v>
-      </c>
+      <c r="J10" s="8"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -4690,10 +4757,7 @@
       <c r="I11" s="1">
         <v>11</v>
       </c>
-      <c r="J11" s="12">
-        <f>IF(H11="infó",A12,"")</f>
-        <v>11</v>
-      </c>
+      <c r="J11" s="8"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -4718,10 +4782,7 @@
       <c r="H12" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="12" t="str">
-        <f>IF(H12="infó",A13,"")</f>
-        <v/>
-      </c>
+      <c r="J12" s="8"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -4743,10 +4804,7 @@
       <c r="H13" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="12" t="str">
-        <f>IF(H13="infó",A14,"")</f>
-        <v/>
-      </c>
+      <c r="J13" s="8"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -4768,10 +4826,7 @@
       <c r="H14" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="12" t="str">
-        <f>IF(H14="infó",A15,"")</f>
-        <v/>
-      </c>
+      <c r="J14" s="8"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -4793,10 +4848,7 @@
       <c r="H15" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="12" t="str">
-        <f>IF(H15="infó",A16,"")</f>
-        <v/>
-      </c>
+      <c r="J15" s="8"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -4821,10 +4873,7 @@
       <c r="H16" t="s">
         <v>43</v>
       </c>
-      <c r="J16" s="12" t="str">
-        <f>IF(H16="infó",A17,"")</f>
-        <v/>
-      </c>
+      <c r="J16" s="8"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -4846,10 +4895,7 @@
       <c r="H17" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="12" t="str">
-        <f>IF(H17="infó",A18,"")</f>
-        <v/>
-      </c>
+      <c r="J17" s="8"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -4877,10 +4923,7 @@
       <c r="I18" s="1">
         <v>18</v>
       </c>
-      <c r="J18" s="12" t="str">
-        <f>IF(H18="infó",A19,"")</f>
-        <v/>
-      </c>
+      <c r="J18" s="8"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -4905,10 +4948,7 @@
       <c r="H19" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="12" t="str">
-        <f>IF(H19="infó",A20,"")</f>
-        <v/>
-      </c>
+      <c r="J19" s="8"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
@@ -4933,10 +4973,7 @@
       <c r="H20" t="s">
         <v>19</v>
       </c>
-      <c r="J20" s="12" t="str">
-        <f>IF(H20="infó",A21,"")</f>
-        <v/>
-      </c>
+      <c r="J20" s="8"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -4958,10 +4995,7 @@
       <c r="H21" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="12" t="str">
-        <f>IF(H21="infó",A22,"")</f>
-        <v/>
-      </c>
+      <c r="J21" s="8"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
@@ -4986,10 +5020,7 @@
       <c r="H22" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="12" t="str">
-        <f>IF(H22="infó",A23,"")</f>
-        <v/>
-      </c>
+      <c r="J22" s="8"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -5011,10 +5042,7 @@
       <c r="H23" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="12" t="str">
-        <f>IF(H23="infó",A24,"")</f>
-        <v/>
-      </c>
+      <c r="J23" s="8"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
@@ -5039,10 +5067,7 @@
       <c r="H24" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="12" t="str">
-        <f>IF(H24="infó",A25,"")</f>
-        <v/>
-      </c>
+      <c r="J24" s="8"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
@@ -5067,10 +5092,7 @@
       <c r="H25" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="12" t="str">
-        <f>IF(H25="infó",A26,"")</f>
-        <v/>
-      </c>
+      <c r="J25" s="8"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
@@ -5092,10 +5114,7 @@
       <c r="H26" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="12" t="str">
-        <f>IF(H26="infó",A27,"")</f>
-        <v/>
-      </c>
+      <c r="J26" s="8"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
@@ -5121,12 +5140,9 @@
         <v>18</v>
       </c>
       <c r="I27" s="1">
-        <v>27</v>
-      </c>
-      <c r="J27" s="12">
-        <f>IF(H27="infó",A28,"")</f>
-        <v>27</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="J27" s="8"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
@@ -5151,13 +5167,10 @@
       <c r="H28" t="s">
         <v>18</v>
       </c>
-      <c r="I28" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="J28" s="12">
-        <f>IF(H28="infó",A29,"")</f>
-        <v>28</v>
-      </c>
+      <c r="I28" s="1">
+        <v>39</v>
+      </c>
+      <c r="J28" s="8"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
@@ -5179,10 +5192,7 @@
       <c r="H29" t="s">
         <v>20</v>
       </c>
-      <c r="J29" s="12" t="str">
-        <f>IF(H29="infó",A30,"")</f>
-        <v/>
-      </c>
+      <c r="J29" s="8"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
@@ -5207,10 +5217,10 @@
       <c r="H30" t="s">
         <v>18</v>
       </c>
-      <c r="J30" s="12">
-        <f>IF(H30="infó",A31,"")</f>
-        <v>30</v>
-      </c>
+      <c r="I30" s="1">
+        <v>39</v>
+      </c>
+      <c r="J30" s="8"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
@@ -5235,10 +5245,10 @@
       <c r="H31" t="s">
         <v>18</v>
       </c>
-      <c r="J31" s="12">
-        <f>IF(H31="infó",A32,"")</f>
-        <v>31</v>
-      </c>
+      <c r="I31" s="1">
+        <v>39</v>
+      </c>
+      <c r="J31" s="8"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
@@ -5266,10 +5276,7 @@
       <c r="I32" s="1">
         <v>32</v>
       </c>
-      <c r="J32" s="12">
-        <f>IF(H32="infó",A33,"")</f>
-        <v>32</v>
-      </c>
+      <c r="J32" s="8"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
@@ -5297,10 +5304,7 @@
       <c r="I33" s="1">
         <v>33</v>
       </c>
-      <c r="J33" s="12">
-        <f>IF(H33="infó",A34,"")</f>
-        <v>33</v>
-      </c>
+      <c r="J33" s="8"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
@@ -5328,10 +5332,7 @@
       <c r="I34" s="1">
         <v>34</v>
       </c>
-      <c r="J34" s="12">
-        <f>IF(H34="infó",A35,"")</f>
-        <v>34</v>
-      </c>
+      <c r="J34" s="8"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
@@ -5359,10 +5360,7 @@
       <c r="I35" s="1">
         <v>35</v>
       </c>
-      <c r="J35" s="12">
-        <f>IF(H35="infó",A36,"")</f>
-        <v>35</v>
-      </c>
+      <c r="J35" s="8"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
@@ -5390,10 +5388,7 @@
       <c r="I36" s="1">
         <v>36</v>
       </c>
-      <c r="J36" s="12">
-        <f>IF(H36="infó",A37,"")</f>
-        <v>36</v>
-      </c>
+      <c r="J36" s="8"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
@@ -5421,10 +5416,7 @@
       <c r="I37" s="1">
         <v>37</v>
       </c>
-      <c r="J37" s="12">
-        <f>IF(H37="infó",A38,"")</f>
-        <v>37</v>
-      </c>
+      <c r="J37" s="8"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
@@ -5452,10 +5444,7 @@
       <c r="I38" s="1">
         <v>38</v>
       </c>
-      <c r="J38" s="12">
-        <f>IF(H38="infó",A39,"")</f>
-        <v>38</v>
-      </c>
+      <c r="J38" s="8"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
@@ -5477,10 +5466,7 @@
       <c r="H39" t="s">
         <v>20</v>
       </c>
-      <c r="J39" s="12" t="str">
-        <f>IF(H39="infó",A40,"")</f>
-        <v/>
-      </c>
+      <c r="J39" s="8"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
@@ -5502,10 +5488,10 @@
       <c r="H40" t="s">
         <v>18</v>
       </c>
-      <c r="J40" s="12">
-        <f>IF(H40="infó",A41,"")</f>
+      <c r="I40" s="1">
         <v>40</v>
       </c>
+      <c r="J40" s="8"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
@@ -5527,8 +5513,8 @@
       <c r="H41" t="s">
         <v>20</v>
       </c>
-      <c r="J41" s="12" t="str">
-        <f>IF(H41="infó",A42,"")</f>
+      <c r="J41" s="8" t="str">
+        <f t="shared" ref="J41:J64" si="1">IF(H41="infó",A42,"")</f>
         <v/>
       </c>
     </row>
@@ -5552,8 +5538,8 @@
       <c r="H42" t="s">
         <v>20</v>
       </c>
-      <c r="J42" s="12" t="str">
-        <f>IF(H42="infó",A43,"")</f>
+      <c r="J42" s="8" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -5577,10 +5563,10 @@
       <c r="H43" t="s">
         <v>18</v>
       </c>
-      <c r="J43" s="12">
-        <f>IF(H43="infó",A44,"")</f>
+      <c r="I43" s="1">
         <v>43</v>
       </c>
+      <c r="J43" s="8"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
@@ -5602,10 +5588,7 @@
       <c r="H44" t="s">
         <v>20</v>
       </c>
-      <c r="J44" s="12" t="str">
-        <f>IF(H44="infó",A45,"")</f>
-        <v/>
-      </c>
+      <c r="J44" s="8"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
@@ -5633,10 +5616,7 @@
       <c r="I45" s="1">
         <v>45</v>
       </c>
-      <c r="J45" s="12">
-        <f>IF(H45="infó",A46,"")</f>
-        <v>45</v>
-      </c>
+      <c r="J45" s="8"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
@@ -5664,10 +5644,7 @@
       <c r="I46" s="1">
         <v>46</v>
       </c>
-      <c r="J46" s="12">
-        <f>IF(H46="infó",A47,"")</f>
-        <v>46</v>
-      </c>
+      <c r="J46" s="8"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
@@ -5689,10 +5666,7 @@
       <c r="H47" t="s">
         <v>20</v>
       </c>
-      <c r="J47" s="12" t="str">
-        <f>IF(H47="infó",A48,"")</f>
-        <v/>
-      </c>
+      <c r="J47" s="8"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
@@ -5714,10 +5688,7 @@
       <c r="H48" t="s">
         <v>20</v>
       </c>
-      <c r="J48" s="12" t="str">
-        <f>IF(H48="infó",A49,"")</f>
-        <v/>
-      </c>
+      <c r="J48" s="8"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
@@ -5742,10 +5713,7 @@
       <c r="H49" t="s">
         <v>20</v>
       </c>
-      <c r="J49" s="12" t="str">
-        <f>IF(H49="infó",A50,"")</f>
-        <v/>
-      </c>
+      <c r="J49" s="8"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
@@ -5770,10 +5738,7 @@
       <c r="H50" t="s">
         <v>20</v>
       </c>
-      <c r="J50" s="12" t="str">
-        <f>IF(H50="infó",A51,"")</f>
-        <v/>
-      </c>
+      <c r="J50" s="8"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
@@ -5795,10 +5760,7 @@
       <c r="H51" t="s">
         <v>19</v>
       </c>
-      <c r="J51" s="12" t="str">
-        <f>IF(H51="infó",A52,"")</f>
-        <v/>
-      </c>
+      <c r="J51" s="8"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
@@ -5823,10 +5785,10 @@
       <c r="H52" t="s">
         <v>18</v>
       </c>
-      <c r="J52" s="12">
-        <f>IF(H52="infó",A53,"")</f>
-        <v>52</v>
-      </c>
+      <c r="I52" s="1">
+        <v>53</v>
+      </c>
+      <c r="J52" s="8"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
@@ -5848,10 +5810,7 @@
       <c r="H53" t="s">
         <v>20</v>
       </c>
-      <c r="J53" s="12" t="str">
-        <f>IF(H53="infó",A54,"")</f>
-        <v/>
-      </c>
+      <c r="J53" s="8"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
@@ -5876,10 +5835,7 @@
       <c r="H54" t="s">
         <v>20</v>
       </c>
-      <c r="J54" s="12" t="str">
-        <f>IF(H54="infó",A55,"")</f>
-        <v/>
-      </c>
+      <c r="J54" s="8"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
@@ -5901,10 +5857,7 @@
       <c r="H55" t="s">
         <v>20</v>
       </c>
-      <c r="J55" s="12" t="str">
-        <f>IF(H55="infó",A56,"")</f>
-        <v/>
-      </c>
+      <c r="J55" s="8"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
@@ -5926,10 +5879,7 @@
       <c r="H56" t="s">
         <v>20</v>
       </c>
-      <c r="J56" s="12" t="str">
-        <f>IF(H56="infó",A57,"")</f>
-        <v/>
-      </c>
+      <c r="J56" s="8"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
@@ -5954,10 +5904,10 @@
       <c r="H57" t="s">
         <v>18</v>
       </c>
-      <c r="J57" s="12">
-        <f>IF(H57="infó",A58,"")</f>
-        <v>57</v>
-      </c>
+      <c r="I57" s="1">
+        <v>61</v>
+      </c>
+      <c r="J57" s="8"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
@@ -5982,10 +5932,10 @@
       <c r="H58" t="s">
         <v>18</v>
       </c>
-      <c r="J58" s="12">
-        <f>IF(H58="infó",A59,"")</f>
-        <v>58</v>
-      </c>
+      <c r="I58" s="1">
+        <v>61</v>
+      </c>
+      <c r="J58" s="8"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
@@ -6010,10 +5960,10 @@
       <c r="H59" t="s">
         <v>18</v>
       </c>
-      <c r="J59" s="12">
-        <f>IF(H59="infó",A60,"")</f>
-        <v>59</v>
-      </c>
+      <c r="I59" s="1">
+        <v>61</v>
+      </c>
+      <c r="J59" s="8"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
@@ -6038,10 +5988,10 @@
       <c r="H60" t="s">
         <v>18</v>
       </c>
-      <c r="J60" s="12">
-        <f>IF(H60="infó",A61,"")</f>
-        <v>60</v>
-      </c>
+      <c r="I60" s="1">
+        <v>61</v>
+      </c>
+      <c r="J60" s="8"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
@@ -6066,10 +6016,10 @@
       <c r="H61" t="s">
         <v>18</v>
       </c>
-      <c r="J61" s="12">
-        <f>IF(H61="infó",A62,"")</f>
+      <c r="I61" s="1">
         <v>61</v>
       </c>
+      <c r="J61" s="8"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
@@ -6094,10 +6044,7 @@
       <c r="H62" t="s">
         <v>20</v>
       </c>
-      <c r="J62" s="12" t="str">
-        <f>IF(H62="infó",A63,"")</f>
-        <v/>
-      </c>
+      <c r="J62" s="8"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
@@ -6122,10 +6069,10 @@
       <c r="H63" t="s">
         <v>18</v>
       </c>
-      <c r="J63" s="12">
-        <f>IF(H63="infó",A64,"")</f>
+      <c r="I63" s="1">
         <v>63</v>
       </c>
+      <c r="J63" s="8"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
@@ -6150,10 +6097,10 @@
       <c r="H64" t="s">
         <v>18</v>
       </c>
-      <c r="J64" s="12">
-        <f>IF(H64="infó",A65,"")</f>
-        <v>64</v>
-      </c>
+      <c r="I64" s="1">
+        <v>66</v>
+      </c>
+      <c r="J64" s="8"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
@@ -6178,18 +6125,20 @@
       <c r="H65" t="s">
         <v>18</v>
       </c>
-      <c r="J65" s="12">
-        <f>IF(H65="infó",A66,"")</f>
-        <v>65</v>
-      </c>
+      <c r="I65" s="1">
+        <v>66</v>
+      </c>
+      <c r="J65" s="8"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="C66" t="s">
+        <v>119</v>
       </c>
       <c r="E66" s="4" t="b">
         <v>0</v>
@@ -6201,20 +6150,19 @@
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>20</v>
-      </c>
-      <c r="J66" s="12" t="str">
-        <f>IF(H66="infó",A67,"")</f>
-        <v/>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I66" s="1">
+        <v>62</v>
+      </c>
+      <c r="J66" s="8"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <f t="shared" ref="A67:A68" si="1">ROW(A66)</f>
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E67" s="4" t="b">
         <v>0</v>
@@ -6228,38 +6176,57 @@
       <c r="H67" t="s">
         <v>20</v>
       </c>
-      <c r="J67" s="12" t="str">
-        <f>IF(H67="infó",A68,"")</f>
-        <v/>
-      </c>
+      <c r="J67" s="8"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A68:A69" si="2">ROW(A67)</f>
         <v>67</v>
       </c>
       <c r="B68" t="s">
+        <v>121</v>
+      </c>
+      <c r="E68" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F68" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G68" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H68" t="s">
+        <v>20</v>
+      </c>
+      <c r="J68" s="8"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
         <v>122</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C69" t="s">
         <v>123</v>
       </c>
-      <c r="E68" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F68" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G68" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H68" t="s">
+      <c r="E69" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F69" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G69" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H69" t="s">
         <v>18</v>
       </c>
-      <c r="J68" s="12"/>
+      <c r="J69" s="8"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD1 A69:XFD1048576 A2:H68 J2:XFD68">
+  <conditionalFormatting sqref="A1:XFD1 J2:XFD69 A70:XFD1048576 A2:H69">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>OR($H1="Döntés",$H1="Párbeszéd",$H1="Spéci")</formula>
     </cfRule>

--- a/Misc/game-content.xlsx
+++ b/Misc/game-content.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Csump\source\repos\dokk-game\Misc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\por7bp\Documents\GitHub\dokk-game\Misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{335A19FB-67D2-4FD0-B509-5514CCE0D5D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4FF34B5-9F98-48F4-8E2A-9131D92E5771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CCEB2629-634A-424F-AEF4-625E334951C3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{CCEB2629-634A-424F-AEF4-625E334951C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Döntések" sheetId="1" r:id="rId1"/>
@@ -909,23 +909,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <extLst>
-        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
-          <xfpb:xfComplement i="0"/>
-        </ext>
-      </extLst>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -947,16 +936,33 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <extLst>
+        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
+          <xfpb:xfComplement i="0"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normál" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color theme="5"/>
@@ -998,7 +1004,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1316,57 +1322,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F840CCB2-A1B6-4C24-B56A-C460078DD4FD}">
   <dimension ref="A1:M116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O81" sqref="O81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="4" style="1" customWidth="1"/>
-    <col min="3" max="3" width="52.5703125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="52.5703125" style="10" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="11" width="10" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="13"/>
-    <col min="13" max="13" width="9.140625" style="14"/>
-    <col min="14" max="16384" width="9.140625" style="13"/>
+    <col min="12" max="12" width="9.140625" style="10"/>
+    <col min="13" max="13" width="9.140625" style="11"/>
+    <col min="14" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="6" t="s">
+    <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="12"/>
+      <c r="M1" s="9"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
@@ -1376,7 +1382,7 @@
       <c r="B2" s="1">
         <v>3</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="10" t="s">
         <v>124</v>
       </c>
       <c r="D2" s="1">
@@ -1387,10 +1393,6 @@
       </c>
       <c r="G2" s="1">
         <v>-1</v>
-      </c>
-      <c r="M2" s="14" t="str">
-        <f>VLOOKUP(D2,Szituációk!A:B,2,FALSE)</f>
-        <v>Az oktatási dékánhelyettes úgy látja, hogy az OMHV adatok alapján nem lehet kurzust átalakítani, további információk megszerzését kéri!</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -1401,7 +1403,7 @@
       <c r="B3" s="1">
         <v>3</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="10" t="s">
         <v>125</v>
       </c>
       <c r="D3" s="1">
@@ -1413,10 +1415,6 @@
       <c r="H3" s="1">
         <v>1</v>
       </c>
-      <c r="M3" s="14" t="str">
-        <f>VLOOKUP(D3,Szituációk!A:B,2,FALSE)</f>
-        <v>Bár hosszan próbáltok érvelni a döntésetek mellett, az oktatási dékánhelyettes nem ért egyet azzal, hogy nem kell megújítani a kurzusokat, így újra össze kell hívnotok a csapatot.</v>
-      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -1426,7 +1424,7 @@
       <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="10" t="s">
         <v>126</v>
       </c>
       <c r="D4" s="1">
@@ -1441,10 +1439,6 @@
       <c r="H4" s="1">
         <v>-1</v>
       </c>
-      <c r="M4" s="14" t="str">
-        <f>VLOOKUP(D4,Szituációk!A:B,2,FALSE)</f>
-        <v xml:space="preserve">A csapatban a feladatok kiosztása során te kapod meg az adatgyűjtés tervezésének feladatát. Milyen módszert javasolsz ehhez a csapatnak? </v>
-      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -1454,7 +1448,7 @@
       <c r="B5" s="1">
         <v>6</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="10" t="s">
         <v>127</v>
       </c>
       <c r="D5" s="1">
@@ -1463,10 +1457,6 @@
       <c r="G5" s="1">
         <v>1</v>
       </c>
-      <c r="M5" s="14" t="str">
-        <f>VLOOKUP(D5,Szituációk!A:B,2,FALSE)</f>
-        <v>A kérdőíves megkérdezés eredménye</v>
-      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -1476,7 +1466,7 @@
       <c r="B6" s="1">
         <v>6</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="10" t="s">
         <v>128</v>
       </c>
       <c r="D6" s="1">
@@ -1485,10 +1475,6 @@
       <c r="G6" s="1">
         <v>1</v>
       </c>
-      <c r="M6" s="14" t="str">
-        <f>VLOOKUP(D6,Szituációk!A:B,2,FALSE)</f>
-        <v>Külső szakértővel való beszélgetés</v>
-      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -1498,7 +1484,7 @@
       <c r="B7" s="1">
         <v>6</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="10" t="s">
         <v>129</v>
       </c>
       <c r="D7" s="1">
@@ -1513,10 +1499,6 @@
       <c r="I7" s="1">
         <v>1</v>
       </c>
-      <c r="M7" s="14" t="str">
-        <f>VLOOKUP(D7,Szituációk!A:B,2,FALSE)</f>
-        <v xml:space="preserve">Hallgatói fókuszcsoport eredménye </v>
-      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -1526,7 +1508,7 @@
       <c r="B8" s="1">
         <v>6</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="10" t="s">
         <v>130</v>
       </c>
       <c r="D8" s="1">
@@ -1541,10 +1523,6 @@
       <c r="J8" s="1">
         <v>1</v>
       </c>
-      <c r="M8" s="14" t="str">
-        <f>VLOOKUP(D8,Szituációk!A:B,2,FALSE)</f>
-        <v>A pilot csoport oktatóival közös diagnosztizálás eredménye</v>
-      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -1554,7 +1532,7 @@
       <c r="B9" s="1">
         <v>11</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="10" t="s">
         <v>131</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -1563,10 +1541,6 @@
       <c r="E9" s="1">
         <v>-1</v>
       </c>
-      <c r="M9" s="14" t="e">
-        <f>VLOOKUP(D9,Szituációk!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -1576,7 +1550,7 @@
       <c r="B10" s="1">
         <v>11</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="10" t="s">
         <v>132</v>
       </c>
       <c r="D10" s="1">
@@ -1588,10 +1562,6 @@
       <c r="H10" s="1">
         <v>1</v>
       </c>
-      <c r="M10" s="14" t="str">
-        <f>VLOOKUP(D10,Szituációk!A:B,2,FALSE)</f>
-        <v>Ideje a fejlesztésre koncentrálnunk! Mit csináljunk másképp?</v>
-      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -1601,7 +1571,7 @@
       <c r="B11" s="1">
         <v>12</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="10" t="s">
         <v>133</v>
       </c>
       <c r="D11" s="1">
@@ -1613,10 +1583,6 @@
       <c r="I11" s="1">
         <v>-1</v>
       </c>
-      <c r="M11" s="14" t="str">
-        <f>VLOOKUP(D11,Szituációk!A:B,2,FALSE)</f>
-        <v>Hogyan haladtok?</v>
-      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -1626,7 +1592,7 @@
       <c r="B12" s="1">
         <v>12</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="10" t="s">
         <v>134</v>
       </c>
       <c r="D12" s="1">
@@ -1638,10 +1604,6 @@
       <c r="I12" s="1">
         <v>-1</v>
       </c>
-      <c r="M12" s="14" t="str">
-        <f>VLOOKUP(D12,Szituációk!A:B,2,FALSE)</f>
-        <v>Hogyan haladtok?</v>
-      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -1651,7 +1613,7 @@
       <c r="B13" s="1">
         <v>12</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="10" t="s">
         <v>135</v>
       </c>
       <c r="D13" s="1">
@@ -1666,10 +1628,6 @@
       <c r="J13" s="1">
         <v>-1</v>
       </c>
-      <c r="M13" s="14" t="str">
-        <f>VLOOKUP(D13,Szituációk!A:B,2,FALSE)</f>
-        <v>Hogyan haladtok?</v>
-      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -1679,16 +1637,12 @@
       <c r="B14" s="1">
         <v>13</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="10" t="s">
         <v>136</v>
       </c>
       <c r="D14" s="1">
         <v>14</v>
       </c>
-      <c r="M14" s="14" t="str">
-        <f>VLOOKUP(D14,Szituációk!A:B,2,FALSE)</f>
-        <v>Talán érdemes lenne egy olyan kollégát meghívni, aki előttünk jár.</v>
-      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -1698,16 +1652,12 @@
       <c r="B15" s="1">
         <v>14</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="10" t="s">
         <v>137</v>
       </c>
       <c r="D15" s="1">
         <v>15</v>
       </c>
-      <c r="M15" s="14" t="str">
-        <f>VLOOKUP(D15,Szituációk!A:B,2,FALSE)</f>
-        <v>Jógyakorlat workshop</v>
-      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -1717,18 +1667,14 @@
       <c r="B16" s="1">
         <v>15</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="10" t="s">
         <v>138</v>
       </c>
       <c r="D16" s="1">
         <v>16</v>
       </c>
-      <c r="M16" s="14" t="str">
-        <f>VLOOKUP(D16,Szituációk!A:B,2,FALSE)</f>
-        <v>Gábor kiscsoportos munkát ad a csapatnak. Melyik módszertani csomagot választod, melyiket érzed hasznosnak a kari fejlesztéshez?</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1736,18 +1682,14 @@
       <c r="B17" s="1">
         <v>15</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="10" t="s">
         <v>139</v>
       </c>
       <c r="D17" s="1">
         <v>16</v>
       </c>
-      <c r="M17" s="14" t="str">
-        <f>VLOOKUP(D17,Szituációk!A:B,2,FALSE)</f>
-        <v>Gábor kiscsoportos munkát ad a csapatnak. Melyik módszertani csomagot választod, melyiket érzed hasznosnak a kari fejlesztéshez?</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1755,18 +1697,14 @@
       <c r="B18" s="1">
         <v>15</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="10" t="s">
         <v>140</v>
       </c>
       <c r="D18" s="1">
         <v>16</v>
       </c>
-      <c r="M18" s="14" t="str">
-        <f>VLOOKUP(D18,Szituációk!A:B,2,FALSE)</f>
-        <v>Gábor kiscsoportos munkát ad a csapatnak. Melyik módszertani csomagot választod, melyiket érzed hasznosnak a kari fejlesztéshez?</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1774,18 +1712,14 @@
       <c r="B19" s="1">
         <v>15</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="10" t="s">
         <v>141</v>
       </c>
       <c r="D19" s="1">
         <v>16</v>
       </c>
-      <c r="M19" s="14" t="str">
-        <f>VLOOKUP(D19,Szituációk!A:B,2,FALSE)</f>
-        <v>Gábor kiscsoportos munkát ad a csapatnak. Melyik módszertani csomagot választod, melyiket érzed hasznosnak a kari fejlesztéshez?</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1793,18 +1727,14 @@
       <c r="B20" s="1">
         <v>15</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="10" t="s">
         <v>142</v>
       </c>
       <c r="D20" s="1">
         <v>16</v>
       </c>
-      <c r="M20" s="14" t="str">
-        <f>VLOOKUP(D20,Szituációk!A:B,2,FALSE)</f>
-        <v>Gábor kiscsoportos munkát ad a csapatnak. Melyik módszertani csomagot választod, melyiket érzed hasznosnak a kari fejlesztéshez?</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1812,18 +1742,14 @@
       <c r="B21" s="1">
         <v>15</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="10" t="s">
         <v>143</v>
       </c>
       <c r="D21" s="1">
         <v>16</v>
       </c>
-      <c r="M21" s="14" t="str">
-        <f>VLOOKUP(D21,Szituációk!A:B,2,FALSE)</f>
-        <v>Gábor kiscsoportos munkát ad a csapatnak. Melyik módszertani csomagot választod, melyiket érzed hasznosnak a kari fejlesztéshez?</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1831,18 +1757,14 @@
       <c r="B22" s="1">
         <v>15</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="10" t="s">
         <v>144</v>
       </c>
       <c r="D22" s="1">
         <v>16</v>
       </c>
-      <c r="M22" s="14" t="str">
-        <f>VLOOKUP(D22,Szituációk!A:B,2,FALSE)</f>
-        <v>Gábor kiscsoportos munkát ad a csapatnak. Melyik módszertani csomagot választod, melyiket érzed hasznosnak a kari fejlesztéshez?</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1850,18 +1772,14 @@
       <c r="B23" s="1">
         <v>15</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="10" t="s">
         <v>145</v>
       </c>
       <c r="D23" s="1">
         <v>16</v>
       </c>
-      <c r="M23" s="14" t="str">
-        <f>VLOOKUP(D23,Szituációk!A:B,2,FALSE)</f>
-        <v>Gábor kiscsoportos munkát ad a csapatnak. Melyik módszertani csomagot választod, melyiket érzed hasznosnak a kari fejlesztéshez?</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1869,18 +1787,14 @@
       <c r="B24" s="1">
         <v>15</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="10" t="s">
         <v>146</v>
       </c>
       <c r="D24" s="1">
         <v>16</v>
       </c>
-      <c r="M24" s="14" t="str">
-        <f>VLOOKUP(D24,Szituációk!A:B,2,FALSE)</f>
-        <v>Gábor kiscsoportos munkát ad a csapatnak. Melyik módszertani csomagot választod, melyiket érzed hasznosnak a kari fejlesztéshez?</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1888,18 +1802,14 @@
       <c r="B25" s="1">
         <v>16</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="10" t="s">
         <v>147</v>
       </c>
       <c r="D25" s="1">
         <v>17</v>
       </c>
-      <c r="M25" s="14" t="str">
-        <f>VLOOKUP(D25,Szituációk!A:B,2,FALSE)</f>
-        <v>Gábor szempontjai</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1907,18 +1817,14 @@
       <c r="B26" s="1">
         <v>16</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="10" t="s">
         <v>148</v>
       </c>
       <c r="D26" s="1">
         <v>17</v>
       </c>
-      <c r="M26" s="14" t="str">
-        <f>VLOOKUP(D26,Szituációk!A:B,2,FALSE)</f>
-        <v>Gábor szempontjai</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1926,18 +1832,14 @@
       <c r="B27" s="1">
         <v>16</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="10" t="s">
         <v>149</v>
       </c>
       <c r="D27" s="1">
         <v>17</v>
       </c>
-      <c r="M27" s="14" t="str">
-        <f>VLOOKUP(D27,Szituációk!A:B,2,FALSE)</f>
-        <v>Gábor szempontjai</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1945,7 +1847,7 @@
       <c r="B28" s="1">
         <v>18</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="10" t="s">
         <v>150</v>
       </c>
       <c r="D28" s="1">
@@ -1954,13 +1856,8 @@
       <c r="F28" s="1">
         <v>1</v>
       </c>
-      <c r="M28" s="14" t="str">
-        <f>VLOOKUP(D28,Szituációk!A:B,2,FALSE)</f>
-        <v>Elkészült a tantárgyleírás! Ezt boldogan osztod meg az egyik lelkes hallgatóddal, akivel a folyosón találkozol. 
-Emíliának nagyon tetszik a terv, lelkes lesz, de aztán hirtelen el is kedvtelenedik.</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1968,7 +1865,7 @@
       <c r="B29" s="1">
         <v>18</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="10" t="s">
         <v>151</v>
       </c>
       <c r="D29" s="1">
@@ -1977,13 +1874,8 @@
       <c r="F29" s="1">
         <v>-1</v>
       </c>
-      <c r="M29" s="14" t="str">
-        <f>VLOOKUP(D29,Szituációk!A:B,2,FALSE)</f>
-        <v>Elkészült a tantárgyleírás! Ezt boldogan osztod meg az egyik lelkes hallgatóddal, akivel a folyosón találkozol. 
-Emíliának nagyon tetszik a terv, lelkes lesz, de aztán hirtelen el is kedvtelenedik.</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1991,7 +1883,7 @@
       <c r="B30" s="1">
         <v>19</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="10" t="s">
         <v>152</v>
       </c>
       <c r="D30" s="1">
@@ -2000,12 +1892,8 @@
       <c r="H30" s="1">
         <v>1</v>
       </c>
-      <c r="M30" s="14" t="str">
-        <f>VLOOKUP(D30,Szituációk!A:B,2,FALSE)</f>
-        <v>Szerencsésen befejeztük a kurzusok megújításának tervezését, most már neki kezdhetünk a kurzusok megtartásának. Ezelőtt szeretnél visszajelzést kérni az eddigi fejlődésedről és munkádról a fejlesztő csapat többi tagjától?</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2013,7 +1901,7 @@
       <c r="B31" s="1">
         <v>19</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="10" t="s">
         <v>153</v>
       </c>
       <c r="D31" s="1">
@@ -2028,12 +1916,8 @@
       <c r="H31" s="1">
         <v>1</v>
       </c>
-      <c r="M31" s="14" t="str">
-        <f>VLOOKUP(D31,Szituációk!A:B,2,FALSE)</f>
-        <v>Szerencsésen befejeztük a kurzusok megújításának tervezését, most már neki kezdhetünk a kurzusok megtartásának. Ezelőtt szeretnél visszajelzést kérni az eddigi fejlődésedről és munkádról a fejlesztő csapat többi tagjától?</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2041,7 +1925,7 @@
       <c r="B32" s="1">
         <v>20</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="10" t="s">
         <v>154</v>
       </c>
       <c r="D32" s="1">
@@ -2053,12 +1937,8 @@
       <c r="I32" s="1">
         <v>1</v>
       </c>
-      <c r="M32" s="14" t="str">
-        <f>VLOOKUP(D32,Szituációk!A:B,2,FALSE)</f>
-        <v xml:space="preserve">Oktatói teamülés </v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2066,7 +1946,7 @@
       <c r="B33" s="1">
         <v>20</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="10" t="s">
         <v>155</v>
       </c>
       <c r="D33" s="1">
@@ -2078,12 +1958,8 @@
       <c r="I33" s="1">
         <v>-1</v>
       </c>
-      <c r="M33" s="14" t="str">
-        <f>VLOOKUP(D33,Szituációk!A:B,2,FALSE)</f>
-        <v xml:space="preserve">Oktatói teamülés </v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -2091,7 +1967,7 @@
       <c r="B34" s="1">
         <v>21</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="10" t="s">
         <v>156</v>
       </c>
       <c r="D34" s="1">
@@ -2109,12 +1985,8 @@
       <c r="J34" s="1">
         <v>1</v>
       </c>
-      <c r="M34" s="14" t="str">
-        <f>VLOOKUP(D34,Szituációk!A:B,2,FALSE)</f>
-        <v>Nagyszerű! Összeállt az új pilot kurzusom. De vajon hogy mutassam be a hallgatóknak?</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -2122,7 +1994,7 @@
       <c r="B35" s="1">
         <v>21</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="10" t="s">
         <v>157</v>
       </c>
       <c r="D35" s="1">
@@ -2140,12 +2012,8 @@
       <c r="J35" s="1">
         <v>1</v>
       </c>
-      <c r="M35" s="14" t="str">
-        <f>VLOOKUP(D35,Szituációk!A:B,2,FALSE)</f>
-        <v>Nagyszerű! Összeállt az új pilot kurzusom. De vajon hogy mutassam be a hallgatóknak?</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -2153,7 +2021,7 @@
       <c r="B36" s="1">
         <v>21</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="10" t="s">
         <v>158</v>
       </c>
       <c r="D36" s="1">
@@ -2162,12 +2030,8 @@
       <c r="E36" s="1">
         <v>-1</v>
       </c>
-      <c r="M36" s="14" t="str">
-        <f>VLOOKUP(D36,Szituációk!A:B,2,FALSE)</f>
-        <v>Nagyszerű! Összeállt az új pilot kurzusom. De vajon hogy mutassam be a hallgatóknak?</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -2175,7 +2039,7 @@
       <c r="B37" s="1">
         <v>21</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="10" t="s">
         <v>159</v>
       </c>
       <c r="D37" s="1">
@@ -2184,12 +2048,8 @@
       <c r="E37" s="1">
         <v>-1</v>
       </c>
-      <c r="M37" s="14" t="str">
-        <f>VLOOKUP(D37,Szituációk!A:B,2,FALSE)</f>
-        <v xml:space="preserve">Oktatói teamülés </v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -2197,7 +2057,7 @@
       <c r="B38" s="1">
         <v>22</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="10" t="s">
         <v>160</v>
       </c>
       <c r="D38" s="1">
@@ -2215,12 +2075,8 @@
       <c r="K38" s="1">
         <v>2</v>
       </c>
-      <c r="M38" s="14" t="str">
-        <f>VLOOKUP(D38,Szituációk!A:B,2,FALSE)</f>
-        <v>Teamülés</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -2228,7 +2084,7 @@
       <c r="B39" s="1">
         <v>22</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="10" t="s">
         <v>161</v>
       </c>
       <c r="D39" s="1">
@@ -2249,12 +2105,8 @@
       <c r="K39" s="1">
         <v>4</v>
       </c>
-      <c r="M39" s="14" t="str">
-        <f>VLOOKUP(D39,Szituációk!A:B,2,FALSE)</f>
-        <v>Teamülés</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -2262,7 +2114,7 @@
       <c r="B40" s="1">
         <v>22</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="10" t="s">
         <v>162</v>
       </c>
       <c r="D40" s="1">
@@ -2280,12 +2132,8 @@
       <c r="K40" s="1">
         <v>3</v>
       </c>
-      <c r="M40" s="14" t="str">
-        <f>VLOOKUP(D40,Szituációk!A:B,2,FALSE)</f>
-        <v>Teamülés</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2293,7 +2141,7 @@
       <c r="B41" s="1">
         <v>22</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="10" t="s">
         <v>163</v>
       </c>
       <c r="D41" s="1">
@@ -2302,12 +2150,8 @@
       <c r="E41" s="1">
         <v>-1</v>
       </c>
-      <c r="M41" s="14" t="str">
-        <f>VLOOKUP(D41,Szituációk!A:B,2,FALSE)</f>
-        <v>Nagyszerű! Összeállt az új pilot kurzusom. De vajon hogy mutassam be a hallgatóknak?</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2315,7 +2159,7 @@
       <c r="B42" s="1">
         <v>23</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C42" s="10" t="s">
         <v>164</v>
       </c>
       <c r="D42" s="1">
@@ -2327,12 +2171,8 @@
       <c r="F42" s="1">
         <v>1</v>
       </c>
-      <c r="M42" s="14" t="str">
-        <f>VLOOKUP(D42,Szituációk!A:B,2,FALSE)</f>
-        <v>Mit teszel?</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2340,7 +2180,7 @@
       <c r="B43" s="1">
         <v>23</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C43" s="10" t="s">
         <v>165</v>
       </c>
       <c r="D43" s="1">
@@ -2352,12 +2192,8 @@
       <c r="F43" s="1">
         <v>1</v>
       </c>
-      <c r="M43" s="14" t="str">
-        <f>VLOOKUP(D43,Szituációk!A:B,2,FALSE)</f>
-        <v>Mit teszel?</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2365,7 +2201,7 @@
       <c r="B44" s="1">
         <v>23</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C44" s="10" t="s">
         <v>166</v>
       </c>
       <c r="D44" s="1">
@@ -2377,12 +2213,8 @@
       <c r="F44" s="1">
         <v>1</v>
       </c>
-      <c r="M44" s="14" t="str">
-        <f>VLOOKUP(D44,Szituációk!A:B,2,FALSE)</f>
-        <v>Mit teszel?</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -2390,7 +2222,7 @@
       <c r="B45" s="1">
         <v>23</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="10" t="s">
         <v>167</v>
       </c>
       <c r="D45" s="1">
@@ -2402,12 +2234,8 @@
       <c r="F45" s="1">
         <v>1</v>
       </c>
-      <c r="M45" s="14" t="str">
-        <f>VLOOKUP(D45,Szituációk!A:B,2,FALSE)</f>
-        <v>Mit teszel?</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -2415,7 +2243,7 @@
       <c r="B46" s="1">
         <v>23</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C46" s="10" t="s">
         <v>168</v>
       </c>
       <c r="D46" s="1">
@@ -2427,12 +2255,8 @@
       <c r="F46" s="1">
         <v>1</v>
       </c>
-      <c r="M46" s="14" t="str">
-        <f>VLOOKUP(D46,Szituációk!A:B,2,FALSE)</f>
-        <v>Mit teszel?</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -2440,7 +2264,7 @@
       <c r="B47" s="1">
         <v>23</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C47" s="10" t="s">
         <v>169</v>
       </c>
       <c r="D47" s="1">
@@ -2452,12 +2276,8 @@
       <c r="F47" s="1">
         <v>1</v>
       </c>
-      <c r="M47" s="14" t="str">
-        <f>VLOOKUP(D47,Szituációk!A:B,2,FALSE)</f>
-        <v>Mit teszel?</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -2465,7 +2285,7 @@
       <c r="B48" s="1">
         <v>23</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C48" s="10" t="s">
         <v>170</v>
       </c>
       <c r="D48" s="1">
@@ -2474,20 +2294,16 @@
       <c r="E48" s="1">
         <v>-5</v>
       </c>
-      <c r="M48" s="14" t="str">
-        <f>VLOOKUP(D48,Szituációk!A:B,2,FALSE)</f>
-        <v>Teamülés</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B49" s="10">
+      <c r="B49" s="7">
         <v>24</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C49" s="10" t="s">
         <v>171</v>
       </c>
       <c r="D49" s="1">
@@ -2502,20 +2318,16 @@
       <c r="J49" s="1">
         <v>1</v>
       </c>
-      <c r="M49" s="14" t="str">
-        <f>VLOOKUP(D49,Szituációk!A:B,2,FALSE)</f>
-        <v>Működik az órám!</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B50" s="10">
+      <c r="B50" s="7">
         <v>24</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C50" s="10" t="s">
         <v>172</v>
       </c>
       <c r="D50" s="1">
@@ -2530,20 +2342,16 @@
       <c r="G50" s="1">
         <v>1</v>
       </c>
-      <c r="M50" s="14" t="str">
-        <f>VLOOKUP(D50,Szituációk!A:B,2,FALSE)</f>
-        <v>Első nekifutásra ezeket a tanácsokat találtad a szakirodalomban (1/7)</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B51" s="10">
+      <c r="B51" s="7">
         <v>24</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C51" s="10" t="s">
         <v>173</v>
       </c>
       <c r="D51" s="1">
@@ -2552,20 +2360,16 @@
       <c r="E51" s="1">
         <v>-1</v>
       </c>
-      <c r="M51" s="14" t="str">
-        <f>VLOOKUP(D51,Szituációk!A:B,2,FALSE)</f>
-        <v>Óralátogatás kollégánál</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B52" s="10">
+      <c r="B52" s="7">
         <v>24</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C52" s="10" t="s">
         <v>174</v>
       </c>
       <c r="D52" s="1">
@@ -2574,20 +2378,16 @@
       <c r="E52" s="1">
         <v>-1</v>
       </c>
-      <c r="M52" s="14" t="str">
-        <f>VLOOKUP(D52,Szituációk!A:B,2,FALSE)</f>
-        <v xml:space="preserve">Kolléga óralátogatása nálam </v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B53" s="10">
+      <c r="B53" s="7">
         <v>24</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="C53" s="10" t="s">
         <v>175</v>
       </c>
       <c r="D53" s="1">
@@ -2596,12 +2396,8 @@
       <c r="E53" s="1">
         <v>-5</v>
       </c>
-      <c r="M53" s="14" t="str">
-        <f>VLOOKUP(D53,Szituációk!A:B,2,FALSE)</f>
-        <v>Mit teszel?</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -2609,7 +2405,7 @@
       <c r="B54" s="1">
         <v>25</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="C54" s="10" t="s">
         <v>178</v>
       </c>
       <c r="D54" s="1">
@@ -2624,12 +2420,8 @@
       <c r="G54" s="1">
         <v>1</v>
       </c>
-      <c r="M54" s="14" t="str">
-        <f>VLOOKUP(D54,Szituációk!A:B,2,FALSE)</f>
-        <v>Óralátogatás kollégánál</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -2637,7 +2429,7 @@
       <c r="B55" s="1">
         <v>25</v>
       </c>
-      <c r="C55" s="13" t="s">
+      <c r="C55" s="10" t="s">
         <v>177</v>
       </c>
       <c r="D55" s="1">
@@ -2655,12 +2447,8 @@
       <c r="I55" s="1">
         <v>1</v>
       </c>
-      <c r="M55" s="14" t="str">
-        <f>VLOOKUP(D55,Szituációk!A:B,2,FALSE)</f>
-        <v>Óralátogatás kollégánál</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -2668,7 +2456,7 @@
       <c r="B56" s="1">
         <v>25</v>
       </c>
-      <c r="C56" s="13" t="s">
+      <c r="C56" s="10" t="s">
         <v>176</v>
       </c>
       <c r="D56" s="1">
@@ -2677,12 +2465,8 @@
       <c r="E56" s="1">
         <v>-5</v>
       </c>
-      <c r="M56" s="14" t="str">
-        <f>VLOOKUP(D56,Szituációk!A:B,2,FALSE)</f>
-        <v>Óralátogatás kollégánál</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -2690,7 +2474,7 @@
       <c r="B57" s="1">
         <v>28</v>
       </c>
-      <c r="C57" s="13" t="s">
+      <c r="C57" s="10" t="s">
         <v>181</v>
       </c>
       <c r="D57" s="1">
@@ -2705,12 +2489,8 @@
       <c r="G57" s="1">
         <v>1</v>
       </c>
-      <c r="M57" s="14" t="str">
-        <f>VLOOKUP(D57,Szituációk!A:B,2,FALSE)</f>
-        <v xml:space="preserve">Kolléga óralátogatása nálam </v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -2718,7 +2498,7 @@
       <c r="B58" s="1">
         <v>28</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="C58" s="10" t="s">
         <v>180</v>
       </c>
       <c r="D58" s="1">
@@ -2736,12 +2516,8 @@
       <c r="I58" s="1">
         <v>1</v>
       </c>
-      <c r="M58" s="14" t="str">
-        <f>VLOOKUP(D58,Szituációk!A:B,2,FALSE)</f>
-        <v xml:space="preserve">Kolléga óralátogatása nálam </v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -2749,7 +2525,7 @@
       <c r="B59" s="1">
         <v>28</v>
       </c>
-      <c r="C59" s="13" t="s">
+      <c r="C59" s="10" t="s">
         <v>179</v>
       </c>
       <c r="D59" s="1">
@@ -2758,12 +2534,8 @@
       <c r="E59" s="1">
         <v>-5</v>
       </c>
-      <c r="M59" s="14" t="str">
-        <f>VLOOKUP(D59,Szituációk!A:B,2,FALSE)</f>
-        <v xml:space="preserve">Kolléga óralátogatása nálam </v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -2771,7 +2543,7 @@
       <c r="B60" s="1">
         <v>38</v>
       </c>
-      <c r="C60" s="13" t="s">
+      <c r="C60" s="10" t="s">
         <v>182</v>
       </c>
       <c r="D60" s="1">
@@ -2786,12 +2558,8 @@
       <c r="I60" s="1">
         <v>1</v>
       </c>
-      <c r="M60" s="14" t="str">
-        <f>VLOOKUP(D60,Szituációk!A:B,2,FALSE)</f>
-        <v>Működik az órám!</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -2799,7 +2567,7 @@
       <c r="B61" s="1">
         <v>38</v>
       </c>
-      <c r="C61" s="13" t="s">
+      <c r="C61" s="10" t="s">
         <v>173</v>
       </c>
       <c r="D61" s="1">
@@ -2817,12 +2585,8 @@
       <c r="I61" s="1">
         <v>1</v>
       </c>
-      <c r="M61" s="14" t="str">
-        <f>VLOOKUP(D61,Szituációk!A:B,2,FALSE)</f>
-        <v>Óralátogatás kollégánál</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -2830,7 +2594,7 @@
       <c r="B62" s="1">
         <v>38</v>
       </c>
-      <c r="C62" s="13" t="s">
+      <c r="C62" s="10" t="s">
         <v>174</v>
       </c>
       <c r="D62" s="1">
@@ -2848,12 +2612,8 @@
       <c r="I62" s="1">
         <v>1</v>
       </c>
-      <c r="M62" s="14" t="str">
-        <f>VLOOKUP(D62,Szituációk!A:B,2,FALSE)</f>
-        <v xml:space="preserve">Kolléga óralátogatása nálam </v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -2861,7 +2621,7 @@
       <c r="B63" s="1">
         <v>40</v>
       </c>
-      <c r="C63" s="13" t="s">
+      <c r="C63" s="10" t="s">
         <v>183</v>
       </c>
       <c r="D63" s="1">
@@ -2885,12 +2645,8 @@
       <c r="K63" s="1">
         <v>6</v>
       </c>
-      <c r="M63" s="14" t="str">
-        <f>VLOOKUP(D63,Szituációk!A:B,2,FALSE)</f>
-        <v>A beavatkozásod nyomán elmúlt a hallgatók bizonytalansága, ügyesen dolgoznak a kurzusodban. Mitévő leszel?</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -2898,7 +2654,7 @@
       <c r="B64" s="1">
         <v>40</v>
       </c>
-      <c r="C64" s="13" t="s">
+      <c r="C64" s="10" t="s">
         <v>184</v>
       </c>
       <c r="D64" s="1">
@@ -2913,10 +2669,6 @@
       <c r="K64" s="1">
         <v>1</v>
       </c>
-      <c r="M64" s="14" t="str">
-        <f>VLOOKUP(D64,Szituációk!A:B,2,FALSE)</f>
-        <v>A beavatkozásod nyomán elmúlt a hallgatók bizonytalansága, ügyesen dolgoznak a kurzusodban. Mitévő leszel?</v>
-      </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
@@ -2926,7 +2678,7 @@
       <c r="B65" s="1">
         <v>40</v>
       </c>
-      <c r="C65" s="13" t="s">
+      <c r="C65" s="10" t="s">
         <v>185</v>
       </c>
       <c r="D65" s="1">
@@ -2947,10 +2699,6 @@
       <c r="K65" s="1">
         <v>3</v>
       </c>
-      <c r="M65" s="14" t="str">
-        <f>VLOOKUP(D65,Szituációk!A:B,2,FALSE)</f>
-        <v>A beavatkozásod nyomán elmúlt a hallgatók bizonytalansága, ügyesen dolgoznak a kurzusodban. Mitévő leszel?</v>
-      </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
@@ -2960,7 +2708,7 @@
       <c r="B66" s="1">
         <v>40</v>
       </c>
-      <c r="C66" s="13" t="s">
+      <c r="C66" s="10" t="s">
         <v>186</v>
       </c>
       <c r="D66" s="1">
@@ -2980,10 +2728,6 @@
       </c>
       <c r="K66" s="1">
         <v>4</v>
-      </c>
-      <c r="M66" s="14" t="str">
-        <f>VLOOKUP(D66,Szituációk!A:B,2,FALSE)</f>
-        <v>A beavatkozásod nyomán elmúlt a hallgatók bizonytalansága, ügyesen dolgoznak a kurzusodban. Mitévő leszel?</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
@@ -2994,7 +2738,7 @@
       <c r="B67" s="1">
         <v>40</v>
       </c>
-      <c r="C67" s="13" t="s">
+      <c r="C67" s="10" t="s">
         <v>187</v>
       </c>
       <c r="D67" s="1">
@@ -3011,10 +2755,6 @@
       </c>
       <c r="K67" s="1">
         <v>1</v>
-      </c>
-      <c r="M67" s="14" t="str">
-        <f>VLOOKUP(D67,Szituációk!A:B,2,FALSE)</f>
-        <v>A beavatkozásod nyomán elmúlt a hallgatók bizonytalansága, ügyesen dolgoznak a kurzusodban. Mitévő leszel?</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
@@ -3025,7 +2765,7 @@
       <c r="B68" s="1">
         <v>41</v>
       </c>
-      <c r="C68" s="13" t="s">
+      <c r="C68" s="10" t="s">
         <v>188</v>
       </c>
       <c r="D68" s="1">
@@ -3045,10 +2785,6 @@
       </c>
       <c r="K68" s="1">
         <v>6</v>
-      </c>
-      <c r="M68" s="14" t="str">
-        <f>VLOOKUP(D68,Szituációk!A:B,2,FALSE)</f>
-        <v>Fontos, hogy a jó dolgokra is visszajelezzek, ne csak akkor halljanak felőlem, amikor gond van!</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -3059,7 +2795,7 @@
       <c r="B69" s="1">
         <v>41</v>
       </c>
-      <c r="C69" s="13" t="s">
+      <c r="C69" s="10" t="s">
         <v>189</v>
       </c>
       <c r="D69" s="1">
@@ -3076,10 +2812,6 @@
       </c>
       <c r="K69" s="1">
         <v>4</v>
-      </c>
-      <c r="M69" s="14" t="str">
-        <f>VLOOKUP(D69,Szituációk!A:B,2,FALSE)</f>
-        <v>Fontos, hogy a jó dolgokra is visszajelezzek, ne csak akkor halljanak felőlem, amikor gond van!</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
@@ -3090,7 +2822,7 @@
       <c r="B70" s="1">
         <v>41</v>
       </c>
-      <c r="C70" s="13" t="s">
+      <c r="C70" s="10" t="s">
         <v>190</v>
       </c>
       <c r="D70" s="1">
@@ -3104,10 +2836,6 @@
       </c>
       <c r="K70" s="1">
         <v>1</v>
-      </c>
-      <c r="M70" s="14" t="str">
-        <f>VLOOKUP(D70,Szituációk!A:B,2,FALSE)</f>
-        <v>Fontos, hogy a jó dolgokra is visszajelezzek, ne csak akkor halljanak felőlem, amikor gond van!</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -3118,7 +2846,7 @@
       <c r="B71" s="1">
         <v>41</v>
       </c>
-      <c r="C71" s="13" t="s">
+      <c r="C71" s="10" t="s">
         <v>191</v>
       </c>
       <c r="D71" s="1">
@@ -3126,10 +2854,6 @@
       </c>
       <c r="E71" s="1">
         <v>-5</v>
-      </c>
-      <c r="M71" s="14" t="str">
-        <f>VLOOKUP(D71,Szituációk!A:B,2,FALSE)</f>
-        <v>A beavatkozásod nyomán elmúlt a hallgatók bizonytalansága, ügyesen dolgoznak a kurzusodban. Mitévő leszel?</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -3140,7 +2864,7 @@
       <c r="B72" s="1">
         <v>43</v>
       </c>
-      <c r="C72" s="13" t="s">
+      <c r="C72" s="10" t="s">
         <v>192</v>
       </c>
       <c r="D72" s="1">
@@ -3148,10 +2872,6 @@
       </c>
       <c r="E72" s="1">
         <v>-1</v>
-      </c>
-      <c r="M72" s="14" t="str">
-        <f>VLOOKUP(D72,Szituációk!A:B,2,FALSE)</f>
-        <v>Oktatói értekezlet: kiderül, hogy valaki nem csinált semmit.</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
@@ -3162,7 +2882,7 @@
       <c r="B73" s="1">
         <v>43</v>
       </c>
-      <c r="C73" s="13" t="s">
+      <c r="C73" s="10" t="s">
         <v>193</v>
       </c>
       <c r="D73" s="1">
@@ -3179,10 +2899,6 @@
       </c>
       <c r="I73" s="1">
         <v>1</v>
-      </c>
-      <c r="M73" s="14" t="str">
-        <f>VLOOKUP(D73,Szituációk!A:B,2,FALSE)</f>
-        <v>Oktatói értekezlet: kiderül, hogy valaki nem csinált semmit.</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
@@ -3193,7 +2909,7 @@
       <c r="B74" s="1">
         <v>43</v>
       </c>
-      <c r="C74" s="13" t="s">
+      <c r="C74" s="10" t="s">
         <v>194</v>
       </c>
       <c r="D74" s="1">
@@ -3216,10 +2932,6 @@
       </c>
       <c r="J74" s="1">
         <v>1</v>
-      </c>
-      <c r="M74" s="14" t="str">
-        <f>VLOOKUP(D74,Szituációk!A:B,2,FALSE)</f>
-        <v>Oktatói értekezlet: kiderül, hogy valaki nem csinált semmit.</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
@@ -3230,7 +2942,7 @@
       <c r="B75" s="1">
         <v>46</v>
       </c>
-      <c r="C75" s="13" t="s">
+      <c r="C75" s="10" t="s">
         <v>154</v>
       </c>
       <c r="D75" s="1">
@@ -3245,38 +2957,31 @@
       <c r="J75" s="1">
         <v>1</v>
       </c>
-      <c r="M75" s="14" t="str">
-        <f>VLOOKUP(D75,Szituációk!A:B,2,FALSE)</f>
-        <v>Feszültség van a teamben a passzív kolléga hozzáállása miatt. Mit teszel?</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="11">
+    </row>
+    <row r="76" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="8">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="B76" s="11">
+      <c r="B76" s="8">
         <v>46</v>
       </c>
-      <c r="C76" s="15" t="s">
+      <c r="C76" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="D76" s="11">
+      <c r="D76" s="8">
         <v>48</v>
       </c>
-      <c r="E76" s="11">
-        <v>-1</v>
-      </c>
-      <c r="F76" s="11"/>
-      <c r="G76" s="11"/>
-      <c r="H76" s="11"/>
-      <c r="I76" s="11"/>
-      <c r="J76" s="11"/>
-      <c r="K76" s="11"/>
-      <c r="M76" s="16" t="str">
-        <f>VLOOKUP(D76,Szituációk!A:B,2,FALSE)</f>
-        <v xml:space="preserve">E-mailt kaptok: “Egyetemünkre külföldi delegáció érkezik, fogadásuk az alábbi helyszíneket érinti...ezeket az alábbi időpontban kérjük szabadon hagyni...” </v>
-      </c>
+      <c r="E76" s="8">
+        <v>-1</v>
+      </c>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
+      <c r="J76" s="8"/>
+      <c r="K76" s="8"/>
+      <c r="M76" s="13"/>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
@@ -3286,7 +2991,7 @@
       <c r="B77" s="1">
         <v>47</v>
       </c>
-      <c r="C77" s="13" t="s">
+      <c r="C77" s="10" t="s">
         <v>195</v>
       </c>
       <c r="D77" s="1">
@@ -3297,10 +3002,6 @@
       </c>
       <c r="H77" s="1">
         <v>1</v>
-      </c>
-      <c r="M77" s="14" t="str">
-        <f>VLOOKUP(D77,Szituációk!A:B,2,FALSE)</f>
-        <v xml:space="preserve">E-mailt kaptok: “Egyetemünkre külföldi delegáció érkezik, fogadásuk az alábbi helyszíneket érinti...ezeket az alábbi időpontban kérjük szabadon hagyni...” </v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
@@ -3311,7 +3012,7 @@
       <c r="B78" s="1">
         <v>47</v>
       </c>
-      <c r="C78" s="13" t="s">
+      <c r="C78" s="10" t="s">
         <v>196</v>
       </c>
       <c r="D78" s="1">
@@ -3331,10 +3032,6 @@
       </c>
       <c r="J78" s="1">
         <v>1</v>
-      </c>
-      <c r="M78" s="14" t="str">
-        <f>VLOOKUP(D78,Szituációk!A:B,2,FALSE)</f>
-        <v xml:space="preserve">E-mailt kaptok: “Egyetemünkre külföldi delegáció érkezik, fogadásuk az alábbi helyszíneket érinti...ezeket az alábbi időpontban kérjük szabadon hagyni...” </v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
@@ -3345,15 +3042,11 @@
       <c r="B79" s="1">
         <v>47</v>
       </c>
-      <c r="C79" s="13" t="s">
+      <c r="C79" s="10" t="s">
         <v>197</v>
       </c>
       <c r="D79" s="1">
         <v>48</v>
-      </c>
-      <c r="M79" s="14" t="str">
-        <f>VLOOKUP(D79,Szituációk!A:B,2,FALSE)</f>
-        <v xml:space="preserve">E-mailt kaptok: “Egyetemünkre külföldi delegáció érkezik, fogadásuk az alábbi helyszíneket érinti...ezeket az alábbi időpontban kérjük szabadon hagyni...” </v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
@@ -3364,18 +3057,14 @@
       <c r="B80" s="1">
         <v>47</v>
       </c>
-      <c r="C80" s="13" t="s">
+      <c r="C80" s="10" t="s">
         <v>198</v>
       </c>
       <c r="D80" s="1">
         <v>48</v>
       </c>
-      <c r="M80" s="14" t="str">
-        <f>VLOOKUP(D80,Szituációk!A:B,2,FALSE)</f>
-        <v xml:space="preserve">E-mailt kaptok: “Egyetemünkre külföldi delegáció érkezik, fogadásuk az alábbi helyszíneket érinti...ezeket az alábbi időpontban kérjük szabadon hagyni...” </v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -3383,7 +3072,7 @@
       <c r="B81" s="1">
         <v>48</v>
       </c>
-      <c r="C81" s="13" t="s">
+      <c r="C81" s="10" t="s">
         <v>199</v>
       </c>
       <c r="D81" s="1">
@@ -3410,12 +3099,8 @@
       <c r="K81" s="1">
         <v>4</v>
       </c>
-      <c r="M81" s="14" t="str">
-        <f>VLOOKUP(D81,Szituációk!A:B,2,FALSE)</f>
-        <v>Hogyan adsz visszajelzést?</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -3423,7 +3108,7 @@
       <c r="B82" s="1">
         <v>48</v>
       </c>
-      <c r="C82" s="13" t="s">
+      <c r="C82" s="10" t="s">
         <v>200</v>
       </c>
       <c r="D82" s="1">
@@ -3441,12 +3126,8 @@
       <c r="K82" s="1">
         <v>3</v>
       </c>
-      <c r="M82" s="14" t="str">
-        <f>VLOOKUP(D82,Szituációk!A:B,2,FALSE)</f>
-        <v>Hogyan adsz visszajelzést?</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -3454,7 +3135,7 @@
       <c r="B83" s="1">
         <v>48</v>
       </c>
-      <c r="C83" s="13" t="s">
+      <c r="C83" s="10" t="s">
         <v>201</v>
       </c>
       <c r="D83" s="1">
@@ -3472,12 +3153,8 @@
       <c r="K83" s="1">
         <v>1</v>
       </c>
-      <c r="M83" s="14" t="str">
-        <f>VLOOKUP(D83,Szituációk!A:B,2,FALSE)</f>
-        <v>Hogyan adsz visszajelzést?</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -3485,7 +3162,7 @@
       <c r="B84" s="1">
         <v>48</v>
       </c>
-      <c r="C84" s="13" t="s">
+      <c r="C84" s="10" t="s">
         <v>202</v>
       </c>
       <c r="D84" s="1">
@@ -3497,12 +3174,8 @@
       <c r="K84" s="1">
         <v>-2</v>
       </c>
-      <c r="M84" s="14" t="str">
-        <f>VLOOKUP(D84,Szituációk!A:B,2,FALSE)</f>
-        <v>Hogyan adsz visszajelzést?</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -3510,7 +3183,7 @@
       <c r="B85" s="1">
         <v>49</v>
       </c>
-      <c r="C85" s="13" t="s">
+      <c r="C85" s="10" t="s">
         <v>203</v>
       </c>
       <c r="D85" s="1">
@@ -3528,12 +3201,8 @@
       <c r="K85" s="1">
         <v>1</v>
       </c>
-      <c r="M85" s="14" t="str">
-        <f>VLOOKUP(D85,Szituációk!A:B,2,FALSE)</f>
-        <v>Jó napot! Elégedett a csoportunkkal? Ön szerint jól sikerültek az utolsó munkáink, beadandóink? Beszélünk majd arról is, hogy az új, most először kipróbált feladatok hogyan sikerültek? Nekem lenne egy-két megjegyzésem. Szerintem nagyon jó volt a félév, de azért jó lenne hallani a tanárunk véleményét is!</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -3541,7 +3210,7 @@
       <c r="B86" s="1">
         <v>49</v>
       </c>
-      <c r="C86" s="13" t="s">
+      <c r="C86" s="10" t="s">
         <v>204</v>
       </c>
       <c r="D86" s="1">
@@ -3562,12 +3231,8 @@
       <c r="K86" s="1">
         <v>1</v>
       </c>
-      <c r="M86" s="14" t="str">
-        <f>VLOOKUP(D86,Szituációk!A:B,2,FALSE)</f>
-        <v>Osztálytermi helyzet: visszajelzés</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -3575,7 +3240,7 @@
       <c r="B87" s="1">
         <v>49</v>
       </c>
-      <c r="C87" s="13" t="s">
+      <c r="C87" s="10" t="s">
         <v>205</v>
       </c>
       <c r="D87" s="1">
@@ -3584,12 +3249,8 @@
       <c r="E87" s="1">
         <v>-3</v>
       </c>
-      <c r="M87" s="14" t="str">
-        <f>VLOOKUP(D87,Szituációk!A:B,2,FALSE)</f>
-        <v xml:space="preserve">Keresek irodalmat/kollégát keresek. </v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -3597,7 +3258,7 @@
       <c r="B88" s="1">
         <v>50</v>
       </c>
-      <c r="C88" s="13" t="s">
+      <c r="C88" s="10" t="s">
         <v>206</v>
       </c>
       <c r="D88" s="1">
@@ -3615,12 +3276,8 @@
       <c r="K88" s="1">
         <v>2</v>
       </c>
-      <c r="M88" s="14" t="str">
-        <f>VLOOKUP(D88,Szituációk!A:B,2,FALSE)</f>
-        <v>Megint összeül az innovációs projektcsapatunk, hogy értékeljük a pilot eddigi tapasztalatait. Először egy körkérdéssel kezdünk: ki hogyan látja fejlődését az oktatási innovációk kapcsán. Te mennyire vagy elégedett?</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -3628,7 +3285,7 @@
       <c r="B89" s="1">
         <v>50</v>
       </c>
-      <c r="C89" s="13" t="s">
+      <c r="C89" s="10" t="s">
         <v>207</v>
       </c>
       <c r="D89" s="1">
@@ -3640,12 +3297,8 @@
       <c r="K89" s="1">
         <v>-2</v>
       </c>
-      <c r="M89" s="14" t="str">
-        <f>VLOOKUP(D89,Szituációk!A:B,2,FALSE)</f>
-        <v>Megint összeül az innovációs projektcsapatunk, hogy értékeljük a pilot eddigi tapasztalatait. Először egy körkérdéssel kezdünk: ki hogyan látja fejlődését az oktatási innovációk kapcsán. Te mennyire vagy elégedett?</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -3653,7 +3306,7 @@
       <c r="B90" s="1">
         <v>52</v>
       </c>
-      <c r="C90" s="13" t="s">
+      <c r="C90" s="10" t="s">
         <v>234</v>
       </c>
       <c r="D90" s="1">
@@ -3671,12 +3324,8 @@
       <c r="K90" s="1">
         <v>2</v>
       </c>
-      <c r="M90" s="14" t="str">
-        <f>VLOOKUP(D90,Szituációk!A:B,2,FALSE)</f>
-        <v>Megint összeül az innovációs projektcsapatunk, hogy értékeljük a pilot eddigi tapasztalatait. Először egy körkérdéssel kezdünk: ki hogyan látja fejlődését az oktatási innovációk kapcsán. Te mennyire vagy elégedett?</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -3684,7 +3333,7 @@
       <c r="B91" s="1">
         <v>52</v>
       </c>
-      <c r="C91" s="13" t="s">
+      <c r="C91" s="10" t="s">
         <v>208</v>
       </c>
       <c r="D91" s="1">
@@ -3699,12 +3348,8 @@
       <c r="K91" s="1">
         <v>3</v>
       </c>
-      <c r="M91" s="14" t="str">
-        <f>VLOOKUP(D91,Szituációk!A:B,2,FALSE)</f>
-        <v>Megint összeül az innovációs projektcsapatunk, hogy értékeljük a pilot eddigi tapasztalatait. Először egy körkérdéssel kezdünk: ki hogyan látja fejlődését az oktatási innovációk kapcsán. Te mennyire vagy elégedett?</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -3712,7 +3357,7 @@
       <c r="B92" s="1">
         <v>52</v>
       </c>
-      <c r="C92" s="13" t="s">
+      <c r="C92" s="10" t="s">
         <v>209</v>
       </c>
       <c r="D92" s="1">
@@ -3736,12 +3381,8 @@
       <c r="K92" s="1">
         <v>5</v>
       </c>
-      <c r="M92" s="14" t="str">
-        <f>VLOOKUP(D92,Szituációk!A:B,2,FALSE)</f>
-        <v>Osztálytermi helyzet: visszajelzés</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -3749,7 +3390,7 @@
       <c r="B93" s="1">
         <v>53</v>
       </c>
-      <c r="C93" s="13" t="s">
+      <c r="C93" s="10" t="s">
         <v>210</v>
       </c>
       <c r="D93" s="1">
@@ -3773,12 +3414,8 @@
       <c r="K93" s="1">
         <v>5</v>
       </c>
-      <c r="M93" s="14" t="str">
-        <f>VLOOKUP(D93,Szituációk!A:B,2,FALSE)</f>
-        <v>Megint összeül az innovációs projektcsapatunk, hogy értékeljük a pilot eddigi tapasztalatait. Először egy körkérdéssel kezdünk: ki hogyan látja fejlődését az oktatási innovációk kapcsán. Te mennyire vagy elégedett?</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -3786,7 +3423,7 @@
       <c r="B94" s="1">
         <v>53</v>
       </c>
-      <c r="C94" s="13" t="s">
+      <c r="C94" s="10" t="s">
         <v>211</v>
       </c>
       <c r="D94" s="1">
@@ -3810,12 +3447,8 @@
       <c r="K94" s="1">
         <v>3</v>
       </c>
-      <c r="M94" s="14" t="str">
-        <f>VLOOKUP(D94,Szituációk!A:B,2,FALSE)</f>
-        <v>Megint összeül az innovációs projektcsapatunk, hogy értékeljük a pilot eddigi tapasztalatait. Először egy körkérdéssel kezdünk: ki hogyan látja fejlődését az oktatási innovációk kapcsán. Te mennyire vagy elégedett?</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -3823,7 +3456,7 @@
       <c r="B95" s="1">
         <v>53</v>
       </c>
-      <c r="C95" s="13" t="s">
+      <c r="C95" s="10" t="s">
         <v>212</v>
       </c>
       <c r="D95" s="1">
@@ -3841,12 +3474,8 @@
       <c r="K95" s="1">
         <v>2</v>
       </c>
-      <c r="M95" s="14" t="str">
-        <f>VLOOKUP(D95,Szituációk!A:B,2,FALSE)</f>
-        <v>Megint összeül az innovációs projektcsapatunk, hogy értékeljük a pilot eddigi tapasztalatait. Először egy körkérdéssel kezdünk: ki hogyan látja fejlődését az oktatási innovációk kapcsán. Te mennyire vagy elégedett?</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -3854,7 +3483,7 @@
       <c r="B96" s="1">
         <v>54</v>
       </c>
-      <c r="C96" s="13" t="s">
+      <c r="C96" s="10" t="s">
         <v>213</v>
       </c>
       <c r="D96" s="1">
@@ -3866,12 +3495,8 @@
       <c r="K96" s="1">
         <v>1</v>
       </c>
-      <c r="M96" s="14" t="str">
-        <f>VLOOKUP(D96,Szituációk!A:B,2,FALSE)</f>
-        <v>Teamülés</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -3879,7 +3504,7 @@
       <c r="B97" s="1">
         <v>54</v>
       </c>
-      <c r="C97" s="13" t="s">
+      <c r="C97" s="10" t="s">
         <v>214</v>
       </c>
       <c r="D97" s="1">
@@ -3897,12 +3522,8 @@
       <c r="K97" s="1">
         <v>2</v>
       </c>
-      <c r="M97" s="14" t="str">
-        <f>VLOOKUP(D97,Szituációk!A:B,2,FALSE)</f>
-        <v>Miben szeretnél fejlődni?</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -3910,7 +3531,7 @@
       <c r="B98" s="1">
         <v>54</v>
       </c>
-      <c r="C98" s="13" t="s">
+      <c r="C98" s="10" t="s">
         <v>215</v>
       </c>
       <c r="D98" s="1">
@@ -3928,12 +3549,8 @@
       <c r="K98" s="1">
         <v>1</v>
       </c>
-      <c r="M98" s="14" t="str">
-        <f>VLOOKUP(D98,Szituációk!A:B,2,FALSE)</f>
-        <v>Miben szeretnél fejlődni?</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -3941,7 +3558,7 @@
       <c r="B99" s="1">
         <v>55</v>
       </c>
-      <c r="C99" s="13" t="s">
+      <c r="C99" s="10" t="s">
         <v>216</v>
       </c>
       <c r="D99" s="1">
@@ -3953,12 +3570,8 @@
       <c r="F99" s="1">
         <v>1</v>
       </c>
-      <c r="M99" s="14" t="str">
-        <f>VLOOKUP(D99,Szituációk!A:B,2,FALSE)</f>
-        <v>Egy kolléga önreflexió kapcsán a következőt javasolja:</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <f t="shared" si="1"/>
         <v>99</v>
@@ -3966,7 +3579,7 @@
       <c r="B100" s="1">
         <v>55</v>
       </c>
-      <c r="C100" s="13" t="s">
+      <c r="C100" s="10" t="s">
         <v>217</v>
       </c>
       <c r="D100" s="1">
@@ -3978,12 +3591,8 @@
       <c r="H100" s="1">
         <v>1</v>
       </c>
-      <c r="M100" s="14" t="str">
-        <f>VLOOKUP(D100,Szituációk!A:B,2,FALSE)</f>
-        <v>Egy kolléga kezdeményezőkésszég kapcsán a következőt javasolja:</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -3991,7 +3600,7 @@
       <c r="B101" s="1">
         <v>55</v>
       </c>
-      <c r="C101" s="13" t="s">
+      <c r="C101" s="10" t="s">
         <v>218</v>
       </c>
       <c r="D101" s="1">
@@ -4003,12 +3612,8 @@
       <c r="J101" s="1">
         <v>1</v>
       </c>
-      <c r="M101" s="14" t="str">
-        <f>VLOOKUP(D101,Szituációk!A:B,2,FALSE)</f>
-        <v>Egy kolléga csapatjáték, együttműködés kapcsán a következőt javasolja:</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <f t="shared" si="1"/>
         <v>101</v>
@@ -4016,7 +3621,7 @@
       <c r="B102" s="1">
         <v>55</v>
       </c>
-      <c r="C102" s="13" t="s">
+      <c r="C102" s="10" t="s">
         <v>219</v>
       </c>
       <c r="D102" s="1">
@@ -4028,12 +3633,8 @@
       <c r="G102" s="1">
         <v>1</v>
       </c>
-      <c r="M102" s="14" t="str">
-        <f>VLOOKUP(D102,Szituációk!A:B,2,FALSE)</f>
-        <v>Egy kolléga pedagógiai felkészültség kapcsán a következőt javasolja:</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <f t="shared" si="1"/>
         <v>102</v>
@@ -4041,7 +3642,7 @@
       <c r="B103" s="1">
         <v>55</v>
       </c>
-      <c r="C103" s="13" t="s">
+      <c r="C103" s="10" t="s">
         <v>220</v>
       </c>
       <c r="D103" s="1">
@@ -4053,12 +3654,8 @@
       <c r="I103" s="1">
         <v>1</v>
       </c>
-      <c r="M103" s="14" t="str">
-        <f>VLOOKUP(D103,Szituációk!A:B,2,FALSE)</f>
-        <v>Egy kolléga kreativitás kapcsán a következőt javasolja:</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <f t="shared" si="1"/>
         <v>103</v>
@@ -4066,7 +3663,7 @@
       <c r="B104" s="1">
         <v>61</v>
       </c>
-      <c r="C104" s="13" t="s">
+      <c r="C104" s="10" t="s">
         <v>221</v>
       </c>
       <c r="D104" s="1">
@@ -4084,12 +3681,8 @@
       <c r="K104" s="1">
         <v>2</v>
       </c>
-      <c r="M104" s="14" t="str">
-        <f>VLOOKUP(D104,Szituációk!A:B,2,FALSE)</f>
-        <v>OMHV statisztikai adatok​</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <f t="shared" si="1"/>
         <v>104</v>
@@ -4097,7 +3690,7 @@
       <c r="B105" s="1">
         <v>61</v>
       </c>
-      <c r="C105" s="13" t="s">
+      <c r="C105" s="10" t="s">
         <v>222</v>
       </c>
       <c r="D105" s="1">
@@ -4118,12 +3711,8 @@
       <c r="K105" s="1">
         <v>2</v>
       </c>
-      <c r="M105" s="14" t="str">
-        <f>VLOOKUP(D105,Szituációk!A:B,2,FALSE)</f>
-        <v>Hallgatói visszajelzések ​</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <f t="shared" si="1"/>
         <v>105</v>
@@ -4131,7 +3720,7 @@
       <c r="B106" s="1">
         <v>61</v>
       </c>
-      <c r="C106" s="13" t="s">
+      <c r="C106" s="10" t="s">
         <v>223</v>
       </c>
       <c r="D106" s="1">
@@ -4149,12 +3738,8 @@
       <c r="K106" s="1">
         <v>4</v>
       </c>
-      <c r="M106" s="14" t="str">
-        <f>VLOOKUP(D106,Szituációk!A:B,2,FALSE)</f>
-        <v>Hallgatói visszajelzések ​</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <f t="shared" si="1"/>
         <v>106</v>
@@ -4162,7 +3747,7 @@
       <c r="B107" s="1">
         <v>66</v>
       </c>
-      <c r="C107" s="13" t="s">
+      <c r="C107" s="10" t="s">
         <v>224</v>
       </c>
       <c r="D107" s="1">
@@ -4183,12 +3768,8 @@
       <c r="K107" s="1">
         <v>4</v>
       </c>
-      <c r="M107" s="14" t="str">
-        <f>VLOOKUP(D107,Szituációk!A:B,2,FALSE)</f>
-        <v xml:space="preserve">A team végül a kis változtatások és a pilot terjesztése mellett döntött. Kinek, miként mutassuk be a fejlesztés eredményeit? </v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <f t="shared" si="1"/>
         <v>107</v>
@@ -4196,7 +3777,7 @@
       <c r="B108" s="1">
         <v>66</v>
       </c>
-      <c r="C108" s="13" t="s">
+      <c r="C108" s="10" t="s">
         <v>225</v>
       </c>
       <c r="D108" s="1">
@@ -4214,12 +3795,8 @@
       <c r="K108" s="1">
         <v>3</v>
       </c>
-      <c r="M108" s="14" t="str">
-        <f>VLOOKUP(D108,Szituációk!A:B,2,FALSE)</f>
-        <v xml:space="preserve">A team végül a kis változtatások és a pilot terjesztése mellett döntött. Kinek, miként mutassuk be a fejlesztés eredményeit? </v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <f t="shared" si="1"/>
         <v>108</v>
@@ -4227,7 +3804,7 @@
       <c r="B109" s="1">
         <v>66</v>
       </c>
-      <c r="C109" s="13" t="s">
+      <c r="C109" s="10" t="s">
         <v>226</v>
       </c>
       <c r="D109" s="1">
@@ -4236,12 +3813,8 @@
       <c r="E109" s="1">
         <v>-1</v>
       </c>
-      <c r="M109" s="14" t="str">
-        <f>VLOOKUP(D109,Szituációk!A:B,2,FALSE)</f>
-        <v xml:space="preserve">A team végül a kis változtatások és a pilot terjesztése mellett döntött. Kinek, miként mutassuk be a fejlesztés eredményeit? </v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <f t="shared" si="1"/>
         <v>109</v>
@@ -4249,7 +3822,7 @@
       <c r="B110" s="1">
         <v>67</v>
       </c>
-      <c r="C110" s="13" t="s">
+      <c r="C110" s="10" t="s">
         <v>227</v>
       </c>
       <c r="D110" s="1">
@@ -4261,12 +3834,8 @@
       <c r="K110" s="1">
         <v>1</v>
       </c>
-      <c r="M110" s="14" t="str">
-        <f>VLOOKUP(D110,Szituációk!A:B,2,FALSE)</f>
-        <v>Eltelt egy év…</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <f t="shared" si="1"/>
         <v>110</v>
@@ -4274,7 +3843,7 @@
       <c r="B111" s="1">
         <v>67</v>
       </c>
-      <c r="C111" s="13" t="s">
+      <c r="C111" s="10" t="s">
         <v>228</v>
       </c>
       <c r="D111" s="1">
@@ -4289,12 +3858,8 @@
       <c r="K111" s="1">
         <v>3</v>
       </c>
-      <c r="M111" s="14" t="str">
-        <f>VLOOKUP(D111,Szituációk!A:B,2,FALSE)</f>
-        <v>Eltelt egy év…</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <f t="shared" si="1"/>
         <v>111</v>
@@ -4302,7 +3867,7 @@
       <c r="B112" s="1">
         <v>67</v>
       </c>
-      <c r="C112" s="13" t="s">
+      <c r="C112" s="10" t="s">
         <v>229</v>
       </c>
       <c r="D112" s="1">
@@ -4314,12 +3879,8 @@
       <c r="K112" s="1">
         <v>2</v>
       </c>
-      <c r="M112" s="14" t="str">
-        <f>VLOOKUP(D112,Szituációk!A:B,2,FALSE)</f>
-        <v>Eltelt egy év…</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <f t="shared" si="1"/>
         <v>112</v>
@@ -4327,7 +3888,7 @@
       <c r="B113" s="1">
         <v>67</v>
       </c>
-      <c r="C113" s="13" t="s">
+      <c r="C113" s="10" t="s">
         <v>233</v>
       </c>
       <c r="D113" s="1">
@@ -4342,12 +3903,8 @@
       <c r="K113" s="1">
         <v>2</v>
       </c>
-      <c r="M113" s="14" t="str">
-        <f>VLOOKUP(D113,Szituációk!A:B,2,FALSE)</f>
-        <v>Eltelt egy év…</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <f t="shared" si="1"/>
         <v>113</v>
@@ -4355,7 +3912,7 @@
       <c r="B114" s="1">
         <v>67</v>
       </c>
-      <c r="C114" s="13" t="s">
+      <c r="C114" s="10" t="s">
         <v>230</v>
       </c>
       <c r="D114" s="1">
@@ -4373,12 +3930,8 @@
       <c r="K114" s="1">
         <v>2</v>
       </c>
-      <c r="M114" s="14" t="str">
-        <f>VLOOKUP(D114,Szituációk!A:B,2,FALSE)</f>
-        <v>Eltelt egy év…</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <f t="shared" si="1"/>
         <v>114</v>
@@ -4386,7 +3939,7 @@
       <c r="B115" s="1">
         <v>67</v>
       </c>
-      <c r="C115" s="13" t="s">
+      <c r="C115" s="10" t="s">
         <v>231</v>
       </c>
       <c r="D115" s="1">
@@ -4404,12 +3957,8 @@
       <c r="K115" s="1">
         <v>3</v>
       </c>
-      <c r="M115" s="14" t="str">
-        <f>VLOOKUP(D115,Szituációk!A:B,2,FALSE)</f>
-        <v>Eltelt egy év…</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <f t="shared" si="1"/>
         <v>115</v>
@@ -4417,7 +3966,7 @@
       <c r="B116" s="1">
         <v>67</v>
       </c>
-      <c r="C116" s="13" t="s">
+      <c r="C116" s="10" t="s">
         <v>232</v>
       </c>
       <c r="D116" s="1">
@@ -4435,14 +3984,11 @@
       <c r="K116" s="1">
         <v>1</v>
       </c>
-      <c r="M116" s="14" t="str">
-        <f>VLOOKUP(D116,Szituációk!A:B,2,FALSE)</f>
-        <v>Eltelt egy év…</v>
-      </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="sXT98EriifcpcOCNWLF3//NLdd/tRU7koFTDfNZJofdW80C1FSQazUmdc4MxE1TjxxijRLZdTIK8Y2d14BxYYg==" saltValue="A+gU2fdOWPddFvmqcIPvhw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$D1="?"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4454,1783 +4000,1779 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09A778E5-FEF8-483F-AED6-8DF6A0AC9FB2}">
   <dimension ref="A1:J69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" customWidth="1"/>
-    <col min="5" max="7" width="7.42578125" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="1"/>
-    <col min="10" max="10" width="9.140625" style="9"/>
+    <col min="1" max="1" width="4.28515625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" style="17" customWidth="1"/>
+    <col min="3" max="3" width="34" style="17" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" style="21" customWidth="1"/>
+    <col min="5" max="7" width="7.42578125" style="17" customWidth="1"/>
+    <col min="8" max="8" width="14" style="17" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="18"/>
+    <col min="10" max="10" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="7"/>
+      <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="18">
         <f>ROW(A1)</f>
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G2" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="E2" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="18">
         <v>2</v>
       </c>
-      <c r="J2" s="8"/>
+      <c r="J2" s="5"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3" s="18">
         <f t="shared" ref="A3:A65" si="0">ROW(A2)</f>
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="E3" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="18">
         <v>3</v>
       </c>
-      <c r="J3" s="8"/>
+      <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="18">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="E4" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="8"/>
+      <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="18">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="E5" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="18">
         <v>3</v>
       </c>
-      <c r="J5" s="8"/>
+      <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6" s="18">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="E6" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="18">
         <v>3</v>
       </c>
-      <c r="J6" s="8"/>
+      <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7" s="18">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="E7" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="8"/>
+      <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="A8" s="18">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="E8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="18">
         <v>11</v>
       </c>
-      <c r="J8" s="8"/>
+      <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="A9" s="18">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F9" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="E9" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="18">
         <v>11</v>
       </c>
-      <c r="J9" s="8"/>
+      <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="A10" s="18">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G10" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="E10" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="18">
         <v>11</v>
       </c>
-      <c r="J10" s="8"/>
+      <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="A11" s="18">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F11" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G11" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="E11" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="18">
         <v>11</v>
       </c>
-      <c r="J11" s="8"/>
+      <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="A12" s="18">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F12" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G12" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="E12" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="8"/>
+      <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="A13" s="18">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F13" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G13" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="E13" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="8"/>
+      <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="A14" s="18">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F14" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G14" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="E14" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="8"/>
+      <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="A15" s="18">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F15" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G15" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="E15" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="8"/>
+      <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="A16" s="18">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F16" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G16" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="E16" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="J16" s="8"/>
+      <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="A17" s="18">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F17" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G17" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="E17" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="8"/>
+      <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="A18" s="18">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F18" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G18" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="E18" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18" s="18">
         <v>18</v>
       </c>
-      <c r="J18" s="8"/>
+      <c r="J18" s="5"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="A19" s="18">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F19" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G19" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="E19" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="8"/>
+      <c r="J19" s="5"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="A20" s="18">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F20" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G20" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="s">
+      <c r="E20" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J20" s="8"/>
+      <c r="J20" s="5"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="A21" s="18">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F21" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G21" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="s">
+      <c r="E21" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="8"/>
+      <c r="J21" s="5"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="A22" s="18">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F22" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G22" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="s">
+      <c r="E22" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="8"/>
+      <c r="J22" s="5"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="A23" s="18">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F23" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G23" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="E23" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="8"/>
+      <c r="J23" s="5"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="A24" s="18">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="E24" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F24" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G24" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" t="s">
+      <c r="E24" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="8"/>
+      <c r="J24" s="5"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="A25" s="18">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="E25" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F25" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G25" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" t="s">
+      <c r="E25" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="8"/>
+      <c r="J25" s="5"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="A26" s="18">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="E26" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F26" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G26" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="s">
+      <c r="E26" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="8"/>
+      <c r="J26" s="5"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+      <c r="A27" s="18">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="E27" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F27" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G27" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" t="s">
+      <c r="E27" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I27" s="18">
         <v>39</v>
       </c>
-      <c r="J27" s="8"/>
+      <c r="J27" s="5"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+      <c r="A28" s="18">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E28" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F28" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G28" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" t="s">
+      <c r="E28" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G28" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I28" s="18">
         <v>39</v>
       </c>
-      <c r="J28" s="8"/>
+      <c r="J28" s="5"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+      <c r="A29" s="18">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="E29" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F29" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G29" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" t="s">
+      <c r="E29" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G29" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="J29" s="8"/>
+      <c r="J29" s="5"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+      <c r="A30" s="18">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E30" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F30" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G30" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" t="s">
+      <c r="E30" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G30" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I30" s="18">
         <v>39</v>
       </c>
-      <c r="J30" s="8"/>
+      <c r="J30" s="5"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+      <c r="A31" s="18">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="E31" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F31" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G31" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="s">
+      <c r="E31" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G31" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I31" s="18">
         <v>39</v>
       </c>
-      <c r="J31" s="8"/>
+      <c r="J31" s="5"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+      <c r="A32" s="18">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E32" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F32" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G32" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="s">
+      <c r="E32" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G32" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I32" s="18">
         <v>32</v>
       </c>
-      <c r="J32" s="8"/>
+      <c r="J32" s="5"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+      <c r="A33" s="18">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="E33" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F33" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G33" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" t="s">
+      <c r="E33" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G33" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I33" s="1">
+      <c r="I33" s="18">
         <v>33</v>
       </c>
-      <c r="J33" s="8"/>
+      <c r="J33" s="5"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+      <c r="A34" s="18">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="E34" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F34" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G34" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" t="s">
+      <c r="E34" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G34" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I34" s="1">
+      <c r="I34" s="18">
         <v>34</v>
       </c>
-      <c r="J34" s="8"/>
+      <c r="J34" s="5"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+      <c r="A35" s="18">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E35" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F35" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G35" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" t="s">
+      <c r="E35" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G35" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I35" s="1">
+      <c r="I35" s="18">
         <v>35</v>
       </c>
-      <c r="J35" s="8"/>
+      <c r="J35" s="5"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+      <c r="A36" s="18">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="E36" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F36" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G36" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" t="s">
+      <c r="E36" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F36" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G36" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I36" s="1">
+      <c r="I36" s="18">
         <v>36</v>
       </c>
-      <c r="J36" s="8"/>
+      <c r="J36" s="5"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
+      <c r="A37" s="18">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="E37" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F37" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G37" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" t="s">
+      <c r="E37" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F37" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G37" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I37" s="1">
+      <c r="I37" s="18">
         <v>37</v>
       </c>
-      <c r="J37" s="8"/>
+      <c r="J37" s="5"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+      <c r="A38" s="18">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="E38" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F38" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G38" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="s">
+      <c r="E38" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F38" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G38" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I38" s="1">
+      <c r="I38" s="18">
         <v>38</v>
       </c>
-      <c r="J38" s="8"/>
+      <c r="J38" s="5"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
+      <c r="A39" s="18">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="E39" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F39" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G39" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="s">
+      <c r="E39" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F39" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G39" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="J39" s="8"/>
+      <c r="J39" s="5"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
+      <c r="A40" s="18">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="E40" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F40" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G40" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" t="s">
+      <c r="E40" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F40" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G40" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I40" s="1">
+      <c r="I40" s="18">
         <v>40</v>
       </c>
-      <c r="J40" s="8"/>
+      <c r="J40" s="5"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
+      <c r="A41" s="18">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="E41" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F41" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G41" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" t="s">
+      <c r="E41" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F41" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G41" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="J41" s="8" t="str">
-        <f t="shared" ref="J41:J64" si="1">IF(H41="infó",A42,"")</f>
+      <c r="J41" s="5" t="str">
+        <f t="shared" ref="J41:J42" si="1">IF(H41="infó",A42,"")</f>
         <v/>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
+      <c r="A42" s="18">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="E42" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F42" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G42" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" t="s">
+      <c r="E42" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F42" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G42" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="J42" s="8" t="str">
+      <c r="J42" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
+      <c r="A43" s="18">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E43" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F43" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G43" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" t="s">
+      <c r="E43" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F43" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G43" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I43" s="1">
+      <c r="I43" s="18">
         <v>43</v>
       </c>
-      <c r="J43" s="8"/>
+      <c r="J43" s="5"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
+      <c r="A44" s="18">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="E44" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F44" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G44" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" t="s">
+      <c r="E44" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F44" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G44" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H44" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="J44" s="8"/>
+      <c r="J44" s="5"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
+      <c r="A45" s="18">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="E45" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F45" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G45" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="s">
+      <c r="E45" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F45" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G45" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H45" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I45" s="1">
+      <c r="I45" s="18">
         <v>45</v>
       </c>
-      <c r="J45" s="8"/>
+      <c r="J45" s="5"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
+      <c r="A46" s="18">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="E46" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F46" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G46" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="s">
+      <c r="E46" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F46" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G46" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H46" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I46" s="1">
+      <c r="I46" s="18">
         <v>46</v>
       </c>
-      <c r="J46" s="8"/>
+      <c r="J46" s="5"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
+      <c r="A47" s="18">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="E47" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F47" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G47" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="s">
+      <c r="E47" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F47" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G47" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H47" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="J47" s="8"/>
+      <c r="J47" s="5"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
+      <c r="A48" s="18">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="E48" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F48" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G48" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="s">
+      <c r="E48" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F48" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G48" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H48" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="J48" s="8"/>
+      <c r="J48" s="5"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
+      <c r="A49" s="18">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="E49" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F49" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G49" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="s">
+      <c r="E49" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F49" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G49" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H49" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="J49" s="8"/>
+      <c r="J49" s="5"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
+      <c r="A50" s="18">
         <f>ROW(A49)</f>
         <v>49</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="E50" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F50" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G50" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" t="s">
+      <c r="E50" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F50" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G50" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H50" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="J50" s="8"/>
+      <c r="J50" s="5"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
+      <c r="A51" s="18">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="E51" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F51" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G51" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="s">
+      <c r="E51" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F51" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G51" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H51" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J51" s="8"/>
+      <c r="J51" s="5"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
+      <c r="A52" s="18">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="E52" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F52" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G52" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="s">
+      <c r="E52" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F52" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G52" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H52" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I52" s="1">
+      <c r="I52" s="18">
         <v>53</v>
       </c>
-      <c r="J52" s="8"/>
+      <c r="J52" s="5"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
+      <c r="A53" s="18">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="E53" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F53" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G53" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="s">
+      <c r="E53" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F53" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G53" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H53" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="J53" s="8"/>
+      <c r="J53" s="5"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
+      <c r="A54" s="18">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="E54" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F54" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G54" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" t="s">
+      <c r="E54" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F54" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G54" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H54" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="J54" s="8"/>
+      <c r="J54" s="5"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
+      <c r="A55" s="18">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="E55" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F55" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G55" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55" t="s">
+      <c r="E55" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F55" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G55" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H55" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="J55" s="8"/>
+      <c r="J55" s="5"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
+      <c r="A56" s="18">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="E56" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F56" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G56" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="s">
+      <c r="E56" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F56" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G56" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H56" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="J56" s="8"/>
+      <c r="J56" s="5"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
+      <c r="A57" s="18">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="E57" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F57" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G57" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" t="s">
+      <c r="E57" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F57" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G57" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H57" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I57" s="1">
+      <c r="I57" s="18">
         <v>61</v>
       </c>
-      <c r="J57" s="8"/>
+      <c r="J57" s="5"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
+      <c r="A58" s="18">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="E58" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F58" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G58" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" t="s">
+      <c r="E58" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F58" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G58" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H58" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I58" s="1">
+      <c r="I58" s="18">
         <v>61</v>
       </c>
-      <c r="J58" s="8"/>
+      <c r="J58" s="5"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
+      <c r="A59" s="18">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="E59" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F59" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G59" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="s">
+      <c r="E59" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F59" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G59" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H59" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I59" s="1">
+      <c r="I59" s="18">
         <v>61</v>
       </c>
-      <c r="J59" s="8"/>
+      <c r="J59" s="5"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
+      <c r="A60" s="18">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="E60" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F60" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G60" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="s">
+      <c r="E60" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F60" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G60" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H60" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I60" s="1">
+      <c r="I60" s="18">
         <v>61</v>
       </c>
-      <c r="J60" s="8"/>
+      <c r="J60" s="5"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
+      <c r="A61" s="18">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="E61" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F61" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G61" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" t="s">
+      <c r="E61" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F61" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G61" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H61" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I61" s="1">
+      <c r="I61" s="18">
         <v>61</v>
       </c>
-      <c r="J61" s="8"/>
+      <c r="J61" s="5"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
+      <c r="A62" s="18">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="E62" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F62" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G62" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" t="s">
+      <c r="E62" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F62" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G62" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H62" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="J62" s="8"/>
+      <c r="J62" s="5"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
+      <c r="A63" s="18">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="E63" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F63" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G63" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63" t="s">
+      <c r="E63" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F63" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G63" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H63" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I63" s="1">
+      <c r="I63" s="18">
         <v>63</v>
       </c>
-      <c r="J63" s="8"/>
+      <c r="J63" s="5"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
+      <c r="A64" s="18">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="E64" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F64" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G64" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="s">
+      <c r="E64" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F64" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G64" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H64" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I64" s="1">
+      <c r="I64" s="18">
         <v>66</v>
       </c>
-      <c r="J64" s="8"/>
+      <c r="J64" s="5"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
+      <c r="A65" s="18">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="E65" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F65" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G65" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65" t="s">
+      <c r="E65" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F65" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G65" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H65" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I65" s="1">
+      <c r="I65" s="18">
         <v>66</v>
       </c>
-      <c r="J65" s="8"/>
+      <c r="J65" s="5"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
+      <c r="A66" s="18">
         <v>65</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="E66" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F66" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G66" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" t="s">
+      <c r="E66" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F66" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G66" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H66" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I66" s="1">
+      <c r="I66" s="18">
         <v>62</v>
       </c>
-      <c r="J66" s="8"/>
+      <c r="J66" s="5"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
+      <c r="A67" s="18">
         <v>66</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="E67" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F67" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G67" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" t="s">
+      <c r="E67" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F67" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G67" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H67" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="J67" s="8"/>
+      <c r="J67" s="5"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
+      <c r="A68" s="18">
         <f t="shared" ref="A68:A69" si="2">ROW(A67)</f>
         <v>67</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="E68" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F68" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G68" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" t="s">
+      <c r="E68" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F68" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G68" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H68" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="J68" s="8"/>
+      <c r="J68" s="5"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
+      <c r="A69" s="18">
         <f t="shared" si="2"/>
         <v>68</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="E69" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F69" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G69" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H69" t="s">
+      <c r="E69" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F69" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G69" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H69" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="J69" s="8"/>
+      <c r="J69" s="5"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD1 J2:XFD69 A70:XFD1048576 A2:H69">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>OR($H1="Döntés",$H1="Párbeszéd",$H1="Spéci")</formula>
-    </cfRule>
-  </conditionalFormatting>
+  <sheetProtection algorithmName="SHA-512" hashValue="KF9U0OWIc+irb0pBHMgffFIw5Wr4z2OAi1FSp6MCBqsRYXySOlRZgek1BfTeYa1QGLIgm+Zu3xHfgoWZLwLq3Q==" saltValue="i5vjeBGZr6XHX8G/SVt6lA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -6288,6 +5830,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="+SAKKhFLXzTSm4XqwH23dj1oGHWBbZ/PRv1qbgr3GLGgK+IpCVbcS2EnDFkEfwaQBDJn8XxaG1BnH6LsoOVASw==" saltValue="iaoyk88dXRT9FT1Vwr/tdg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Misc/game-content.xlsx
+++ b/Misc/game-content.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\por7bp\Documents\GitHub\dokk-game\Misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4FF34B5-9F98-48F4-8E2A-9131D92E5771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6524B35A-D991-4067-A721-E9F008083A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{CCEB2629-634A-424F-AEF4-625E334951C3}"/>
   </bookViews>
@@ -4001,7 +4001,7 @@
   <dimension ref="A1:J69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5830,7 +5830,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+SAKKhFLXzTSm4XqwH23dj1oGHWBbZ/PRv1qbgr3GLGgK+IpCVbcS2EnDFkEfwaQBDJn8XxaG1BnH6LsoOVASw==" saltValue="iaoyk88dXRT9FT1Vwr/tdg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="mBLPOUdUrFojoJuTQnrFIhu6hjYErKwzQmCjoMdA/RiVLsnGT9ERuYGAO9yvsv35/83jx6LxVjR+W6ovlmXcuw==" saltValue="WCO7EqdRlhet5RMHO1Q71Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Misc/game-content.xlsx
+++ b/Misc/game-content.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\por7bp\Documents\GitHub\dokk-game\Misc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Csump\source\repos\dokk-game\Misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6524B35A-D991-4067-A721-E9F008083A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5850459A-638D-45FC-AD1F-64ECDB725A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{CCEB2629-634A-424F-AEF4-625E334951C3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CCEB2629-634A-424F-AEF4-625E334951C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Döntések" sheetId="1" r:id="rId1"/>
@@ -909,7 +909,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -926,41 +926,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <extLst>
         <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
           <xfpb:xfComplement i="0"/>
         </ext>
       </extLst>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1004,7 +990,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1322,20 +1308,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F840CCB2-A1B6-4C24-B56A-C460078DD4FD}">
   <dimension ref="A1:M116"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O81" sqref="O81"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="4" style="1" customWidth="1"/>
-    <col min="3" max="3" width="52.5703125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="52.5703125" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="11" width="10" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="10"/>
-    <col min="13" max="13" width="9.140625" style="11"/>
-    <col min="14" max="16384" width="9.140625" style="10"/>
+    <col min="13" max="13" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1372,7 +1356,7 @@
       <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="9"/>
+      <c r="M1" s="8"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
@@ -1382,7 +1366,7 @@
       <c r="B2" s="1">
         <v>3</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" t="s">
         <v>124</v>
       </c>
       <c r="D2" s="1">
@@ -1403,7 +1387,7 @@
       <c r="B3" s="1">
         <v>3</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" t="s">
         <v>125</v>
       </c>
       <c r="D3" s="1">
@@ -1424,7 +1408,7 @@
       <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" t="s">
         <v>126</v>
       </c>
       <c r="D4" s="1">
@@ -1448,7 +1432,7 @@
       <c r="B5" s="1">
         <v>6</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" t="s">
         <v>127</v>
       </c>
       <c r="D5" s="1">
@@ -1466,7 +1450,7 @@
       <c r="B6" s="1">
         <v>6</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" t="s">
         <v>128</v>
       </c>
       <c r="D6" s="1">
@@ -1484,7 +1468,7 @@
       <c r="B7" s="1">
         <v>6</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" t="s">
         <v>129</v>
       </c>
       <c r="D7" s="1">
@@ -1508,7 +1492,7 @@
       <c r="B8" s="1">
         <v>6</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" t="s">
         <v>130</v>
       </c>
       <c r="D8" s="1">
@@ -1532,7 +1516,7 @@
       <c r="B9" s="1">
         <v>11</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" t="s">
         <v>131</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -1550,7 +1534,7 @@
       <c r="B10" s="1">
         <v>11</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" t="s">
         <v>132</v>
       </c>
       <c r="D10" s="1">
@@ -1571,7 +1555,7 @@
       <c r="B11" s="1">
         <v>12</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" t="s">
         <v>133</v>
       </c>
       <c r="D11" s="1">
@@ -1592,7 +1576,7 @@
       <c r="B12" s="1">
         <v>12</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" t="s">
         <v>134</v>
       </c>
       <c r="D12" s="1">
@@ -1613,7 +1597,7 @@
       <c r="B13" s="1">
         <v>12</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" t="s">
         <v>135</v>
       </c>
       <c r="D13" s="1">
@@ -1637,7 +1621,7 @@
       <c r="B14" s="1">
         <v>13</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" t="s">
         <v>136</v>
       </c>
       <c r="D14" s="1">
@@ -1652,7 +1636,7 @@
       <c r="B15" s="1">
         <v>14</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" t="s">
         <v>137</v>
       </c>
       <c r="D15" s="1">
@@ -1667,7 +1651,7 @@
       <c r="B16" s="1">
         <v>15</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" t="s">
         <v>138</v>
       </c>
       <c r="D16" s="1">
@@ -1682,7 +1666,7 @@
       <c r="B17" s="1">
         <v>15</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" t="s">
         <v>139</v>
       </c>
       <c r="D17" s="1">
@@ -1697,7 +1681,7 @@
       <c r="B18" s="1">
         <v>15</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" t="s">
         <v>140</v>
       </c>
       <c r="D18" s="1">
@@ -1712,7 +1696,7 @@
       <c r="B19" s="1">
         <v>15</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" t="s">
         <v>141</v>
       </c>
       <c r="D19" s="1">
@@ -1727,7 +1711,7 @@
       <c r="B20" s="1">
         <v>15</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" t="s">
         <v>142</v>
       </c>
       <c r="D20" s="1">
@@ -1742,7 +1726,7 @@
       <c r="B21" s="1">
         <v>15</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" t="s">
         <v>143</v>
       </c>
       <c r="D21" s="1">
@@ -1757,7 +1741,7 @@
       <c r="B22" s="1">
         <v>15</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" t="s">
         <v>144</v>
       </c>
       <c r="D22" s="1">
@@ -1772,7 +1756,7 @@
       <c r="B23" s="1">
         <v>15</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" t="s">
         <v>145</v>
       </c>
       <c r="D23" s="1">
@@ -1787,7 +1771,7 @@
       <c r="B24" s="1">
         <v>15</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" t="s">
         <v>146</v>
       </c>
       <c r="D24" s="1">
@@ -1802,7 +1786,7 @@
       <c r="B25" s="1">
         <v>16</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" t="s">
         <v>147</v>
       </c>
       <c r="D25" s="1">
@@ -1817,7 +1801,7 @@
       <c r="B26" s="1">
         <v>16</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" t="s">
         <v>148</v>
       </c>
       <c r="D26" s="1">
@@ -1832,7 +1816,7 @@
       <c r="B27" s="1">
         <v>16</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" t="s">
         <v>149</v>
       </c>
       <c r="D27" s="1">
@@ -1847,7 +1831,7 @@
       <c r="B28" s="1">
         <v>18</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" t="s">
         <v>150</v>
       </c>
       <c r="D28" s="1">
@@ -1865,7 +1849,7 @@
       <c r="B29" s="1">
         <v>18</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" t="s">
         <v>151</v>
       </c>
       <c r="D29" s="1">
@@ -1883,7 +1867,7 @@
       <c r="B30" s="1">
         <v>19</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" t="s">
         <v>152</v>
       </c>
       <c r="D30" s="1">
@@ -1901,7 +1885,7 @@
       <c r="B31" s="1">
         <v>19</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" t="s">
         <v>153</v>
       </c>
       <c r="D31" s="1">
@@ -1925,7 +1909,7 @@
       <c r="B32" s="1">
         <v>20</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" t="s">
         <v>154</v>
       </c>
       <c r="D32" s="1">
@@ -1946,7 +1930,7 @@
       <c r="B33" s="1">
         <v>20</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" t="s">
         <v>155</v>
       </c>
       <c r="D33" s="1">
@@ -1967,7 +1951,7 @@
       <c r="B34" s="1">
         <v>21</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" t="s">
         <v>156</v>
       </c>
       <c r="D34" s="1">
@@ -1994,7 +1978,7 @@
       <c r="B35" s="1">
         <v>21</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" t="s">
         <v>157</v>
       </c>
       <c r="D35" s="1">
@@ -2021,7 +2005,7 @@
       <c r="B36" s="1">
         <v>21</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" t="s">
         <v>158</v>
       </c>
       <c r="D36" s="1">
@@ -2039,7 +2023,7 @@
       <c r="B37" s="1">
         <v>21</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" t="s">
         <v>159</v>
       </c>
       <c r="D37" s="1">
@@ -2057,7 +2041,7 @@
       <c r="B38" s="1">
         <v>22</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" t="s">
         <v>160</v>
       </c>
       <c r="D38" s="1">
@@ -2084,7 +2068,7 @@
       <c r="B39" s="1">
         <v>22</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" t="s">
         <v>161</v>
       </c>
       <c r="D39" s="1">
@@ -2114,7 +2098,7 @@
       <c r="B40" s="1">
         <v>22</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" t="s">
         <v>162</v>
       </c>
       <c r="D40" s="1">
@@ -2141,7 +2125,7 @@
       <c r="B41" s="1">
         <v>22</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" t="s">
         <v>163</v>
       </c>
       <c r="D41" s="1">
@@ -2159,7 +2143,7 @@
       <c r="B42" s="1">
         <v>23</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" t="s">
         <v>164</v>
       </c>
       <c r="D42" s="1">
@@ -2180,7 +2164,7 @@
       <c r="B43" s="1">
         <v>23</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" t="s">
         <v>165</v>
       </c>
       <c r="D43" s="1">
@@ -2201,7 +2185,7 @@
       <c r="B44" s="1">
         <v>23</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C44" t="s">
         <v>166</v>
       </c>
       <c r="D44" s="1">
@@ -2222,7 +2206,7 @@
       <c r="B45" s="1">
         <v>23</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C45" t="s">
         <v>167</v>
       </c>
       <c r="D45" s="1">
@@ -2243,7 +2227,7 @@
       <c r="B46" s="1">
         <v>23</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C46" t="s">
         <v>168</v>
       </c>
       <c r="D46" s="1">
@@ -2264,7 +2248,7 @@
       <c r="B47" s="1">
         <v>23</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C47" t="s">
         <v>169</v>
       </c>
       <c r="D47" s="1">
@@ -2285,7 +2269,7 @@
       <c r="B48" s="1">
         <v>23</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C48" t="s">
         <v>170</v>
       </c>
       <c r="D48" s="1">
@@ -2303,7 +2287,7 @@
       <c r="B49" s="7">
         <v>24</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C49" t="s">
         <v>171</v>
       </c>
       <c r="D49" s="1">
@@ -2327,7 +2311,7 @@
       <c r="B50" s="7">
         <v>24</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C50" t="s">
         <v>172</v>
       </c>
       <c r="D50" s="1">
@@ -2351,7 +2335,7 @@
       <c r="B51" s="7">
         <v>24</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C51" t="s">
         <v>173</v>
       </c>
       <c r="D51" s="1">
@@ -2369,7 +2353,7 @@
       <c r="B52" s="7">
         <v>24</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C52" t="s">
         <v>174</v>
       </c>
       <c r="D52" s="1">
@@ -2387,7 +2371,7 @@
       <c r="B53" s="7">
         <v>24</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C53" t="s">
         <v>175</v>
       </c>
       <c r="D53" s="1">
@@ -2405,7 +2389,7 @@
       <c r="B54" s="1">
         <v>25</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C54" t="s">
         <v>178</v>
       </c>
       <c r="D54" s="1">
@@ -2429,7 +2413,7 @@
       <c r="B55" s="1">
         <v>25</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C55" t="s">
         <v>177</v>
       </c>
       <c r="D55" s="1">
@@ -2456,7 +2440,7 @@
       <c r="B56" s="1">
         <v>25</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C56" t="s">
         <v>176</v>
       </c>
       <c r="D56" s="1">
@@ -2474,7 +2458,7 @@
       <c r="B57" s="1">
         <v>28</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C57" t="s">
         <v>181</v>
       </c>
       <c r="D57" s="1">
@@ -2498,7 +2482,7 @@
       <c r="B58" s="1">
         <v>28</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C58" t="s">
         <v>180</v>
       </c>
       <c r="D58" s="1">
@@ -2525,7 +2509,7 @@
       <c r="B59" s="1">
         <v>28</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="C59" t="s">
         <v>179</v>
       </c>
       <c r="D59" s="1">
@@ -2543,7 +2527,7 @@
       <c r="B60" s="1">
         <v>38</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C60" t="s">
         <v>182</v>
       </c>
       <c r="D60" s="1">
@@ -2567,7 +2551,7 @@
       <c r="B61" s="1">
         <v>38</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C61" t="s">
         <v>173</v>
       </c>
       <c r="D61" s="1">
@@ -2594,7 +2578,7 @@
       <c r="B62" s="1">
         <v>38</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C62" t="s">
         <v>174</v>
       </c>
       <c r="D62" s="1">
@@ -2621,7 +2605,7 @@
       <c r="B63" s="1">
         <v>40</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C63" t="s">
         <v>183</v>
       </c>
       <c r="D63" s="1">
@@ -2654,7 +2638,7 @@
       <c r="B64" s="1">
         <v>40</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C64" t="s">
         <v>184</v>
       </c>
       <c r="D64" s="1">
@@ -2670,7 +2654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -2678,7 +2662,7 @@
       <c r="B65" s="1">
         <v>40</v>
       </c>
-      <c r="C65" s="10" t="s">
+      <c r="C65" t="s">
         <v>185</v>
       </c>
       <c r="D65" s="1">
@@ -2700,7 +2684,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -2708,7 +2692,7 @@
       <c r="B66" s="1">
         <v>40</v>
       </c>
-      <c r="C66" s="10" t="s">
+      <c r="C66" t="s">
         <v>186</v>
       </c>
       <c r="D66" s="1">
@@ -2730,7 +2714,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <f t="shared" ref="A67:A116" si="1">ROW(A66)</f>
         <v>66</v>
@@ -2738,7 +2722,7 @@
       <c r="B67" s="1">
         <v>40</v>
       </c>
-      <c r="C67" s="10" t="s">
+      <c r="C67" t="s">
         <v>187</v>
       </c>
       <c r="D67" s="1">
@@ -2757,7 +2741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <f t="shared" si="1"/>
         <v>67</v>
@@ -2765,7 +2749,7 @@
       <c r="B68" s="1">
         <v>41</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="C68" t="s">
         <v>188</v>
       </c>
       <c r="D68" s="1">
@@ -2787,7 +2771,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -2795,7 +2779,7 @@
       <c r="B69" s="1">
         <v>41</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="C69" t="s">
         <v>189</v>
       </c>
       <c r="D69" s="1">
@@ -2814,7 +2798,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -2822,7 +2806,7 @@
       <c r="B70" s="1">
         <v>41</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="C70" t="s">
         <v>190</v>
       </c>
       <c r="D70" s="1">
@@ -2838,7 +2822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -2846,7 +2830,7 @@
       <c r="B71" s="1">
         <v>41</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="C71" t="s">
         <v>191</v>
       </c>
       <c r="D71" s="1">
@@ -2856,7 +2840,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -2864,7 +2848,7 @@
       <c r="B72" s="1">
         <v>43</v>
       </c>
-      <c r="C72" s="10" t="s">
+      <c r="C72" t="s">
         <v>192</v>
       </c>
       <c r="D72" s="1">
@@ -2874,7 +2858,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -2882,7 +2866,7 @@
       <c r="B73" s="1">
         <v>43</v>
       </c>
-      <c r="C73" s="10" t="s">
+      <c r="C73" t="s">
         <v>193</v>
       </c>
       <c r="D73" s="1">
@@ -2901,7 +2885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -2909,7 +2893,7 @@
       <c r="B74" s="1">
         <v>43</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="C74" t="s">
         <v>194</v>
       </c>
       <c r="D74" s="1">
@@ -2934,7 +2918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -2942,7 +2926,7 @@
       <c r="B75" s="1">
         <v>46</v>
       </c>
-      <c r="C75" s="10" t="s">
+      <c r="C75" t="s">
         <v>154</v>
       </c>
       <c r="D75" s="1">
@@ -2958,32 +2942,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="8">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="B76" s="8">
+      <c r="B76" s="1">
         <v>46</v>
       </c>
-      <c r="C76" s="12" t="s">
+      <c r="C76" t="s">
         <v>155</v>
       </c>
-      <c r="D76" s="8">
+      <c r="D76" s="1">
         <v>48</v>
       </c>
-      <c r="E76" s="8">
-        <v>-1</v>
-      </c>
-      <c r="F76" s="8"/>
-      <c r="G76" s="8"/>
-      <c r="H76" s="8"/>
-      <c r="I76" s="8"/>
-      <c r="J76" s="8"/>
-      <c r="K76" s="8"/>
-      <c r="M76" s="13"/>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E76" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -2991,7 +2968,7 @@
       <c r="B77" s="1">
         <v>47</v>
       </c>
-      <c r="C77" s="10" t="s">
+      <c r="C77" t="s">
         <v>195</v>
       </c>
       <c r="D77" s="1">
@@ -3004,7 +2981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -3012,7 +2989,7 @@
       <c r="B78" s="1">
         <v>47</v>
       </c>
-      <c r="C78" s="10" t="s">
+      <c r="C78" t="s">
         <v>196</v>
       </c>
       <c r="D78" s="1">
@@ -3034,7 +3011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -3042,14 +3019,14 @@
       <c r="B79" s="1">
         <v>47</v>
       </c>
-      <c r="C79" s="10" t="s">
+      <c r="C79" t="s">
         <v>197</v>
       </c>
       <c r="D79" s="1">
         <v>48</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -3057,7 +3034,7 @@
       <c r="B80" s="1">
         <v>47</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="C80" t="s">
         <v>198</v>
       </c>
       <c r="D80" s="1">
@@ -3072,7 +3049,7 @@
       <c r="B81" s="1">
         <v>48</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="C81" t="s">
         <v>199</v>
       </c>
       <c r="D81" s="1">
@@ -3108,7 +3085,7 @@
       <c r="B82" s="1">
         <v>48</v>
       </c>
-      <c r="C82" s="10" t="s">
+      <c r="C82" t="s">
         <v>200</v>
       </c>
       <c r="D82" s="1">
@@ -3135,7 +3112,7 @@
       <c r="B83" s="1">
         <v>48</v>
       </c>
-      <c r="C83" s="10" t="s">
+      <c r="C83" t="s">
         <v>201</v>
       </c>
       <c r="D83" s="1">
@@ -3162,7 +3139,7 @@
       <c r="B84" s="1">
         <v>48</v>
       </c>
-      <c r="C84" s="10" t="s">
+      <c r="C84" t="s">
         <v>202</v>
       </c>
       <c r="D84" s="1">
@@ -3183,7 +3160,7 @@
       <c r="B85" s="1">
         <v>49</v>
       </c>
-      <c r="C85" s="10" t="s">
+      <c r="C85" t="s">
         <v>203</v>
       </c>
       <c r="D85" s="1">
@@ -3210,7 +3187,7 @@
       <c r="B86" s="1">
         <v>49</v>
       </c>
-      <c r="C86" s="10" t="s">
+      <c r="C86" t="s">
         <v>204</v>
       </c>
       <c r="D86" s="1">
@@ -3240,7 +3217,7 @@
       <c r="B87" s="1">
         <v>49</v>
       </c>
-      <c r="C87" s="10" t="s">
+      <c r="C87" t="s">
         <v>205</v>
       </c>
       <c r="D87" s="1">
@@ -3258,7 +3235,7 @@
       <c r="B88" s="1">
         <v>50</v>
       </c>
-      <c r="C88" s="10" t="s">
+      <c r="C88" t="s">
         <v>206</v>
       </c>
       <c r="D88" s="1">
@@ -3285,7 +3262,7 @@
       <c r="B89" s="1">
         <v>50</v>
       </c>
-      <c r="C89" s="10" t="s">
+      <c r="C89" t="s">
         <v>207</v>
       </c>
       <c r="D89" s="1">
@@ -3306,7 +3283,7 @@
       <c r="B90" s="1">
         <v>52</v>
       </c>
-      <c r="C90" s="10" t="s">
+      <c r="C90" t="s">
         <v>234</v>
       </c>
       <c r="D90" s="1">
@@ -3333,7 +3310,7 @@
       <c r="B91" s="1">
         <v>52</v>
       </c>
-      <c r="C91" s="10" t="s">
+      <c r="C91" t="s">
         <v>208</v>
       </c>
       <c r="D91" s="1">
@@ -3357,7 +3334,7 @@
       <c r="B92" s="1">
         <v>52</v>
       </c>
-      <c r="C92" s="10" t="s">
+      <c r="C92" t="s">
         <v>209</v>
       </c>
       <c r="D92" s="1">
@@ -3390,7 +3367,7 @@
       <c r="B93" s="1">
         <v>53</v>
       </c>
-      <c r="C93" s="10" t="s">
+      <c r="C93" t="s">
         <v>210</v>
       </c>
       <c r="D93" s="1">
@@ -3423,7 +3400,7 @@
       <c r="B94" s="1">
         <v>53</v>
       </c>
-      <c r="C94" s="10" t="s">
+      <c r="C94" t="s">
         <v>211</v>
       </c>
       <c r="D94" s="1">
@@ -3456,7 +3433,7 @@
       <c r="B95" s="1">
         <v>53</v>
       </c>
-      <c r="C95" s="10" t="s">
+      <c r="C95" t="s">
         <v>212</v>
       </c>
       <c r="D95" s="1">
@@ -3483,7 +3460,7 @@
       <c r="B96" s="1">
         <v>54</v>
       </c>
-      <c r="C96" s="10" t="s">
+      <c r="C96" t="s">
         <v>213</v>
       </c>
       <c r="D96" s="1">
@@ -3504,7 +3481,7 @@
       <c r="B97" s="1">
         <v>54</v>
       </c>
-      <c r="C97" s="10" t="s">
+      <c r="C97" t="s">
         <v>214</v>
       </c>
       <c r="D97" s="1">
@@ -3531,7 +3508,7 @@
       <c r="B98" s="1">
         <v>54</v>
       </c>
-      <c r="C98" s="10" t="s">
+      <c r="C98" t="s">
         <v>215</v>
       </c>
       <c r="D98" s="1">
@@ -3558,7 +3535,7 @@
       <c r="B99" s="1">
         <v>55</v>
       </c>
-      <c r="C99" s="10" t="s">
+      <c r="C99" t="s">
         <v>216</v>
       </c>
       <c r="D99" s="1">
@@ -3579,7 +3556,7 @@
       <c r="B100" s="1">
         <v>55</v>
       </c>
-      <c r="C100" s="10" t="s">
+      <c r="C100" t="s">
         <v>217</v>
       </c>
       <c r="D100" s="1">
@@ -3600,7 +3577,7 @@
       <c r="B101" s="1">
         <v>55</v>
       </c>
-      <c r="C101" s="10" t="s">
+      <c r="C101" t="s">
         <v>218</v>
       </c>
       <c r="D101" s="1">
@@ -3621,7 +3598,7 @@
       <c r="B102" s="1">
         <v>55</v>
       </c>
-      <c r="C102" s="10" t="s">
+      <c r="C102" t="s">
         <v>219</v>
       </c>
       <c r="D102" s="1">
@@ -3642,7 +3619,7 @@
       <c r="B103" s="1">
         <v>55</v>
       </c>
-      <c r="C103" s="10" t="s">
+      <c r="C103" t="s">
         <v>220</v>
       </c>
       <c r="D103" s="1">
@@ -3663,7 +3640,7 @@
       <c r="B104" s="1">
         <v>61</v>
       </c>
-      <c r="C104" s="10" t="s">
+      <c r="C104" t="s">
         <v>221</v>
       </c>
       <c r="D104" s="1">
@@ -3690,7 +3667,7 @@
       <c r="B105" s="1">
         <v>61</v>
       </c>
-      <c r="C105" s="10" t="s">
+      <c r="C105" t="s">
         <v>222</v>
       </c>
       <c r="D105" s="1">
@@ -3720,7 +3697,7 @@
       <c r="B106" s="1">
         <v>61</v>
       </c>
-      <c r="C106" s="10" t="s">
+      <c r="C106" t="s">
         <v>223</v>
       </c>
       <c r="D106" s="1">
@@ -3747,7 +3724,7 @@
       <c r="B107" s="1">
         <v>66</v>
       </c>
-      <c r="C107" s="10" t="s">
+      <c r="C107" t="s">
         <v>224</v>
       </c>
       <c r="D107" s="1">
@@ -3777,7 +3754,7 @@
       <c r="B108" s="1">
         <v>66</v>
       </c>
-      <c r="C108" s="10" t="s">
+      <c r="C108" t="s">
         <v>225</v>
       </c>
       <c r="D108" s="1">
@@ -3804,7 +3781,7 @@
       <c r="B109" s="1">
         <v>66</v>
       </c>
-      <c r="C109" s="10" t="s">
+      <c r="C109" t="s">
         <v>226</v>
       </c>
       <c r="D109" s="1">
@@ -3822,7 +3799,7 @@
       <c r="B110" s="1">
         <v>67</v>
       </c>
-      <c r="C110" s="10" t="s">
+      <c r="C110" t="s">
         <v>227</v>
       </c>
       <c r="D110" s="1">
@@ -3843,7 +3820,7 @@
       <c r="B111" s="1">
         <v>67</v>
       </c>
-      <c r="C111" s="10" t="s">
+      <c r="C111" t="s">
         <v>228</v>
       </c>
       <c r="D111" s="1">
@@ -3867,7 +3844,7 @@
       <c r="B112" s="1">
         <v>67</v>
       </c>
-      <c r="C112" s="10" t="s">
+      <c r="C112" t="s">
         <v>229</v>
       </c>
       <c r="D112" s="1">
@@ -3888,7 +3865,7 @@
       <c r="B113" s="1">
         <v>67</v>
       </c>
-      <c r="C113" s="10" t="s">
+      <c r="C113" t="s">
         <v>233</v>
       </c>
       <c r="D113" s="1">
@@ -3912,7 +3889,7 @@
       <c r="B114" s="1">
         <v>67</v>
       </c>
-      <c r="C114" s="10" t="s">
+      <c r="C114" t="s">
         <v>230</v>
       </c>
       <c r="D114" s="1">
@@ -3939,7 +3916,7 @@
       <c r="B115" s="1">
         <v>67</v>
       </c>
-      <c r="C115" s="10" t="s">
+      <c r="C115" t="s">
         <v>231</v>
       </c>
       <c r="D115" s="1">
@@ -3966,7 +3943,7 @@
       <c r="B116" s="1">
         <v>67</v>
       </c>
-      <c r="C116" s="10" t="s">
+      <c r="C116" t="s">
         <v>232</v>
       </c>
       <c r="D116" s="1">
@@ -3986,7 +3963,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="sXT98EriifcpcOCNWLF3//NLdd/tRU7koFTDfNZJofdW80C1FSQazUmdc4MxE1TjxxijRLZdTIK8Y2d14BxYYg==" saltValue="A+gU2fdOWPddFvmqcIPvhw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="tow0WF9JwaizFnVOI3UywvbGCd/km55bPtuscTMj0ZIiTv05GPkL9gN0I+Hw4guEDLBRXGoHxgsshshizSf5UA==" saltValue="CubWkYBaPNlLKs6O93Rcmg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="D1:D1048576">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$D1="?"</formula>
@@ -4000,1063 +3977,1063 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09A778E5-FEF8-483F-AED6-8DF6A0AC9FB2}">
   <dimension ref="A1:J69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" style="17" customWidth="1"/>
-    <col min="3" max="3" width="34" style="17" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" style="21" customWidth="1"/>
-    <col min="5" max="7" width="7.42578125" style="17" customWidth="1"/>
-    <col min="8" max="8" width="14" style="17" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="18"/>
+    <col min="1" max="1" width="4.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="34" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" style="13" customWidth="1"/>
+    <col min="5" max="7" width="7.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="1"/>
     <col min="10" max="10" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="14" t="s">
+      <c r="A1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="18">
+      <c r="A2" s="1">
         <f>ROW(A1)</f>
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G2" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" s="17" t="s">
+      <c r="E2" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="18">
+      <c r="I2" s="1">
         <v>2</v>
       </c>
       <c r="J2" s="5"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="18">
+      <c r="A3" s="1">
         <f t="shared" ref="A3:A65" si="0">ROW(A2)</f>
         <v>2</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" s="17" t="s">
+      <c r="E3" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="18">
+      <c r="I3" s="1">
         <v>3</v>
       </c>
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="18">
+      <c r="A4" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" s="17" t="s">
+      <c r="E4" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
         <v>20</v>
       </c>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="18">
+      <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" s="17" t="s">
+      <c r="E5" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5" s="1">
         <v>3</v>
       </c>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="18">
+      <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="17" t="s">
+      <c r="E6" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="1">
         <v>3</v>
       </c>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="18">
+      <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" s="17" t="s">
+      <c r="E7" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
         <v>20</v>
       </c>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="18">
+      <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="17" t="s">
+      <c r="E8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I8" s="1">
         <v>11</v>
       </c>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="18">
+      <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F9" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" s="17" t="s">
+      <c r="E9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="1">
         <v>11</v>
       </c>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="18">
+      <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F10" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G10" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" s="17" t="s">
+      <c r="E10" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10" s="1">
         <v>11</v>
       </c>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="18">
+      <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F11" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G11" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" s="17" t="s">
+      <c r="E11" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="1">
         <v>11</v>
       </c>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="18">
+      <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F12" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G12" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" s="17" t="s">
+      <c r="E12" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
         <v>19</v>
       </c>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="18">
+      <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F13" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G13" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" s="17" t="s">
+      <c r="E13" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
         <v>20</v>
       </c>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="18">
+      <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F14" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G14" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" s="17" t="s">
+      <c r="E14" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
         <v>19</v>
       </c>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="18">
+      <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F15" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G15" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" s="17" t="s">
+      <c r="E15" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
         <v>19</v>
       </c>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="18">
+      <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F16" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G16" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" s="17" t="s">
+      <c r="E16" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
         <v>43</v>
       </c>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="18">
+      <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F17" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G17" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" s="17" t="s">
+      <c r="E17" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
         <v>20</v>
       </c>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="18">
+      <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F18" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G18" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" s="17" t="s">
+      <c r="E18" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
         <v>21</v>
       </c>
-      <c r="I18" s="18">
+      <c r="I18" s="1">
         <v>18</v>
       </c>
       <c r="J18" s="5"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="18">
+      <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F19" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G19" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" s="17" t="s">
+      <c r="E19" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" t="s">
         <v>20</v>
       </c>
       <c r="J19" s="5"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="18">
+      <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F20" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G20" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" s="17" t="s">
+      <c r="E20" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
         <v>19</v>
       </c>
       <c r="J20" s="5"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="18">
+      <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F21" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="G21" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" s="17" t="s">
+      <c r="E21" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" t="s">
         <v>20</v>
       </c>
       <c r="J21" s="5"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="18">
+      <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F22" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G22" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" s="17" t="s">
+      <c r="E22" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
         <v>20</v>
       </c>
       <c r="J22" s="5"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="18">
+      <c r="A23" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F23" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G23" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" s="17" t="s">
+      <c r="E23" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" t="s">
         <v>20</v>
       </c>
       <c r="J23" s="5"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="18">
+      <c r="A24" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="E24" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F24" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G24" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" s="17" t="s">
+      <c r="E24" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" t="s">
         <v>20</v>
       </c>
       <c r="J24" s="5"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="18">
+      <c r="A25" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" t="s">
         <v>59</v>
       </c>
-      <c r="E25" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F25" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G25" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" s="17" t="s">
+      <c r="E25" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" t="s">
         <v>20</v>
       </c>
       <c r="J25" s="5"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="18">
+      <c r="A26" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" t="s">
         <v>60</v>
       </c>
-      <c r="E26" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F26" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G26" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" s="17" t="s">
+      <c r="E26" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" t="s">
         <v>20</v>
       </c>
       <c r="J26" s="5"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="18">
+      <c r="A27" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" t="s">
         <v>61</v>
       </c>
-      <c r="E27" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F27" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G27" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" s="17" t="s">
+      <c r="E27" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" t="s">
         <v>18</v>
       </c>
-      <c r="I27" s="18">
+      <c r="I27" s="1">
         <v>39</v>
       </c>
       <c r="J27" s="5"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="18">
+      <c r="A28" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" t="s">
         <v>62</v>
       </c>
-      <c r="E28" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F28" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G28" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" s="17" t="s">
+      <c r="E28" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G28" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28" t="s">
         <v>18</v>
       </c>
-      <c r="I28" s="18">
+      <c r="I28" s="1">
         <v>39</v>
       </c>
       <c r="J28" s="5"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="18">
+      <c r="A29" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" t="s">
         <v>63</v>
       </c>
-      <c r="E29" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F29" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G29" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" s="17" t="s">
+      <c r="E29" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G29" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29" t="s">
         <v>20</v>
       </c>
       <c r="J29" s="5"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="18">
+      <c r="A30" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" t="s">
         <v>64</v>
       </c>
-      <c r="E30" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F30" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G30" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" s="17" t="s">
+      <c r="E30" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G30" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30" t="s">
         <v>18</v>
       </c>
-      <c r="I30" s="18">
+      <c r="I30" s="1">
         <v>39</v>
       </c>
       <c r="J30" s="5"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="18">
+      <c r="A31" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" t="s">
         <v>65</v>
       </c>
-      <c r="E31" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F31" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G31" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" s="17" t="s">
+      <c r="E31" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G31" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31" t="s">
         <v>18</v>
       </c>
-      <c r="I31" s="18">
+      <c r="I31" s="1">
         <v>39</v>
       </c>
       <c r="J31" s="5"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="18">
+      <c r="A32" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" t="s">
         <v>73</v>
       </c>
-      <c r="E32" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F32" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G32" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" s="17" t="s">
+      <c r="E32" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G32" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32" t="s">
         <v>18</v>
       </c>
-      <c r="I32" s="18">
+      <c r="I32" s="1">
         <v>32</v>
       </c>
       <c r="J32" s="5"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="18">
+      <c r="A33" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" t="s">
         <v>74</v>
       </c>
-      <c r="E33" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F33" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G33" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" s="17" t="s">
+      <c r="E33" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G33" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33" t="s">
         <v>18</v>
       </c>
-      <c r="I33" s="18">
+      <c r="I33" s="1">
         <v>33</v>
       </c>
       <c r="J33" s="5"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="18">
+      <c r="A34" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" t="s">
         <v>69</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C34" t="s">
         <v>75</v>
       </c>
-      <c r="E34" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F34" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G34" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" s="17" t="s">
+      <c r="E34" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G34" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34" t="s">
         <v>18</v>
       </c>
-      <c r="I34" s="18">
+      <c r="I34" s="1">
         <v>34</v>
       </c>
       <c r="J34" s="5"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="18">
+      <c r="A35" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C35" t="s">
         <v>76</v>
       </c>
-      <c r="E35" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F35" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G35" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" s="17" t="s">
+      <c r="E35" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G35" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35" t="s">
         <v>18</v>
       </c>
-      <c r="I35" s="18">
+      <c r="I35" s="1">
         <v>35</v>
       </c>
       <c r="J35" s="5"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="18">
+      <c r="A36" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" t="s">
         <v>77</v>
       </c>
-      <c r="E36" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F36" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G36" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" s="17" t="s">
+      <c r="E36" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F36" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G36" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36" t="s">
         <v>18</v>
       </c>
-      <c r="I36" s="18">
+      <c r="I36" s="1">
         <v>36</v>
       </c>
       <c r="J36" s="5"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="18">
+      <c r="A37" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="17" t="s">
+      <c r="C37" t="s">
         <v>78</v>
       </c>
-      <c r="E37" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F37" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G37" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" s="17" t="s">
+      <c r="E37" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F37" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G37" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37" t="s">
         <v>18</v>
       </c>
-      <c r="I37" s="18">
+      <c r="I37" s="1">
         <v>37</v>
       </c>
       <c r="J37" s="5"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="18">
+      <c r="A38" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B38" t="s">
         <v>67</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C38" t="s">
         <v>79</v>
       </c>
-      <c r="E38" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F38" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G38" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" s="17" t="s">
+      <c r="E38" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F38" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G38" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38" t="s">
         <v>18</v>
       </c>
-      <c r="I38" s="18">
+      <c r="I38" s="1">
         <v>38</v>
       </c>
       <c r="J38" s="5"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="18">
+      <c r="A39" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" t="s">
         <v>80</v>
       </c>
-      <c r="E39" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F39" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G39" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" s="17" t="s">
+      <c r="E39" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F39" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G39" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39" t="s">
         <v>20</v>
       </c>
       <c r="J39" s="5"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="18">
+      <c r="A40" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" t="s">
         <v>81</v>
       </c>
-      <c r="E40" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F40" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G40" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" s="17" t="s">
+      <c r="E40" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F40" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G40" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40" t="s">
         <v>18</v>
       </c>
-      <c r="I40" s="18">
+      <c r="I40" s="1">
         <v>40</v>
       </c>
       <c r="J40" s="5"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="18">
+      <c r="A41" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="B41" t="s">
         <v>82</v>
       </c>
-      <c r="E41" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F41" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G41" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" s="17" t="s">
+      <c r="E41" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F41" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G41" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41" t="s">
         <v>20</v>
       </c>
       <c r="J41" s="5" t="str">
@@ -5065,23 +5042,23 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="18">
+      <c r="A42" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B42" t="s">
         <v>83</v>
       </c>
-      <c r="E42" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F42" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G42" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" s="17" t="s">
+      <c r="E42" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F42" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G42" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42" t="s">
         <v>20</v>
       </c>
       <c r="J42" s="5" t="str">
@@ -5090,683 +5067,683 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="18">
+      <c r="A43" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" t="s">
         <v>84</v>
       </c>
-      <c r="E43" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F43" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G43" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" s="17" t="s">
+      <c r="E43" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F43" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G43" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43" t="s">
         <v>18</v>
       </c>
-      <c r="I43" s="18">
+      <c r="I43" s="1">
         <v>43</v>
       </c>
       <c r="J43" s="5"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="18">
+      <c r="A44" s="1">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="B44" t="s">
         <v>85</v>
       </c>
-      <c r="E44" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F44" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G44" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" s="17" t="s">
+      <c r="E44" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F44" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G44" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H44" t="s">
         <v>20</v>
       </c>
       <c r="J44" s="5"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="18">
+      <c r="A45" s="1">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B45" s="17" t="s">
+      <c r="B45" t="s">
         <v>86</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="C45" t="s">
         <v>87</v>
       </c>
-      <c r="E45" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F45" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G45" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" s="17" t="s">
+      <c r="E45" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F45" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G45" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H45" t="s">
         <v>18</v>
       </c>
-      <c r="I45" s="18">
+      <c r="I45" s="1">
         <v>45</v>
       </c>
       <c r="J45" s="5"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="18">
+      <c r="A46" s="1">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B46" s="17" t="s">
+      <c r="B46" t="s">
         <v>88</v>
       </c>
-      <c r="C46" s="17" t="s">
+      <c r="C46" t="s">
         <v>89</v>
       </c>
-      <c r="E46" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F46" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G46" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" s="17" t="s">
+      <c r="E46" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F46" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G46" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H46" t="s">
         <v>18</v>
       </c>
-      <c r="I46" s="18">
+      <c r="I46" s="1">
         <v>46</v>
       </c>
       <c r="J46" s="5"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="18">
+      <c r="A47" s="1">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B47" s="17" t="s">
+      <c r="B47" t="s">
         <v>90</v>
       </c>
-      <c r="E47" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F47" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G47" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" s="17" t="s">
+      <c r="E47" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F47" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G47" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H47" t="s">
         <v>20</v>
       </c>
       <c r="J47" s="5"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="18">
+      <c r="A48" s="1">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B48" s="17" t="s">
+      <c r="B48" t="s">
         <v>91</v>
       </c>
-      <c r="E48" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F48" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G48" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" s="17" t="s">
+      <c r="E48" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F48" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G48" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H48" t="s">
         <v>20</v>
       </c>
       <c r="J48" s="5"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="18">
+      <c r="A49" s="1">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B49" s="17" t="s">
+      <c r="B49" t="s">
         <v>92</v>
       </c>
-      <c r="C49" s="17" t="s">
+      <c r="C49" t="s">
         <v>93</v>
       </c>
-      <c r="E49" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F49" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G49" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" s="17" t="s">
+      <c r="E49" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F49" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G49" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H49" t="s">
         <v>20</v>
       </c>
       <c r="J49" s="5"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="18">
+      <c r="A50" s="1">
         <f>ROW(A49)</f>
         <v>49</v>
       </c>
-      <c r="B50" s="17" t="s">
+      <c r="B50" t="s">
         <v>95</v>
       </c>
-      <c r="C50" s="17" t="s">
+      <c r="C50" t="s">
         <v>94</v>
       </c>
-      <c r="E50" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F50" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G50" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" s="17" t="s">
+      <c r="E50" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F50" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G50" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H50" t="s">
         <v>20</v>
       </c>
       <c r="J50" s="5"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="18">
+      <c r="A51" s="1">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B51" s="17" t="s">
+      <c r="B51" t="s">
         <v>96</v>
       </c>
-      <c r="E51" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F51" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G51" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" s="17" t="s">
+      <c r="E51" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F51" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G51" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H51" t="s">
         <v>19</v>
       </c>
       <c r="J51" s="5"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="18">
+      <c r="A52" s="1">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B52" s="17" t="s">
+      <c r="B52" t="s">
         <v>97</v>
       </c>
-      <c r="C52" s="17" t="s">
+      <c r="C52" t="s">
         <v>98</v>
       </c>
-      <c r="E52" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F52" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G52" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" s="17" t="s">
+      <c r="E52" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F52" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G52" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H52" t="s">
         <v>18</v>
       </c>
-      <c r="I52" s="18">
+      <c r="I52" s="1">
         <v>53</v>
       </c>
       <c r="J52" s="5"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="18">
+      <c r="A53" s="1">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B53" s="17" t="s">
+      <c r="B53" t="s">
         <v>99</v>
       </c>
-      <c r="E53" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F53" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G53" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" s="17" t="s">
+      <c r="E53" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F53" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G53" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H53" t="s">
         <v>20</v>
       </c>
       <c r="J53" s="5"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="18">
+      <c r="A54" s="1">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B54" s="17" t="s">
+      <c r="B54" t="s">
         <v>99</v>
       </c>
-      <c r="C54" s="17" t="s">
+      <c r="C54" t="s">
         <v>100</v>
       </c>
-      <c r="E54" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F54" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G54" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" s="17" t="s">
+      <c r="E54" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F54" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G54" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H54" t="s">
         <v>20</v>
       </c>
       <c r="J54" s="5"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="18">
+      <c r="A55" s="1">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B55" s="17" t="s">
+      <c r="B55" t="s">
         <v>101</v>
       </c>
-      <c r="E55" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F55" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G55" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55" s="17" t="s">
+      <c r="E55" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F55" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G55" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H55" t="s">
         <v>20</v>
       </c>
       <c r="J55" s="5"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="18">
+      <c r="A56" s="1">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="B56" s="17" t="s">
+      <c r="B56" t="s">
         <v>102</v>
       </c>
-      <c r="E56" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F56" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G56" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" s="17" t="s">
+      <c r="E56" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F56" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G56" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H56" t="s">
         <v>20</v>
       </c>
       <c r="J56" s="5"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="18">
+      <c r="A57" s="1">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B57" s="17" t="s">
+      <c r="B57" t="s">
         <v>108</v>
       </c>
-      <c r="C57" s="17" t="s">
+      <c r="C57" t="s">
         <v>103</v>
       </c>
-      <c r="E57" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F57" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G57" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" s="17" t="s">
+      <c r="E57" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F57" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G57" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H57" t="s">
         <v>18</v>
       </c>
-      <c r="I57" s="18">
+      <c r="I57" s="1">
         <v>61</v>
       </c>
       <c r="J57" s="5"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="18">
+      <c r="A58" s="1">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B58" s="17" t="s">
+      <c r="B58" t="s">
         <v>109</v>
       </c>
-      <c r="C58" s="17" t="s">
+      <c r="C58" t="s">
         <v>105</v>
       </c>
-      <c r="E58" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F58" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G58" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" s="17" t="s">
+      <c r="E58" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F58" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G58" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H58" t="s">
         <v>18</v>
       </c>
-      <c r="I58" s="18">
+      <c r="I58" s="1">
         <v>61</v>
       </c>
       <c r="J58" s="5"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="18">
+      <c r="A59" s="1">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="B59" s="17" t="s">
+      <c r="B59" t="s">
         <v>110</v>
       </c>
-      <c r="C59" s="17" t="s">
+      <c r="C59" t="s">
         <v>107</v>
       </c>
-      <c r="E59" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F59" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G59" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" s="17" t="s">
+      <c r="E59" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F59" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G59" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H59" t="s">
         <v>18</v>
       </c>
-      <c r="I59" s="18">
+      <c r="I59" s="1">
         <v>61</v>
       </c>
       <c r="J59" s="5"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="18">
+      <c r="A60" s="1">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="B60" s="17" t="s">
+      <c r="B60" t="s">
         <v>111</v>
       </c>
-      <c r="C60" s="17" t="s">
+      <c r="C60" t="s">
         <v>104</v>
       </c>
-      <c r="E60" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F60" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G60" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" s="17" t="s">
+      <c r="E60" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F60" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G60" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H60" t="s">
         <v>18</v>
       </c>
-      <c r="I60" s="18">
+      <c r="I60" s="1">
         <v>61</v>
       </c>
       <c r="J60" s="5"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="18">
+      <c r="A61" s="1">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="B61" s="17" t="s">
+      <c r="B61" t="s">
         <v>112</v>
       </c>
-      <c r="C61" s="17" t="s">
+      <c r="C61" t="s">
         <v>106</v>
       </c>
-      <c r="E61" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F61" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G61" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" s="17" t="s">
+      <c r="E61" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F61" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G61" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H61" t="s">
         <v>18</v>
       </c>
-      <c r="I61" s="18">
+      <c r="I61" s="1">
         <v>61</v>
       </c>
       <c r="J61" s="5"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="18">
+      <c r="A62" s="1">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="B62" s="17" t="s">
+      <c r="B62" t="s">
         <v>56</v>
       </c>
-      <c r="C62" s="17" t="s">
+      <c r="C62" t="s">
         <v>113</v>
       </c>
-      <c r="E62" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F62" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G62" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" s="17" t="s">
+      <c r="E62" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F62" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G62" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H62" t="s">
         <v>20</v>
       </c>
       <c r="J62" s="5"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="18">
+      <c r="A63" s="1">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="B63" s="17" t="s">
+      <c r="B63" t="s">
         <v>114</v>
       </c>
-      <c r="C63" s="17" t="s">
+      <c r="C63" t="s">
         <v>116</v>
       </c>
-      <c r="E63" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F63" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G63" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63" s="17" t="s">
+      <c r="E63" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F63" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G63" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H63" t="s">
         <v>18</v>
       </c>
-      <c r="I63" s="18">
+      <c r="I63" s="1">
         <v>63</v>
       </c>
       <c r="J63" s="5"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="18">
+      <c r="A64" s="1">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="B64" s="17" t="s">
+      <c r="B64" t="s">
         <v>115</v>
       </c>
-      <c r="C64" s="17" t="s">
+      <c r="C64" t="s">
         <v>117</v>
       </c>
-      <c r="E64" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F64" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G64" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" s="17" t="s">
+      <c r="E64" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F64" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G64" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H64" t="s">
         <v>18</v>
       </c>
-      <c r="I64" s="18">
+      <c r="I64" s="1">
         <v>66</v>
       </c>
       <c r="J64" s="5"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="18">
+      <c r="A65" s="1">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="B65" s="17" t="s">
+      <c r="B65" t="s">
         <v>118</v>
       </c>
-      <c r="C65" s="17" t="s">
+      <c r="C65" t="s">
         <v>119</v>
       </c>
-      <c r="E65" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F65" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G65" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65" s="17" t="s">
+      <c r="E65" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F65" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G65" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H65" t="s">
         <v>18</v>
       </c>
-      <c r="I65" s="18">
+      <c r="I65" s="1">
         <v>66</v>
       </c>
       <c r="J65" s="5"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="18">
+      <c r="A66" s="1">
         <v>65</v>
       </c>
-      <c r="B66" s="17" t="s">
+      <c r="B66" t="s">
         <v>118</v>
       </c>
-      <c r="C66" s="17" t="s">
+      <c r="C66" t="s">
         <v>119</v>
       </c>
-      <c r="E66" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F66" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G66" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" s="17" t="s">
+      <c r="E66" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F66" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G66" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H66" t="s">
         <v>18</v>
       </c>
-      <c r="I66" s="18">
+      <c r="I66" s="1">
         <v>62</v>
       </c>
       <c r="J66" s="5"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="18">
+      <c r="A67" s="1">
         <v>66</v>
       </c>
-      <c r="B67" s="17" t="s">
+      <c r="B67" t="s">
         <v>120</v>
       </c>
-      <c r="E67" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F67" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G67" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" s="17" t="s">
+      <c r="E67" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F67" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G67" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H67" t="s">
         <v>20</v>
       </c>
       <c r="J67" s="5"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="18">
+      <c r="A68" s="1">
         <f t="shared" ref="A68:A69" si="2">ROW(A67)</f>
         <v>67</v>
       </c>
-      <c r="B68" s="17" t="s">
+      <c r="B68" t="s">
         <v>121</v>
       </c>
-      <c r="E68" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F68" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G68" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" s="17" t="s">
+      <c r="E68" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F68" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G68" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H68" t="s">
         <v>20</v>
       </c>
       <c r="J68" s="5"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="18">
+      <c r="A69" s="1">
         <f t="shared" si="2"/>
         <v>68</v>
       </c>
-      <c r="B69" s="17" t="s">
+      <c r="B69" t="s">
         <v>122</v>
       </c>
-      <c r="C69" s="17" t="s">
+      <c r="C69" t="s">
         <v>123</v>
       </c>
-      <c r="E69" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F69" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G69" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H69" s="17" t="s">
+      <c r="E69" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F69" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G69" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H69" t="s">
         <v>18</v>
       </c>
       <c r="J69" s="5"/>

--- a/Misc/game-content.xlsx
+++ b/Misc/game-content.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Csump\source\repos\dokk-game\Misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5850459A-638D-45FC-AD1F-64ECDB725A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C57FCD9-040E-46A9-AF89-08E572D12181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CCEB2629-634A-424F-AEF4-625E334951C3}"/>
+    <workbookView xWindow="4005" yWindow="3825" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{CCEB2629-634A-424F-AEF4-625E334951C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Döntések" sheetId="1" r:id="rId1"/>
@@ -1308,8 +1308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F840CCB2-A1B6-4C24-B56A-C460078DD4FD}">
   <dimension ref="A1:M116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
@@ -3977,8 +3977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09A778E5-FEF8-483F-AED6-8DF6A0AC9FB2}">
   <dimension ref="A1:J69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4518,6 +4518,9 @@
       <c r="H21" t="s">
         <v>20</v>
       </c>
+      <c r="I21" s="1">
+        <v>21</v>
+      </c>
       <c r="J21" s="5"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -5749,7 +5752,7 @@
       <c r="J69" s="5"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="KF9U0OWIc+irb0pBHMgffFIw5Wr4z2OAi1FSp6MCBqsRYXySOlRZgek1BfTeYa1QGLIgm+Zu3xHfgoWZLwLq3Q==" saltValue="i5vjeBGZr6XHX8G/SVt6lA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="LRTqBLD7drPqEBjCUjNEzis7Qk/D6wjokKMXhIrOfZ3YutMmIBLKJujNLzwsRN4wexnNxv/KNZdI5d5Zx+Dq7Q==" saltValue="pHxfs2Ml1n0DDejDvM9Djg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
